--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61038148f299e12c/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Buikding-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{03C2C254-06D1-46DF-85EA-918633AD18C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B2EFBA71-7CEC-40EC-B1D8-FD7F77C4091C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FD7FBA-F289-4930-834B-F7F0A8C20AEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,6 +477,12 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,9 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,9 +526,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,108 +894,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="55" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="39" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="47" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="55" t="s">
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="40" t="s">
         <v>49</v>
       </c>
       <c r="Y1" s="56"/>
       <c r="Z1" s="56"/>
       <c r="AA1" s="56"/>
       <c r="AB1" s="56"/>
-      <c r="AC1" s="39" t="s">
+      <c r="AC1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="41" t="s">
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="43" t="s">
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="53" t="s">
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="51" t="s">
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="49" t="s">
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="47" t="s">
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="48"/>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="43" t="s">
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="45" t="s">
+      <c r="BK1" s="46"/>
+      <c r="BL1" s="46"/>
+      <c r="BM1" s="46"/>
+      <c r="BN1" s="46"/>
+      <c r="BO1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="46"/>
-      <c r="BQ1" s="46"/>
-      <c r="BR1" s="46"/>
+      <c r="BP1" s="48"/>
+      <c r="BQ1" s="48"/>
+      <c r="BR1" s="48"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53</f>
-        <v>3154900</v>
+        <v>3614900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4747,12 +4747,12 @@
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="5"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
@@ -4779,12 +4779,14 @@
       <c r="A33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="25">
+        <v>160000</v>
+      </c>
       <c r="C33" s="24" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D33" s="25">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -4841,7 +4843,9 @@
       <c r="A37" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="25"/>
+      <c r="B37" s="25">
+        <v>160000</v>
+      </c>
       <c r="C37" s="24"/>
       <c r="D37" s="25"/>
       <c r="AC37" s="21"/>
@@ -4913,7 +4917,9 @@
       <c r="A43" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="25"/>
+      <c r="B43" s="25">
+        <v>160000</v>
+      </c>
       <c r="C43" s="24"/>
       <c r="D43" s="25"/>
       <c r="AC43" s="21"/>
@@ -4925,7 +4931,9 @@
       <c r="A44" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="25"/>
+      <c r="B44" s="25">
+        <v>160000</v>
+      </c>
       <c r="C44" s="24"/>
       <c r="D44" s="25"/>
       <c r="AC44" s="21"/>
@@ -4951,7 +4959,9 @@
       <c r="A46" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="25"/>
+      <c r="B46" s="25">
+        <v>160000</v>
+      </c>
       <c r="C46" s="24"/>
       <c r="D46" s="25"/>
       <c r="AC46" s="21"/>
@@ -4963,7 +4973,9 @@
       <c r="A47" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="25"/>
+      <c r="B47" s="25">
+        <v>160000</v>
+      </c>
       <c r="C47" s="24"/>
       <c r="D47" s="25"/>
       <c r="AC47" s="21"/>
@@ -5009,14 +5021,14 @@
       </c>
       <c r="B51" s="25">
         <f>SUM(B32:B48)</f>
-        <v>640000</v>
+        <v>1600000</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="25">
         <f>SUM(D32:D50)</f>
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5039,7 +5051,7 @@
       </c>
       <c r="B53" s="25">
         <f>(B51-D51)</f>
-        <v>140000</v>
+        <v>600000</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="25"/>
@@ -8368,11 +8380,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8383,9 +8393,11 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Buikding-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FD7FBA-F289-4930-834B-F7F0A8C20AEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772774B8-593D-438C-8445-A98EF3CEB365}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,16 +477,30 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,19 +509,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,11 +533,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,7 +816,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,108 +894,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="39" t="s">
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="40" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="41" t="s">
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="43" t="s">
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="39" t="s">
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="45" t="s">
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="54" t="s">
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="52" t="s">
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="53"/>
-      <c r="BB1" s="50" t="s">
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="39" t="s">
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="45" t="s">
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="46"/>
-      <c r="BL1" s="46"/>
-      <c r="BM1" s="46"/>
-      <c r="BN1" s="46"/>
-      <c r="BO1" s="47" t="s">
+      <c r="BK1" s="48"/>
+      <c r="BL1" s="48"/>
+      <c r="BM1" s="48"/>
+      <c r="BN1" s="48"/>
+      <c r="BO1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="48"/>
-      <c r="BQ1" s="48"/>
-      <c r="BR1" s="48"/>
+      <c r="BP1" s="46"/>
+      <c r="BQ1" s="46"/>
+      <c r="BR1" s="46"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53</f>
-        <v>3614900</v>
+        <v>3774900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4737,22 +4737,22 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
       <c r="E31" s="5"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
@@ -4869,7 +4869,9 @@
       <c r="A39" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="25"/>
+      <c r="B39" s="25">
+        <v>160000</v>
+      </c>
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
       <c r="AC39" s="21"/>
@@ -5021,7 +5023,7 @@
       </c>
       <c r="B51" s="25">
         <f>SUM(B32:B48)</f>
-        <v>1600000</v>
+        <v>1760000</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>33</v>
@@ -5051,7 +5053,7 @@
       </c>
       <c r="B53" s="25">
         <f>(B51-D51)</f>
-        <v>600000</v>
+        <v>760000</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="25"/>
@@ -8380,6 +8382,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="S1:W1"/>
@@ -8396,8 +8400,6 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Buikding-Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772774B8-593D-438C-8445-A98EF3CEB365}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CE9039-E874-4491-A087-09300DA5BA07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="96">
   <si>
     <t>آذر</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>فروردین 00</t>
+  </si>
+  <si>
+    <t>تعویض لوله آب منزل سرایدار</t>
   </si>
 </sst>
 </file>
@@ -477,6 +480,18 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,18 +510,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -816,7 +819,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,71 +897,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="39" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="51" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="52"/>
       <c r="L1" s="52"/>
       <c r="M1" s="52"/>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="43" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="39" t="s">
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
       <c r="AC1" s="51" t="s">
         <v>52</v>
       </c>
       <c r="AD1" s="52"/>
       <c r="AE1" s="52"/>
       <c r="AF1" s="52"/>
-      <c r="AG1" s="49" t="s">
+      <c r="AG1" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="43" t="s">
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="47" t="s">
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
       <c r="AT1" s="57" t="s">
         <v>79</v>
       </c>
@@ -977,25 +980,25 @@
       <c r="BC1" s="54"/>
       <c r="BD1" s="54"/>
       <c r="BE1" s="54"/>
-      <c r="BF1" s="43" t="s">
+      <c r="BF1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="47" t="s">
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="48"/>
-      <c r="BL1" s="48"/>
-      <c r="BM1" s="48"/>
-      <c r="BN1" s="48"/>
-      <c r="BO1" s="45" t="s">
+      <c r="BK1" s="42"/>
+      <c r="BL1" s="42"/>
+      <c r="BM1" s="42"/>
+      <c r="BN1" s="42"/>
+      <c r="BO1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="46"/>
-      <c r="BQ1" s="46"/>
-      <c r="BR1" s="46"/>
+      <c r="BP1" s="50"/>
+      <c r="BQ1" s="50"/>
+      <c r="BR1" s="50"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4718,7 +4721,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53</f>
-        <v>3774900</v>
+        <v>3654900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4737,22 +4740,22 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="5"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
@@ -4846,8 +4849,12 @@
       <c r="B37" s="25">
         <v>160000</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
+      <c r="C37" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="25">
+        <v>120000</v>
+      </c>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
@@ -5030,7 +5037,7 @@
       </c>
       <c r="D51" s="25">
         <f>SUM(D32:D50)</f>
-        <v>1000000</v>
+        <v>1120000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5053,7 +5060,7 @@
       </c>
       <c r="B53" s="25">
         <f>(B51-D51)</f>
-        <v>760000</v>
+        <v>640000</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="25"/>
@@ -8382,11 +8389,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8397,6 +8399,11 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CE9039-E874-4491-A087-09300DA5BA07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3929C883-8ACA-484F-B793-BC821BCF6D97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,10 +480,10 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,24 +492,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,6 +528,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,7 +819,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,95 +897,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="43" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="51" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="39" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="47" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="43" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="51" t="s">
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="39" t="s">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
       <c r="AP1" s="41" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="42"/>
       <c r="AR1" s="42"/>
       <c r="AS1" s="42"/>
-      <c r="AT1" s="57" t="s">
+      <c r="AT1" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="55" t="s">
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="53" t="s">
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="47" t="s">
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="48"/>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
       <c r="BJ1" s="41" t="s">
         <v>2</v>
       </c>
@@ -993,12 +993,12 @@
       <c r="BL1" s="42"/>
       <c r="BM1" s="42"/>
       <c r="BN1" s="42"/>
-      <c r="BO1" s="49" t="s">
+      <c r="BO1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="50"/>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
+      <c r="BP1" s="40"/>
+      <c r="BQ1" s="40"/>
+      <c r="BR1" s="40"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53</f>
-        <v>3654900</v>
+        <v>3974900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4740,10 +4740,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4864,7 +4864,9 @@
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="25"/>
+      <c r="B38" s="25">
+        <v>160000</v>
+      </c>
       <c r="C38" s="24"/>
       <c r="D38" s="25"/>
       <c r="AC38" s="21"/>
@@ -4902,7 +4904,9 @@
       <c r="A41" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="25"/>
+      <c r="B41" s="25">
+        <v>160000</v>
+      </c>
       <c r="C41" s="24"/>
       <c r="D41" s="25"/>
       <c r="AC41" s="21"/>
@@ -5030,7 +5034,7 @@
       </c>
       <c r="B51" s="25">
         <f>SUM(B32:B48)</f>
-        <v>1760000</v>
+        <v>2080000</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>33</v>
@@ -5060,7 +5064,7 @@
       </c>
       <c r="B53" s="25">
         <f>(B51-D51)</f>
-        <v>640000</v>
+        <v>960000</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="25"/>
@@ -8389,6 +8393,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8399,14 +8411,6 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3929C883-8ACA-484F-B793-BC821BCF6D97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6668986-2DD2-4018-8B9E-3EC4A69CF591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,7 +819,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53</f>
-        <v>3974900</v>
+        <v>4294900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4789,7 +4789,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="25">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -4816,7 +4816,9 @@
       <c r="A35" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="25"/>
+      <c r="B35" s="25">
+        <v>160000</v>
+      </c>
       <c r="C35" s="24" t="s">
         <v>8</v>
       </c>
@@ -4892,7 +4894,9 @@
       <c r="A40" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="25"/>
+      <c r="B40" s="25">
+        <v>160000</v>
+      </c>
       <c r="C40" s="24"/>
       <c r="D40" s="25"/>
       <c r="AC40" s="21"/>
@@ -4918,7 +4922,9 @@
       <c r="A42" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="25">
+        <v>160000</v>
+      </c>
       <c r="C42" s="24"/>
       <c r="D42" s="25"/>
       <c r="AC42" s="21"/>
@@ -5034,14 +5040,14 @@
       </c>
       <c r="B51" s="25">
         <f>SUM(B32:B48)</f>
-        <v>2080000</v>
+        <v>2560000</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="25">
         <f>SUM(D32:D50)</f>
-        <v>1120000</v>
+        <v>1280000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5064,7 +5070,7 @@
       </c>
       <c r="B53" s="25">
         <f>(B51-D51)</f>
-        <v>960000</v>
+        <v>1280000</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="25"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6668986-2DD2-4018-8B9E-3EC4A69CF591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06511CA-F13C-4D32-8A32-16F5BBF1FF32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,10 +480,10 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,22 +492,30 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,14 +536,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,7 +819,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,95 +897,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="55" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="47" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="45" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="43" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="55" t="s">
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="47" t="s">
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="45" t="s">
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="43" t="s">
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
       <c r="AP1" s="41" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="42"/>
       <c r="AR1" s="42"/>
       <c r="AS1" s="42"/>
-      <c r="AT1" s="53" t="s">
+      <c r="AT1" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="51" t="s">
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="49" t="s">
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="43" t="s">
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
       <c r="BJ1" s="41" t="s">
         <v>2</v>
       </c>
@@ -993,12 +993,12 @@
       <c r="BL1" s="42"/>
       <c r="BM1" s="42"/>
       <c r="BN1" s="42"/>
-      <c r="BO1" s="39" t="s">
+      <c r="BO1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="40"/>
-      <c r="BQ1" s="40"/>
-      <c r="BR1" s="40"/>
+      <c r="BP1" s="52"/>
+      <c r="BQ1" s="52"/>
+      <c r="BR1" s="52"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53</f>
-        <v>4294900</v>
+        <v>3954900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4740,10 +4740,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4789,7 +4789,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="25">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="D51" s="25">
         <f>SUM(D32:D50)</f>
-        <v>1280000</v>
+        <v>1620000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="B53" s="25">
         <f>(B51-D51)</f>
-        <v>1280000</v>
+        <v>940000</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="25"/>
@@ -8399,14 +8399,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8417,6 +8409,14 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06511CA-F13C-4D32-8A32-16F5BBF1FF32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DB6CCE-73BE-41B8-A108-0C64906E2B6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="98">
   <si>
     <t>آذر</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>تعویض لوله آب منزل سرایدار</t>
+  </si>
+  <si>
+    <t>لامپ حیاط</t>
+  </si>
+  <si>
+    <t>اردیبهشت 00</t>
   </si>
 </sst>
 </file>
@@ -351,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +418,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -440,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -480,10 +492,10 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,30 +504,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,6 +540,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,7 +840,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,95 +918,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="43" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="49" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="39" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="47" t="s">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="43" t="s">
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="49" t="s">
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="39" t="s">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
       <c r="AP1" s="41" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="42"/>
       <c r="AR1" s="42"/>
       <c r="AS1" s="42"/>
-      <c r="AT1" s="57" t="s">
+      <c r="AT1" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="55" t="s">
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="53" t="s">
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="47" t="s">
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="48"/>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
       <c r="BJ1" s="41" t="s">
         <v>2</v>
       </c>
@@ -993,12 +1014,12 @@
       <c r="BL1" s="42"/>
       <c r="BM1" s="42"/>
       <c r="BN1" s="42"/>
-      <c r="BO1" s="51" t="s">
+      <c r="BO1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="52"/>
-      <c r="BQ1" s="52"/>
-      <c r="BR1" s="52"/>
+      <c r="BP1" s="40"/>
+      <c r="BQ1" s="40"/>
+      <c r="BR1" s="40"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4720,8 +4741,8 @@
         <v>35</v>
       </c>
       <c r="B28" s="5">
-        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53</f>
-        <v>3954900</v>
+        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53</f>
+        <v>2919900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4740,10 +4761,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4756,7 +4777,12 @@
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4773,6 +4799,14 @@
         <v>6</v>
       </c>
       <c r="D32" s="25"/>
+      <c r="E32" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="62"/>
+      <c r="G32" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="62"/>
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="21"/>
@@ -4789,7 +4823,17 @@
         <v>11</v>
       </c>
       <c r="D33" s="25">
-        <v>1500000</v>
+        <v>2000000</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="62"/>
+      <c r="G33" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="62">
+        <v>500000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -4807,6 +4851,14 @@
         <v>17</v>
       </c>
       <c r="D34" s="25"/>
+      <c r="E34" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="62"/>
+      <c r="G34" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="62"/>
       <c r="AC34" s="21"/>
       <c r="AD34" s="21"/>
       <c r="AE34" s="21"/>
@@ -4823,6 +4875,14 @@
         <v>8</v>
       </c>
       <c r="D35" s="25"/>
+      <c r="E35" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="62"/>
+      <c r="G35" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="62"/>
       <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
       <c r="AE35" s="21"/>
@@ -4839,6 +4899,14 @@
         <v>5</v>
       </c>
       <c r="D36" s="25"/>
+      <c r="E36" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="62"/>
+      <c r="G36" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="62"/>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
       <c r="AE36" s="21"/>
@@ -4857,6 +4925,12 @@
       <c r="D37" s="25">
         <v>120000</v>
       </c>
+      <c r="E37" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="62"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="62"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
@@ -4869,8 +4943,18 @@
       <c r="B38" s="25">
         <v>160000</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
+      <c r="C38" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="25">
+        <v>35000</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="62"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="62"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
       <c r="AE38" s="21"/>
@@ -4885,6 +4969,12 @@
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
+      <c r="E39" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="62"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="62"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
@@ -4899,6 +4989,12 @@
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="25"/>
+      <c r="E40" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="62"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="62"/>
       <c r="AC40" s="21"/>
       <c r="AD40" s="21"/>
       <c r="AE40" s="21"/>
@@ -4913,6 +5009,12 @@
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="25"/>
+      <c r="E41" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="62"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="62"/>
       <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
       <c r="AE41" s="21"/>
@@ -4922,11 +5024,15 @@
       <c r="A42" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="25">
-        <v>160000</v>
-      </c>
+      <c r="B42" s="25"/>
       <c r="C42" s="24"/>
       <c r="D42" s="25"/>
+      <c r="E42" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="62"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="62"/>
       <c r="AC42" s="21"/>
       <c r="AD42" s="21"/>
       <c r="AE42" s="21"/>
@@ -4941,6 +5047,12 @@
       </c>
       <c r="C43" s="24"/>
       <c r="D43" s="25"/>
+      <c r="E43" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="62"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="62"/>
       <c r="AC43" s="21"/>
       <c r="AD43" s="21"/>
       <c r="AE43" s="21"/>
@@ -4955,6 +5067,12 @@
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="25"/>
+      <c r="E44" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="62"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="62"/>
       <c r="AC44" s="21"/>
       <c r="AD44" s="21"/>
       <c r="AE44" s="21"/>
@@ -4969,6 +5087,12 @@
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="25"/>
+      <c r="E45" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="62"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="62"/>
       <c r="AC45" s="21"/>
       <c r="AD45" s="21"/>
       <c r="AE45" s="21"/>
@@ -4983,6 +5107,12 @@
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="25"/>
+      <c r="E46" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="62"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="62"/>
       <c r="AC46" s="21"/>
       <c r="AD46" s="21"/>
       <c r="AE46" s="21"/>
@@ -4997,6 +5127,12 @@
       </c>
       <c r="C47" s="24"/>
       <c r="D47" s="25"/>
+      <c r="E47" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="62"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="62"/>
       <c r="AC47" s="21"/>
       <c r="AD47" s="21"/>
       <c r="AE47" s="21"/>
@@ -5006,9 +5142,17 @@
       <c r="A48" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="25"/>
+      <c r="B48" s="25">
+        <v>160000</v>
+      </c>
       <c r="C48" s="24"/>
       <c r="D48" s="25"/>
+      <c r="E48" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="62"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="62"/>
       <c r="AC48" s="21"/>
       <c r="AD48" s="21"/>
       <c r="AE48" s="21"/>
@@ -5019,6 +5163,10 @@
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
       <c r="D49" s="25"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="62"/>
       <c r="AC49" s="21"/>
       <c r="AD49" s="21"/>
       <c r="AE49" s="21"/>
@@ -5029,6 +5177,10 @@
       <c r="B50" s="25"/>
       <c r="C50" s="24"/>
       <c r="D50" s="25"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="62"/>
       <c r="AC50" s="21"/>
       <c r="AD50" s="21"/>
       <c r="AE50" s="21"/>
@@ -5047,7 +5199,21 @@
       </c>
       <c r="D51" s="25">
         <f>SUM(D32:D50)</f>
-        <v>1620000</v>
+        <v>2155000</v>
+      </c>
+      <c r="E51" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="62">
+        <f>SUM(F32:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="62">
+        <f>SUM(H32:H50)</f>
+        <v>500000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5059,6 +5225,10 @@
       <c r="B52" s="25"/>
       <c r="C52" s="24"/>
       <c r="D52" s="25"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="62"/>
       <c r="AC52" s="21"/>
       <c r="AD52" s="21"/>
       <c r="AE52" s="21"/>
@@ -5070,10 +5240,19 @@
       </c>
       <c r="B53" s="25">
         <f>(B51-D51)</f>
-        <v>940000</v>
+        <v>405000</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="25"/>
+      <c r="E53" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="62">
+        <f>(F51-H51)</f>
+        <v>-500000</v>
+      </c>
+      <c r="G53" s="63"/>
+      <c r="H53" s="62"/>
       <c r="AC53" s="21"/>
       <c r="AD53" s="21"/>
       <c r="AE53" s="21"/>
@@ -8398,7 +8577,16 @@
       <c r="AF606" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="E31:H31"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8409,14 +8597,6 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DB6CCE-73BE-41B8-A108-0C64906E2B6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F147B08-419D-464C-AFFE-FA259E84584D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="99">
   <si>
     <t>آذر</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>اردیبهشت 00</t>
+  </si>
+  <si>
+    <t>بیمه ماشین</t>
   </si>
 </sst>
 </file>
@@ -492,6 +495,9 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,9 +560,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,7 +843,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,108 +921,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="55" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="47" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="45" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="43" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="55" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="47" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="45" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="43" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="41" t="s">
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="53" t="s">
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="51" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="49" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="43" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="41" t="s">
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="42"/>
-      <c r="BL1" s="42"/>
-      <c r="BM1" s="42"/>
-      <c r="BN1" s="42"/>
-      <c r="BO1" s="39" t="s">
+      <c r="BK1" s="45"/>
+      <c r="BL1" s="45"/>
+      <c r="BM1" s="45"/>
+      <c r="BN1" s="45"/>
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="40"/>
-      <c r="BQ1" s="40"/>
-      <c r="BR1" s="40"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4742,7 +4745,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53</f>
-        <v>2919900</v>
+        <v>2871900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4761,28 +4764,28 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="59" t="s">
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4799,14 +4802,14 @@
         <v>6</v>
       </c>
       <c r="D32" s="25"/>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="62"/>
-      <c r="G32" s="61" t="s">
+      <c r="F32" s="40"/>
+      <c r="G32" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="62"/>
+      <c r="H32" s="40"/>
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="21"/>
@@ -4825,14 +4828,16 @@
       <c r="D33" s="25">
         <v>2000000</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="61" t="s">
+      <c r="F33" s="40">
+        <v>160000</v>
+      </c>
+      <c r="G33" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="62">
+      <c r="H33" s="40">
         <v>500000</v>
       </c>
       <c r="AC33" s="21"/>
@@ -4851,14 +4856,14 @@
         <v>17</v>
       </c>
       <c r="D34" s="25"/>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="62"/>
-      <c r="G34" s="61" t="s">
+      <c r="F34" s="40"/>
+      <c r="G34" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="62"/>
+      <c r="H34" s="40"/>
       <c r="AC34" s="21"/>
       <c r="AD34" s="21"/>
       <c r="AE34" s="21"/>
@@ -4875,14 +4880,14 @@
         <v>8</v>
       </c>
       <c r="D35" s="25"/>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="61" t="s">
+      <c r="F35" s="40"/>
+      <c r="G35" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="62"/>
+      <c r="H35" s="40"/>
       <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
       <c r="AE35" s="21"/>
@@ -4899,14 +4904,14 @@
         <v>5</v>
       </c>
       <c r="D36" s="25"/>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="62"/>
-      <c r="G36" s="61" t="s">
+      <c r="F36" s="40"/>
+      <c r="G36" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="62"/>
+      <c r="H36" s="40"/>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
       <c r="AE36" s="21"/>
@@ -4925,12 +4930,16 @@
       <c r="D37" s="25">
         <v>120000</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="62"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="62"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="40">
+        <v>528000</v>
+      </c>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
@@ -4949,12 +4958,12 @@
       <c r="D38" s="25">
         <v>35000</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="62"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="62"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="40"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
       <c r="AE38" s="21"/>
@@ -4969,12 +4978,12 @@
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="62"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="62"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="40"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
@@ -4989,12 +4998,12 @@
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="25"/>
-      <c r="E40" s="61" t="s">
+      <c r="E40" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="62"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="62"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
       <c r="AC40" s="21"/>
       <c r="AD40" s="21"/>
       <c r="AE40" s="21"/>
@@ -5009,12 +5018,12 @@
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="25"/>
-      <c r="E41" s="61" t="s">
+      <c r="E41" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="62"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="62"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
       <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
       <c r="AE41" s="21"/>
@@ -5024,15 +5033,19 @@
       <c r="A42" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="25">
+        <v>160000</v>
+      </c>
       <c r="C42" s="24"/>
       <c r="D42" s="25"/>
-      <c r="E42" s="61" t="s">
+      <c r="E42" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="62"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="62"/>
+      <c r="F42" s="40">
+        <v>160000</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
       <c r="AC42" s="21"/>
       <c r="AD42" s="21"/>
       <c r="AE42" s="21"/>
@@ -5047,12 +5060,12 @@
       </c>
       <c r="C43" s="24"/>
       <c r="D43" s="25"/>
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="62"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
       <c r="AC43" s="21"/>
       <c r="AD43" s="21"/>
       <c r="AE43" s="21"/>
@@ -5067,12 +5080,12 @@
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="25"/>
-      <c r="E44" s="61" t="s">
+      <c r="E44" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="62"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="62"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="40"/>
       <c r="AC44" s="21"/>
       <c r="AD44" s="21"/>
       <c r="AE44" s="21"/>
@@ -5087,12 +5100,12 @@
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="25"/>
-      <c r="E45" s="61" t="s">
+      <c r="E45" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="62"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
       <c r="AC45" s="21"/>
       <c r="AD45" s="21"/>
       <c r="AE45" s="21"/>
@@ -5107,12 +5120,12 @@
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="25"/>
-      <c r="E46" s="61" t="s">
+      <c r="E46" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="62"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="62"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
       <c r="AC46" s="21"/>
       <c r="AD46" s="21"/>
       <c r="AE46" s="21"/>
@@ -5127,12 +5140,12 @@
       </c>
       <c r="C47" s="24"/>
       <c r="D47" s="25"/>
-      <c r="E47" s="61" t="s">
+      <c r="E47" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="62"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="62"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
       <c r="AC47" s="21"/>
       <c r="AD47" s="21"/>
       <c r="AE47" s="21"/>
@@ -5147,12 +5160,12 @@
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="25"/>
-      <c r="E48" s="61" t="s">
+      <c r="E48" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="62"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="62"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="40"/>
       <c r="AC48" s="21"/>
       <c r="AD48" s="21"/>
       <c r="AE48" s="21"/>
@@ -5163,10 +5176,10 @@
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
       <c r="D49" s="25"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="62"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="40"/>
       <c r="AC49" s="21"/>
       <c r="AD49" s="21"/>
       <c r="AE49" s="21"/>
@@ -5177,10 +5190,10 @@
       <c r="B50" s="25"/>
       <c r="C50" s="24"/>
       <c r="D50" s="25"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="62"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="40"/>
       <c r="AC50" s="21"/>
       <c r="AD50" s="21"/>
       <c r="AE50" s="21"/>
@@ -5192,7 +5205,7 @@
       </c>
       <c r="B51" s="25">
         <f>SUM(B32:B48)</f>
-        <v>2560000</v>
+        <v>2720000</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>33</v>
@@ -5201,19 +5214,19 @@
         <f>SUM(D32:D50)</f>
         <v>2155000</v>
       </c>
-      <c r="E51" s="63" t="s">
+      <c r="E51" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="62">
+      <c r="F51" s="40">
         <f>SUM(F32:F48)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="63" t="s">
+        <v>320000</v>
+      </c>
+      <c r="G51" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="H51" s="62">
+      <c r="H51" s="40">
         <f>SUM(H32:H50)</f>
-        <v>500000</v>
+        <v>1028000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5225,10 +5238,10 @@
       <c r="B52" s="25"/>
       <c r="C52" s="24"/>
       <c r="D52" s="25"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="62"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="40"/>
       <c r="AC52" s="21"/>
       <c r="AD52" s="21"/>
       <c r="AE52" s="21"/>
@@ -5240,19 +5253,19 @@
       </c>
       <c r="B53" s="25">
         <f>(B51-D51)</f>
-        <v>405000</v>
+        <v>565000</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="25"/>
-      <c r="E53" s="63" t="s">
+      <c r="E53" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F53" s="62">
+      <c r="F53" s="40">
         <f>(F51-H51)</f>
-        <v>-500000</v>
-      </c>
-      <c r="G53" s="63"/>
-      <c r="H53" s="62"/>
+        <v>-708000</v>
+      </c>
+      <c r="G53" s="41"/>
+      <c r="H53" s="40"/>
       <c r="AC53" s="21"/>
       <c r="AD53" s="21"/>
       <c r="AE53" s="21"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F147B08-419D-464C-AFFE-FA259E84584D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A129B158-82C2-40F7-A8D7-6CF89B2AD745}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="98">
   <si>
     <t>آذر</t>
   </si>
@@ -319,9 +319,6 @@
   </si>
   <si>
     <t>اردیبهشت 00</t>
-  </si>
-  <si>
-    <t>بیمه ماشین</t>
   </si>
 </sst>
 </file>
@@ -498,10 +495,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -510,22 +507,36 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,20 +555,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -843,7 +840,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,95 +918,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1017,12 +1014,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="57"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4745,7 +4742,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53</f>
-        <v>2871900</v>
+        <v>3596800</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4764,10 +4761,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4780,12 +4777,12 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4879,7 +4876,9 @@
       <c r="C35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="25"/>
+      <c r="D35" s="25">
+        <v>123100</v>
+      </c>
       <c r="E35" s="39" t="s">
         <v>12</v>
       </c>
@@ -4907,7 +4906,9 @@
       <c r="E36" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="40"/>
+      <c r="F36" s="40">
+        <v>160000</v>
+      </c>
       <c r="G36" s="39" t="s">
         <v>5</v>
       </c>
@@ -4934,12 +4935,8 @@
         <v>15</v>
       </c>
       <c r="F37" s="40"/>
-      <c r="G37" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" s="40">
-        <v>528000</v>
-      </c>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
@@ -5083,7 +5080,9 @@
       <c r="E44" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="40"/>
+      <c r="F44" s="40">
+        <v>160000</v>
+      </c>
       <c r="G44" s="39"/>
       <c r="H44" s="40"/>
       <c r="AC44" s="21"/>
@@ -5212,21 +5211,21 @@
       </c>
       <c r="D51" s="25">
         <f>SUM(D32:D50)</f>
-        <v>2155000</v>
+        <v>2278100</v>
       </c>
       <c r="E51" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F51" s="40">
         <f>SUM(F32:F48)</f>
-        <v>320000</v>
+        <v>640000</v>
       </c>
       <c r="G51" s="41" t="s">
         <v>33</v>
       </c>
       <c r="H51" s="40">
         <f>SUM(H32:H50)</f>
-        <v>1028000</v>
+        <v>500000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5253,7 +5252,7 @@
       </c>
       <c r="B53" s="25">
         <f>(B51-D51)</f>
-        <v>565000</v>
+        <v>441900</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="25"/>
@@ -5262,7 +5261,7 @@
       </c>
       <c r="F53" s="40">
         <f>(F51-H51)</f>
-        <v>-708000</v>
+        <v>140000</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="40"/>
@@ -8591,15 +8590,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E31:H31"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8610,6 +8600,15 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="E31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A129B158-82C2-40F7-A8D7-6CF89B2AD745}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF968799-B990-4BC9-AF11-4D10689C1245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,10 +495,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -507,36 +507,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,6 +541,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -840,7 +840,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,95 +918,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="62" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="60" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="58" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1014,12 +1014,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="56" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="57"/>
-      <c r="BR1" s="57"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53</f>
-        <v>3596800</v>
+        <v>3756800</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4761,10 +4761,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4777,12 +4777,12 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -5102,7 +5102,9 @@
       <c r="E45" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="40"/>
+      <c r="F45" s="40">
+        <v>160000</v>
+      </c>
       <c r="G45" s="39"/>
       <c r="H45" s="40"/>
       <c r="AC45" s="21"/>
@@ -5218,7 +5220,7 @@
       </c>
       <c r="F51" s="40">
         <f>SUM(F32:F48)</f>
-        <v>640000</v>
+        <v>800000</v>
       </c>
       <c r="G51" s="41" t="s">
         <v>33</v>
@@ -5261,7 +5263,7 @@
       </c>
       <c r="F53" s="40">
         <f>(F51-H51)</f>
-        <v>140000</v>
+        <v>300000</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="40"/>
@@ -8590,6 +8592,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="E31:H31"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8600,15 +8611,6 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF968799-B990-4BC9-AF11-4D10689C1245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6CE0A7-0E1F-48FC-B970-A0A68614BF04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,10 +495,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -507,22 +507,36 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -541,20 +555,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -840,7 +840,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,95 +918,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1014,12 +1014,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="57"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53</f>
-        <v>3756800</v>
+        <v>4076800</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4761,10 +4761,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4777,12 +4777,12 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4802,7 +4802,9 @@
       <c r="E32" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="40"/>
+      <c r="F32" s="40">
+        <v>160000</v>
+      </c>
       <c r="G32" s="39" t="s">
         <v>6</v>
       </c>
@@ -4856,7 +4858,9 @@
       <c r="E34" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="40"/>
+      <c r="F34" s="40">
+        <v>160000</v>
+      </c>
       <c r="G34" s="39" t="s">
         <v>17</v>
       </c>
@@ -5220,7 +5224,7 @@
       </c>
       <c r="F51" s="40">
         <f>SUM(F32:F48)</f>
-        <v>800000</v>
+        <v>1120000</v>
       </c>
       <c r="G51" s="41" t="s">
         <v>33</v>
@@ -5263,7 +5267,7 @@
       </c>
       <c r="F53" s="40">
         <f>(F51-H51)</f>
-        <v>300000</v>
+        <v>620000</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="40"/>
@@ -8592,15 +8596,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E31:H31"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8611,6 +8606,15 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="E31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6CE0A7-0E1F-48FC-B970-A0A68614BF04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B0F205-E2D2-4741-B97B-47F3214BC52E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,7 +840,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53</f>
-        <v>4076800</v>
+        <v>4396800</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -5128,7 +5128,9 @@
       <c r="E46" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="40"/>
+      <c r="F46" s="40">
+        <v>160000</v>
+      </c>
       <c r="G46" s="39"/>
       <c r="H46" s="40"/>
       <c r="AC46" s="21"/>
@@ -5148,7 +5150,9 @@
       <c r="E47" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="40"/>
+      <c r="F47" s="40">
+        <v>160000</v>
+      </c>
       <c r="G47" s="39"/>
       <c r="H47" s="40"/>
       <c r="AC47" s="21"/>
@@ -5224,7 +5228,7 @@
       </c>
       <c r="F51" s="40">
         <f>SUM(F32:F48)</f>
-        <v>1120000</v>
+        <v>1440000</v>
       </c>
       <c r="G51" s="41" t="s">
         <v>33</v>
@@ -5267,7 +5271,7 @@
       </c>
       <c r="F53" s="40">
         <f>(F51-H51)</f>
-        <v>620000</v>
+        <v>940000</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="40"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B0F205-E2D2-4741-B97B-47F3214BC52E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C73C67-6FCE-4D60-A1DB-836B364EA693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,10 +495,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -507,36 +507,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,6 +541,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -840,7 +840,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,95 +918,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="62" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="60" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="58" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1014,12 +1014,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="56" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="57"/>
-      <c r="BR1" s="57"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53</f>
-        <v>4396800</v>
+        <v>4556800</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4761,10 +4761,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4777,12 +4777,12 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4982,7 +4982,9 @@
       <c r="E39" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="40"/>
+      <c r="F39" s="40">
+        <v>160000</v>
+      </c>
       <c r="G39" s="39"/>
       <c r="H39" s="40"/>
       <c r="AC39" s="21"/>
@@ -5228,7 +5230,7 @@
       </c>
       <c r="F51" s="40">
         <f>SUM(F32:F48)</f>
-        <v>1440000</v>
+        <v>1600000</v>
       </c>
       <c r="G51" s="41" t="s">
         <v>33</v>
@@ -5271,7 +5273,7 @@
       </c>
       <c r="F53" s="40">
         <f>(F51-H51)</f>
-        <v>940000</v>
+        <v>1100000</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="40"/>
@@ -8600,6 +8602,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="E31:H31"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8610,15 +8621,6 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C73C67-6FCE-4D60-A1DB-836B364EA693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4705B567-A43D-4918-9D09-3BCBF831602C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,7 +840,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53</f>
-        <v>4556800</v>
+        <v>4641900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4837,7 +4837,7 @@
         <v>11</v>
       </c>
       <c r="H33" s="40">
-        <v>500000</v>
+        <v>660000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -4886,7 +4886,9 @@
       <c r="E35" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="40"/>
+      <c r="F35" s="40">
+        <v>160000</v>
+      </c>
       <c r="G35" s="39" t="s">
         <v>8</v>
       </c>
@@ -4916,7 +4918,9 @@
       <c r="G36" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="40"/>
+      <c r="H36" s="40">
+        <v>394900</v>
+      </c>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
       <c r="AE36" s="21"/>
@@ -4938,7 +4942,9 @@
       <c r="E37" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="40"/>
+      <c r="F37" s="40">
+        <v>160000</v>
+      </c>
       <c r="G37" s="39"/>
       <c r="H37" s="40"/>
       <c r="AC37" s="21"/>
@@ -5066,7 +5072,9 @@
       <c r="E43" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="40"/>
+      <c r="F43" s="40">
+        <v>160000</v>
+      </c>
       <c r="G43" s="39"/>
       <c r="H43" s="40"/>
       <c r="AC43" s="21"/>
@@ -5174,7 +5182,9 @@
       <c r="E48" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="40"/>
+      <c r="F48" s="40">
+        <v>160000</v>
+      </c>
       <c r="G48" s="39"/>
       <c r="H48" s="40"/>
       <c r="AC48" s="21"/>
@@ -5230,14 +5240,14 @@
       </c>
       <c r="F51" s="40">
         <f>SUM(F32:F48)</f>
-        <v>1600000</v>
+        <v>2240000</v>
       </c>
       <c r="G51" s="41" t="s">
         <v>33</v>
       </c>
       <c r="H51" s="40">
         <f>SUM(H32:H50)</f>
-        <v>500000</v>
+        <v>1054900</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5273,7 +5283,7 @@
       </c>
       <c r="F53" s="40">
         <f>(F51-H51)</f>
-        <v>1100000</v>
+        <v>1185100</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="40"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4705B567-A43D-4918-9D09-3BCBF831602C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8F2590-E906-4BB0-9CA5-C09D597A6160}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,10 +495,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -507,22 +507,36 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -541,20 +555,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -840,7 +840,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,95 +918,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="59"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1014,12 +1014,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
+      <c r="BR1" s="57"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53</f>
-        <v>4641900</v>
+        <v>4491900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4761,10 +4761,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4777,12 +4777,12 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4837,7 +4837,7 @@
         <v>11</v>
       </c>
       <c r="H33" s="40">
-        <v>660000</v>
+        <v>810000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="H51" s="40">
         <f>SUM(H32:H50)</f>
-        <v>1054900</v>
+        <v>1204900</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="F53" s="40">
         <f>(F51-H51)</f>
-        <v>1185100</v>
+        <v>1035100</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="40"/>
@@ -8612,15 +8612,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E31:H31"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8631,6 +8622,15 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="E31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8F2590-E906-4BB0-9CA5-C09D597A6160}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5F4E1B-4179-4A73-B58D-34C490E96332}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="99">
   <si>
     <t>آذر</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>اردیبهشت 00</t>
+  </si>
+  <si>
+    <t>خرداد 00</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4741,8 +4744,8 @@
         <v>35</v>
       </c>
       <c r="B28" s="5">
-        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53</f>
-        <v>4491900</v>
+        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53</f>
+        <v>4971900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4783,6 +4786,12 @@
       <c r="F31" s="55"/>
       <c r="G31" s="55"/>
       <c r="H31" s="55"/>
+      <c r="I31" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4809,6 +4818,14 @@
         <v>6</v>
       </c>
       <c r="H32" s="40"/>
+      <c r="I32" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="31"/>
+      <c r="K32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="31"/>
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="21"/>
@@ -4837,8 +4854,16 @@
         <v>11</v>
       </c>
       <c r="H33" s="40">
-        <v>810000</v>
-      </c>
+        <v>970000</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="31"/>
+      <c r="K33" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="31"/>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
       <c r="AE33" s="21"/>
@@ -4865,6 +4890,14 @@
         <v>17</v>
       </c>
       <c r="H34" s="40"/>
+      <c r="I34" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="31"/>
+      <c r="K34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="31"/>
       <c r="AC34" s="21"/>
       <c r="AD34" s="21"/>
       <c r="AE34" s="21"/>
@@ -4893,6 +4926,16 @@
         <v>8</v>
       </c>
       <c r="H35" s="40"/>
+      <c r="I35" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="31">
+        <v>160000</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="31"/>
       <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
       <c r="AE35" s="21"/>
@@ -4921,6 +4964,14 @@
       <c r="H36" s="40">
         <v>394900</v>
       </c>
+      <c r="I36" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="31"/>
+      <c r="K36" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" s="31"/>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
       <c r="AE36" s="21"/>
@@ -4947,6 +4998,12 @@
       </c>
       <c r="G37" s="39"/>
       <c r="H37" s="40"/>
+      <c r="I37" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="31"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="31"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
@@ -4968,9 +5025,17 @@
       <c r="E38" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="40"/>
+      <c r="F38" s="40">
+        <v>160000</v>
+      </c>
       <c r="G38" s="39"/>
       <c r="H38" s="40"/>
+      <c r="I38" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="31"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="31"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
       <c r="AE38" s="21"/>
@@ -4993,6 +5058,12 @@
       </c>
       <c r="G39" s="39"/>
       <c r="H39" s="40"/>
+      <c r="I39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="31"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="31"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
@@ -5010,9 +5081,17 @@
       <c r="E40" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="40"/>
+      <c r="F40" s="40">
+        <v>160000</v>
+      </c>
       <c r="G40" s="39"/>
       <c r="H40" s="40"/>
+      <c r="I40" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="31"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="31"/>
       <c r="AC40" s="21"/>
       <c r="AD40" s="21"/>
       <c r="AE40" s="21"/>
@@ -5030,9 +5109,17 @@
       <c r="E41" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="40"/>
+      <c r="F41" s="40">
+        <v>160000</v>
+      </c>
       <c r="G41" s="39"/>
       <c r="H41" s="40"/>
+      <c r="I41" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="31"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="31"/>
       <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
       <c r="AE41" s="21"/>
@@ -5055,6 +5142,12 @@
       </c>
       <c r="G42" s="39"/>
       <c r="H42" s="40"/>
+      <c r="I42" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="31"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="31"/>
       <c r="AC42" s="21"/>
       <c r="AD42" s="21"/>
       <c r="AE42" s="21"/>
@@ -5077,6 +5170,12 @@
       </c>
       <c r="G43" s="39"/>
       <c r="H43" s="40"/>
+      <c r="I43" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="31"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="31"/>
       <c r="AC43" s="21"/>
       <c r="AD43" s="21"/>
       <c r="AE43" s="21"/>
@@ -5099,6 +5198,12 @@
       </c>
       <c r="G44" s="39"/>
       <c r="H44" s="40"/>
+      <c r="I44" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="31"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="31"/>
       <c r="AC44" s="21"/>
       <c r="AD44" s="21"/>
       <c r="AE44" s="21"/>
@@ -5121,6 +5226,12 @@
       </c>
       <c r="G45" s="39"/>
       <c r="H45" s="40"/>
+      <c r="I45" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="31"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="31"/>
       <c r="AC45" s="21"/>
       <c r="AD45" s="21"/>
       <c r="AE45" s="21"/>
@@ -5143,6 +5254,12 @@
       </c>
       <c r="G46" s="39"/>
       <c r="H46" s="40"/>
+      <c r="I46" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="31"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="31"/>
       <c r="AC46" s="21"/>
       <c r="AD46" s="21"/>
       <c r="AE46" s="21"/>
@@ -5165,6 +5282,12 @@
       </c>
       <c r="G47" s="39"/>
       <c r="H47" s="40"/>
+      <c r="I47" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="31"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="31"/>
       <c r="AC47" s="21"/>
       <c r="AD47" s="21"/>
       <c r="AE47" s="21"/>
@@ -5187,6 +5310,12 @@
       </c>
       <c r="G48" s="39"/>
       <c r="H48" s="40"/>
+      <c r="I48" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="31"/>
       <c r="AC48" s="21"/>
       <c r="AD48" s="21"/>
       <c r="AE48" s="21"/>
@@ -5201,6 +5330,10 @@
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
       <c r="H49" s="40"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="31"/>
       <c r="AC49" s="21"/>
       <c r="AD49" s="21"/>
       <c r="AE49" s="21"/>
@@ -5215,6 +5348,10 @@
       <c r="F50" s="40"/>
       <c r="G50" s="39"/>
       <c r="H50" s="40"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="31"/>
       <c r="AC50" s="21"/>
       <c r="AD50" s="21"/>
       <c r="AE50" s="21"/>
@@ -5240,14 +5377,28 @@
       </c>
       <c r="F51" s="40">
         <f>SUM(F32:F48)</f>
-        <v>2240000</v>
+        <v>2720000</v>
       </c>
       <c r="G51" s="41" t="s">
         <v>33</v>
       </c>
       <c r="H51" s="40">
         <f>SUM(H32:H50)</f>
-        <v>1204900</v>
+        <v>1364900</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="31">
+        <f>SUM(J32:J48)</f>
+        <v>160000</v>
+      </c>
+      <c r="K51" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" s="31">
+        <f>SUM(L32:L50)</f>
+        <v>0</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5263,6 +5414,10 @@
       <c r="F52" s="40"/>
       <c r="G52" s="39"/>
       <c r="H52" s="40"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="31"/>
       <c r="AC52" s="21"/>
       <c r="AD52" s="21"/>
       <c r="AE52" s="21"/>
@@ -5283,10 +5438,19 @@
       </c>
       <c r="F53" s="40">
         <f>(F51-H51)</f>
-        <v>1035100</v>
+        <v>1355100</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="40"/>
+      <c r="I53" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="31">
+        <f>(J51-L51)</f>
+        <v>160000</v>
+      </c>
+      <c r="K53" s="32"/>
+      <c r="L53" s="31"/>
       <c r="AC53" s="21"/>
       <c r="AD53" s="21"/>
       <c r="AE53" s="21"/>
@@ -8611,7 +8775,7 @@
       <c r="AF606" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8631,6 +8795,7 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5F4E1B-4179-4A73-B58D-34C490E96332}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91A52C6-A1EF-452F-8AF5-D4C6560A6B0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,10 +498,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -510,36 +510,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,6 +544,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -843,7 +843,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,95 +921,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="62" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="60" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="58" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1017,12 +1017,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="56" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="57"/>
-      <c r="BR1" s="57"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53</f>
-        <v>4971900</v>
+        <v>4871900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4780,18 +4780,18 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="60" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4854,7 +4854,7 @@
         <v>11</v>
       </c>
       <c r="H33" s="40">
-        <v>970000</v>
+        <v>1070000</v>
       </c>
       <c r="I33" s="30" t="s">
         <v>7</v>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="H51" s="40">
         <f>SUM(H32:H50)</f>
-        <v>1364900</v>
+        <v>1464900</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>32</v>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="F53" s="40">
         <f>(F51-H51)</f>
-        <v>1355100</v>
+        <v>1255100</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="40"/>
@@ -8776,6 +8776,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8786,16 +8796,6 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91A52C6-A1EF-452F-8AF5-D4C6560A6B0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4776ADEC-1FDD-4C81-BA00-CCB1EEDC6818}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,52 +498,16 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,10 +518,46 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -843,7 +843,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,95 +921,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1017,12 +1017,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="59"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53</f>
-        <v>4871900</v>
+        <v>4571900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4780,18 +4780,18 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4854,7 +4854,7 @@
         <v>11</v>
       </c>
       <c r="H33" s="40">
-        <v>1070000</v>
+        <v>1370000</v>
       </c>
       <c r="I33" s="30" t="s">
         <v>7</v>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="H51" s="40">
         <f>SUM(H32:H50)</f>
-        <v>1464900</v>
+        <v>1764900</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>32</v>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="F53" s="40">
         <f>(F51-H51)</f>
-        <v>1255100</v>
+        <v>955100</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="40"/>
@@ -8776,6 +8776,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -8786,16 +8796,6 @@
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="E31:H31"/>
     <mergeCell ref="I31:L31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4776ADEC-1FDD-4C81-BA00-CCB1EEDC6818}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3864C06F-1CBA-4D1F-8281-35CED55EEA9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,16 +498,52 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,46 +554,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -843,7 +843,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,95 +921,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="62" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="60" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1017,12 +1017,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="58" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53</f>
-        <v>4571900</v>
+        <v>4371900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4780,18 +4780,18 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4854,7 +4854,7 @@
         <v>11</v>
       </c>
       <c r="H33" s="40">
-        <v>1370000</v>
+        <v>1570000</v>
       </c>
       <c r="I33" s="30" t="s">
         <v>7</v>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="H51" s="40">
         <f>SUM(H32:H50)</f>
-        <v>1764900</v>
+        <v>1964900</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>32</v>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="F53" s="40">
         <f>(F51-H51)</f>
-        <v>955100</v>
+        <v>755100</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="40"/>
@@ -8776,6 +8776,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8786,16 +8796,6 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3864C06F-1CBA-4D1F-8281-35CED55EEA9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C748CF3-9A26-4782-8464-7A0159333A9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="100">
   <si>
     <t>آذر</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>خرداد 00</t>
+  </si>
+  <si>
+    <t>تنظیم دیش های ماهواره</t>
   </si>
 </sst>
 </file>
@@ -498,52 +501,16 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,10 +521,46 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -843,23 +846,20 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
@@ -882,134 +882,133 @@
     <col min="32" max="32" width="10.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.7109375" customWidth="1"/>
+    <col min="35" max="35" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10.140625" customWidth="1"/>
-    <col min="40" max="40" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.7109375" customWidth="1"/>
+    <col min="44" max="44" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.28515625" customWidth="1"/>
+    <col min="47" max="47" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="11" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="11" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="11" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.85546875" customWidth="1"/>
-    <col min="65" max="65" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="11" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1017,12 +1016,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="59"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4745,7 +4744,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53</f>
-        <v>4371900</v>
+        <v>3771900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4764,10 +4763,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4780,18 +4779,18 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4854,7 +4853,7 @@
         <v>11</v>
       </c>
       <c r="H33" s="40">
-        <v>1570000</v>
+        <v>1870000</v>
       </c>
       <c r="I33" s="30" t="s">
         <v>7</v>
@@ -4996,8 +4995,12 @@
       <c r="F37" s="40">
         <v>160000</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
+      <c r="G37" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="40">
+        <v>300000</v>
+      </c>
       <c r="I37" s="30" t="s">
         <v>15</v>
       </c>
@@ -5384,7 +5387,7 @@
       </c>
       <c r="H51" s="40">
         <f>SUM(H32:H50)</f>
-        <v>1964900</v>
+        <v>2564900</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>32</v>
@@ -5438,7 +5441,7 @@
       </c>
       <c r="F53" s="40">
         <f>(F51-H51)</f>
-        <v>755100</v>
+        <v>155100</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="40"/>
@@ -8776,6 +8779,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -8786,16 +8799,6 @@
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="E31:H31"/>
     <mergeCell ref="I31:L31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C748CF3-9A26-4782-8464-7A0159333A9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA0C17B-898C-47A4-B0F3-3E8775D80F38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53</f>
-        <v>3771900</v>
+        <v>2801900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4853,7 +4853,7 @@
         <v>11</v>
       </c>
       <c r="H33" s="40">
-        <v>1870000</v>
+        <v>2000000</v>
       </c>
       <c r="I33" s="30" t="s">
         <v>7</v>
@@ -4862,7 +4862,9 @@
       <c r="K33" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="31"/>
+      <c r="L33" s="31">
+        <v>1000000</v>
+      </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
       <c r="AE33" s="21"/>
@@ -5232,7 +5234,9 @@
       <c r="I45" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J45" s="31"/>
+      <c r="J45" s="31">
+        <v>160000</v>
+      </c>
       <c r="K45" s="30"/>
       <c r="L45" s="31"/>
       <c r="AC45" s="21"/>
@@ -5387,21 +5391,21 @@
       </c>
       <c r="H51" s="40">
         <f>SUM(H32:H50)</f>
-        <v>2564900</v>
+        <v>2694900</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>32</v>
       </c>
       <c r="J51" s="31">
         <f>SUM(J32:J48)</f>
-        <v>160000</v>
+        <v>320000</v>
       </c>
       <c r="K51" s="32" t="s">
         <v>33</v>
       </c>
       <c r="L51" s="31">
         <f>SUM(L32:L50)</f>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5441,7 +5445,7 @@
       </c>
       <c r="F53" s="40">
         <f>(F51-H51)</f>
-        <v>155100</v>
+        <v>25100</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="40"/>
@@ -5450,7 +5454,7 @@
       </c>
       <c r="J53" s="31">
         <f>(J51-L51)</f>
-        <v>160000</v>
+        <v>-680000</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="31"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA0C17B-898C-47A4-B0F3-3E8775D80F38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5DCDCC-1794-4DEF-83BD-0ABFB442A2C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,16 +501,52 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,46 +557,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -846,7 +846,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,95 +920,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="62" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="60" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1016,12 +1016,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="58" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53</f>
-        <v>2801900</v>
+        <v>2961900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4763,10 +4763,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4779,18 +4779,18 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -5206,7 +5206,9 @@
       <c r="I44" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J44" s="31"/>
+      <c r="J44" s="31">
+        <v>160000</v>
+      </c>
       <c r="K44" s="30"/>
       <c r="L44" s="31"/>
       <c r="AC44" s="21"/>
@@ -5398,7 +5400,7 @@
       </c>
       <c r="J51" s="31">
         <f>SUM(J32:J48)</f>
-        <v>320000</v>
+        <v>480000</v>
       </c>
       <c r="K51" s="32" t="s">
         <v>33</v>
@@ -5454,7 +5456,7 @@
       </c>
       <c r="J53" s="31">
         <f>(J51-L51)</f>
-        <v>-680000</v>
+        <v>-520000</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="31"/>
@@ -8783,6 +8785,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8793,16 +8805,6 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5DCDCC-1794-4DEF-83BD-0ABFB442A2C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC62C6D1-F5CA-40AF-83A7-5D39E5126C03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,52 +501,16 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,10 +521,46 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -846,7 +846,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,95 +920,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1016,12 +1016,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="59"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53</f>
-        <v>2961900</v>
+        <v>3121900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4763,10 +4763,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4779,18 +4779,18 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -5294,7 +5294,9 @@
       <c r="I47" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="31"/>
+      <c r="J47" s="31">
+        <v>160000</v>
+      </c>
       <c r="K47" s="30"/>
       <c r="L47" s="31"/>
       <c r="AC47" s="21"/>
@@ -5400,7 +5402,7 @@
       </c>
       <c r="J51" s="31">
         <f>SUM(J32:J48)</f>
-        <v>480000</v>
+        <v>640000</v>
       </c>
       <c r="K51" s="32" t="s">
         <v>33</v>
@@ -5456,7 +5458,7 @@
       </c>
       <c r="J53" s="31">
         <f>(J51-L51)</f>
-        <v>-520000</v>
+        <v>-360000</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="31"/>
@@ -8785,6 +8787,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -8795,16 +8807,6 @@
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="E31:H31"/>
     <mergeCell ref="I31:L31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC62C6D1-F5CA-40AF-83A7-5D39E5126C03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EA1685-BA6C-4102-863A-9154AA2AD78E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,16 +501,52 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,46 +557,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,95 +920,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="62" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="60" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1016,12 +1016,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="58" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53</f>
-        <v>3121900</v>
+        <v>4081900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4763,10 +4763,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4779,18 +4779,18 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4820,7 +4820,9 @@
       <c r="I32" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="31"/>
+      <c r="J32" s="31">
+        <v>160000</v>
+      </c>
       <c r="K32" s="30" t="s">
         <v>6</v>
       </c>
@@ -4894,7 +4896,9 @@
       <c r="I34" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="31"/>
+      <c r="J34" s="31">
+        <v>160000</v>
+      </c>
       <c r="K34" s="30" t="s">
         <v>17</v>
       </c>
@@ -4968,7 +4972,9 @@
       <c r="I36" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="31"/>
+      <c r="J36" s="31">
+        <v>160000</v>
+      </c>
       <c r="K36" s="30" t="s">
         <v>5</v>
       </c>
@@ -5006,7 +5012,9 @@
       <c r="I37" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="31"/>
+      <c r="J37" s="31">
+        <v>160000</v>
+      </c>
       <c r="K37" s="30"/>
       <c r="L37" s="31"/>
       <c r="AC37" s="21"/>
@@ -5066,7 +5074,9 @@
       <c r="I39" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="31"/>
+      <c r="J39" s="31">
+        <v>160000</v>
+      </c>
       <c r="K39" s="30"/>
       <c r="L39" s="31"/>
       <c r="AC39" s="21"/>
@@ -5266,7 +5276,9 @@
       <c r="I46" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="J46" s="31"/>
+      <c r="J46" s="31">
+        <v>160000</v>
+      </c>
       <c r="K46" s="30"/>
       <c r="L46" s="31"/>
       <c r="AC46" s="21"/>
@@ -5402,7 +5414,7 @@
       </c>
       <c r="J51" s="31">
         <f>SUM(J32:J48)</f>
-        <v>640000</v>
+        <v>1600000</v>
       </c>
       <c r="K51" s="32" t="s">
         <v>33</v>
@@ -5458,7 +5470,7 @@
       </c>
       <c r="J53" s="31">
         <f>(J51-L51)</f>
-        <v>-360000</v>
+        <v>600000</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="31"/>
@@ -8787,6 +8799,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8797,16 +8819,6 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EA1685-BA6C-4102-863A-9154AA2AD78E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A197F401-F29C-4D4D-9AE8-2F7F6680C0FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,7 +846,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53</f>
-        <v>4081900</v>
+        <v>3401900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4860,12 +4860,14 @@
       <c r="I33" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="31"/>
+      <c r="J33" s="31">
+        <v>160000</v>
+      </c>
       <c r="K33" s="30" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="31">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -5188,7 +5190,9 @@
       <c r="I43" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="31"/>
+      <c r="J43" s="31">
+        <v>160000</v>
+      </c>
       <c r="K43" s="30"/>
       <c r="L43" s="31"/>
       <c r="AC43" s="21"/>
@@ -5414,14 +5418,14 @@
       </c>
       <c r="J51" s="31">
         <f>SUM(J32:J48)</f>
-        <v>1600000</v>
+        <v>1920000</v>
       </c>
       <c r="K51" s="32" t="s">
         <v>33</v>
       </c>
       <c r="L51" s="31">
         <f>SUM(L32:L50)</f>
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5470,7 +5474,7 @@
       </c>
       <c r="J53" s="31">
         <f>(J51-L51)</f>
-        <v>600000</v>
+        <v>-80000</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="31"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A197F401-F29C-4D4D-9AE8-2F7F6680C0FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B3B0CA-86CC-472D-81B0-474F38D88FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,52 +501,16 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,10 +521,46 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -846,7 +846,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,95 +920,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1016,12 +1016,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="59"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53</f>
-        <v>3401900</v>
+        <v>2862100</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4763,10 +4763,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4779,18 +4779,18 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4904,7 +4904,9 @@
       <c r="K34" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="31"/>
+      <c r="L34" s="31">
+        <v>122400</v>
+      </c>
       <c r="AC34" s="21"/>
       <c r="AD34" s="21"/>
       <c r="AE34" s="21"/>
@@ -4980,7 +4982,9 @@
       <c r="K36" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L36" s="31"/>
+      <c r="L36" s="31">
+        <v>417400</v>
+      </c>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
       <c r="AE36" s="21"/>
@@ -5425,7 +5429,7 @@
       </c>
       <c r="L51" s="31">
         <f>SUM(L32:L50)</f>
-        <v>2000000</v>
+        <v>2539800</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5474,7 +5478,7 @@
       </c>
       <c r="J53" s="31">
         <f>(J51-L51)</f>
-        <v>-80000</v>
+        <v>-619800</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="31"/>
@@ -8803,6 +8807,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -8813,16 +8827,6 @@
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="E31:H31"/>
     <mergeCell ref="I31:L31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B3B0CA-86CC-472D-81B0-474F38D88FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29FA8C1-EC09-42C6-A595-2D475CDC5D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="101">
   <si>
     <t>آذر</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>تنظیم دیش های ماهواره</t>
+  </si>
+  <si>
+    <t>پمپ آب کولر سرابدار</t>
   </si>
 </sst>
 </file>
@@ -501,16 +504,52 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,46 +560,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -846,7 +849,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,95 +923,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="62" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="60" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1016,12 +1019,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="58" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4744,7 +4747,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53</f>
-        <v>2862100</v>
+        <v>3189900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4763,10 +4766,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4779,18 +4782,18 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4944,7 +4947,9 @@
       <c r="K35" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="31"/>
+      <c r="L35" s="31">
+        <v>147200</v>
+      </c>
       <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
       <c r="AE35" s="21"/>
@@ -5021,8 +5026,12 @@
       <c r="J37" s="31">
         <v>160000</v>
       </c>
-      <c r="K37" s="30"/>
-      <c r="L37" s="31"/>
+      <c r="K37" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="L37" s="31">
+        <v>165000</v>
+      </c>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
@@ -5052,7 +5061,9 @@
       <c r="I38" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="31"/>
+      <c r="J38" s="31">
+        <v>160000</v>
+      </c>
       <c r="K38" s="30"/>
       <c r="L38" s="31"/>
       <c r="AC38" s="21"/>
@@ -5110,7 +5121,9 @@
       <c r="I40" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J40" s="31"/>
+      <c r="J40" s="31">
+        <v>160000</v>
+      </c>
       <c r="K40" s="30"/>
       <c r="L40" s="31"/>
       <c r="AC40" s="21"/>
@@ -5138,7 +5151,9 @@
       <c r="I41" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="31"/>
+      <c r="J41" s="31">
+        <v>160000</v>
+      </c>
       <c r="K41" s="30"/>
       <c r="L41" s="31"/>
       <c r="AC41" s="21"/>
@@ -5344,7 +5359,9 @@
       <c r="I48" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J48" s="31"/>
+      <c r="J48" s="31">
+        <v>160000</v>
+      </c>
       <c r="K48" s="30"/>
       <c r="L48" s="31"/>
       <c r="AC48" s="21"/>
@@ -5422,14 +5439,14 @@
       </c>
       <c r="J51" s="31">
         <f>SUM(J32:J48)</f>
-        <v>1920000</v>
+        <v>2560000</v>
       </c>
       <c r="K51" s="32" t="s">
         <v>33</v>
       </c>
       <c r="L51" s="31">
         <f>SUM(L32:L50)</f>
-        <v>2539800</v>
+        <v>2852000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5478,7 +5495,7 @@
       </c>
       <c r="J53" s="31">
         <f>(J51-L51)</f>
-        <v>-619800</v>
+        <v>-292000</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="31"/>
@@ -8807,6 +8824,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8817,16 +8844,6 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29FA8C1-EC09-42C6-A595-2D475CDC5D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FBEBD2-4625-4243-8398-21A13EAD92BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,52 +504,16 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,10 +524,46 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -849,7 +849,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,95 +923,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1019,12 +1019,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="59"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53</f>
-        <v>3189900</v>
+        <v>3019900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4766,10 +4766,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4782,18 +4782,18 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4829,7 +4829,9 @@
       <c r="K32" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="L32" s="31"/>
+      <c r="L32" s="31">
+        <v>330000</v>
+      </c>
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="21"/>
@@ -5181,7 +5183,9 @@
       <c r="I42" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J42" s="31"/>
+      <c r="J42" s="31">
+        <v>160000</v>
+      </c>
       <c r="K42" s="30"/>
       <c r="L42" s="31"/>
       <c r="AC42" s="21"/>
@@ -5439,14 +5443,14 @@
       </c>
       <c r="J51" s="31">
         <f>SUM(J32:J48)</f>
-        <v>2560000</v>
+        <v>2720000</v>
       </c>
       <c r="K51" s="32" t="s">
         <v>33</v>
       </c>
       <c r="L51" s="31">
         <f>SUM(L32:L50)</f>
-        <v>2852000</v>
+        <v>3182000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5495,7 +5499,7 @@
       </c>
       <c r="J53" s="31">
         <f>(J51-L51)</f>
-        <v>-292000</v>
+        <v>-462000</v>
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="31"/>
@@ -8824,6 +8828,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -8834,16 +8848,6 @@
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="E31:H31"/>
     <mergeCell ref="I31:L31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FBEBD2-4625-4243-8398-21A13EAD92BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2CD3C3-6E95-4DAF-AA89-33B588EC5344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="102">
   <si>
     <t>آذر</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>پمپ آب کولر سرابدار</t>
+  </si>
+  <si>
+    <t>تیر 00</t>
   </si>
 </sst>
 </file>
@@ -504,16 +507,52 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,46 +563,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -848,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,10 +866,9 @@
     <col min="7" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
@@ -923,95 +925,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="62" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="60" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1019,12 +1021,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="58" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4746,8 +4748,8 @@
         <v>35</v>
       </c>
       <c r="B28" s="5">
-        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53</f>
-        <v>3019900</v>
+        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53</f>
+        <v>4759900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4766,10 +4768,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4782,18 +4784,24 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4832,6 +4840,16 @@
       <c r="L32" s="31">
         <v>330000</v>
       </c>
+      <c r="M32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="8">
+        <v>160000</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" s="8"/>
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="21"/>
@@ -4874,6 +4892,18 @@
       <c r="L33" s="31">
         <v>2000000</v>
       </c>
+      <c r="M33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="8">
+        <v>160000</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P33" s="8">
+        <v>500000</v>
+      </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
       <c r="AE33" s="21"/>
@@ -4912,6 +4942,16 @@
       <c r="L34" s="31">
         <v>122400</v>
       </c>
+      <c r="M34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" s="8">
+        <v>160000</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="8"/>
       <c r="AC34" s="21"/>
       <c r="AD34" s="21"/>
       <c r="AE34" s="21"/>
@@ -4952,6 +4992,14 @@
       <c r="L35" s="31">
         <v>147200</v>
       </c>
+      <c r="M35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="8"/>
+      <c r="O35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="8"/>
       <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
       <c r="AE35" s="21"/>
@@ -4992,6 +5040,16 @@
       <c r="L36" s="31">
         <v>417400</v>
       </c>
+      <c r="M36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="8">
+        <v>160000</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" s="8"/>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
       <c r="AE36" s="21"/>
@@ -5034,6 +5092,14 @@
       <c r="L37" s="31">
         <v>165000</v>
       </c>
+      <c r="M37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="8">
+        <v>160000</v>
+      </c>
+      <c r="O37" s="7"/>
+      <c r="P37" s="8"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
@@ -5068,6 +5134,14 @@
       </c>
       <c r="K38" s="30"/>
       <c r="L38" s="31"/>
+      <c r="M38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="8">
+        <v>160000</v>
+      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="8"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
       <c r="AE38" s="21"/>
@@ -5098,6 +5172,14 @@
       </c>
       <c r="K39" s="30"/>
       <c r="L39" s="31"/>
+      <c r="M39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="8">
+        <v>160000</v>
+      </c>
+      <c r="O39" s="7"/>
+      <c r="P39" s="8"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
@@ -5128,6 +5210,14 @@
       </c>
       <c r="K40" s="30"/>
       <c r="L40" s="31"/>
+      <c r="M40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="8">
+        <v>160000</v>
+      </c>
+      <c r="O40" s="7"/>
+      <c r="P40" s="8"/>
       <c r="AC40" s="21"/>
       <c r="AD40" s="21"/>
       <c r="AE40" s="21"/>
@@ -5158,6 +5248,14 @@
       </c>
       <c r="K41" s="30"/>
       <c r="L41" s="31"/>
+      <c r="M41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="8">
+        <v>160000</v>
+      </c>
+      <c r="O41" s="7"/>
+      <c r="P41" s="8"/>
       <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
       <c r="AE41" s="21"/>
@@ -5188,6 +5286,12 @@
       </c>
       <c r="K42" s="30"/>
       <c r="L42" s="31"/>
+      <c r="M42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="8"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="8"/>
       <c r="AC42" s="21"/>
       <c r="AD42" s="21"/>
       <c r="AE42" s="21"/>
@@ -5218,6 +5322,12 @@
       </c>
       <c r="K43" s="30"/>
       <c r="L43" s="31"/>
+      <c r="M43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43" s="8"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="8"/>
       <c r="AC43" s="21"/>
       <c r="AD43" s="21"/>
       <c r="AE43" s="21"/>
@@ -5248,6 +5358,14 @@
       </c>
       <c r="K44" s="30"/>
       <c r="L44" s="31"/>
+      <c r="M44" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="8">
+        <v>160000</v>
+      </c>
+      <c r="O44" s="7"/>
+      <c r="P44" s="8"/>
       <c r="AC44" s="21"/>
       <c r="AD44" s="21"/>
       <c r="AE44" s="21"/>
@@ -5278,6 +5396,14 @@
       </c>
       <c r="K45" s="30"/>
       <c r="L45" s="31"/>
+      <c r="M45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N45" s="8">
+        <v>160000</v>
+      </c>
+      <c r="O45" s="7"/>
+      <c r="P45" s="8"/>
       <c r="AC45" s="21"/>
       <c r="AD45" s="21"/>
       <c r="AE45" s="21"/>
@@ -5308,6 +5434,14 @@
       </c>
       <c r="K46" s="30"/>
       <c r="L46" s="31"/>
+      <c r="M46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="8">
+        <v>160000</v>
+      </c>
+      <c r="O46" s="7"/>
+      <c r="P46" s="8"/>
       <c r="AC46" s="21"/>
       <c r="AD46" s="21"/>
       <c r="AE46" s="21"/>
@@ -5338,6 +5472,14 @@
       </c>
       <c r="K47" s="30"/>
       <c r="L47" s="31"/>
+      <c r="M47" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="8">
+        <v>160000</v>
+      </c>
+      <c r="O47" s="7"/>
+      <c r="P47" s="8"/>
       <c r="AC47" s="21"/>
       <c r="AD47" s="21"/>
       <c r="AE47" s="21"/>
@@ -5368,6 +5510,14 @@
       </c>
       <c r="K48" s="30"/>
       <c r="L48" s="31"/>
+      <c r="M48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="8">
+        <v>160000</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="8"/>
       <c r="AC48" s="21"/>
       <c r="AD48" s="21"/>
       <c r="AE48" s="21"/>
@@ -5386,6 +5536,10 @@
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
       <c r="L49" s="31"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="8"/>
       <c r="AC49" s="21"/>
       <c r="AD49" s="21"/>
       <c r="AE49" s="21"/>
@@ -5404,6 +5558,10 @@
       <c r="J50" s="31"/>
       <c r="K50" s="30"/>
       <c r="L50" s="31"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="8"/>
       <c r="AC50" s="21"/>
       <c r="AD50" s="21"/>
       <c r="AE50" s="21"/>
@@ -5451,6 +5609,20 @@
       <c r="L51" s="31">
         <f>SUM(L32:L50)</f>
         <v>3182000</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="8">
+        <f>SUM(N32:N48)</f>
+        <v>2240000</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P51" s="8">
+        <f>SUM(P32:P50)</f>
+        <v>500000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5470,6 +5642,10 @@
       <c r="J52" s="31"/>
       <c r="K52" s="30"/>
       <c r="L52" s="31"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="8"/>
       <c r="AC52" s="21"/>
       <c r="AD52" s="21"/>
       <c r="AE52" s="21"/>
@@ -5503,6 +5679,15 @@
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="31"/>
+      <c r="M53" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N53" s="8">
+        <f>(N51-P51)</f>
+        <v>1740000</v>
+      </c>
+      <c r="O53" s="9"/>
+      <c r="P53" s="8"/>
       <c r="AC53" s="21"/>
       <c r="AD53" s="21"/>
       <c r="AE53" s="21"/>
@@ -8827,7 +9012,18 @@
       <c r="AF606" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -8838,16 +9034,6 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2CD3C3-6E95-4DAF-AA89-33B588EC5344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABB49F5-00AB-46F7-AD6D-8133429AFA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,52 +507,16 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -563,10 +527,46 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -852,7 +852,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,95 +925,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1021,12 +1021,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="59"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53</f>
-        <v>4759900</v>
+        <v>4919900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4768,10 +4768,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4784,24 +4784,24 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="46" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -5325,7 +5325,9 @@
       <c r="M43" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="8"/>
+      <c r="N43" s="8">
+        <v>160000</v>
+      </c>
       <c r="O43" s="7"/>
       <c r="P43" s="8"/>
       <c r="AC43" s="21"/>
@@ -5615,7 +5617,7 @@
       </c>
       <c r="N51" s="8">
         <f>SUM(N32:N48)</f>
-        <v>2240000</v>
+        <v>2400000</v>
       </c>
       <c r="O51" s="9" t="s">
         <v>33</v>
@@ -5684,7 +5686,7 @@
       </c>
       <c r="N53" s="8">
         <f>(N51-P51)</f>
-        <v>1740000</v>
+        <v>1900000</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="8"/>
@@ -9013,6 +9015,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9024,16 +9036,6 @@
     <mergeCell ref="E31:H31"/>
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:P31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABB49F5-00AB-46F7-AD6D-8133429AFA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55DEB4-9183-46FC-AF73-0480F4F28F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,16 +507,52 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,46 +563,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -852,7 +852,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,95 +925,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="62" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="60" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1021,12 +1021,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="58" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53</f>
-        <v>4919900</v>
+        <v>4819900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4768,10 +4768,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4784,24 +4784,24 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="50" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4902,7 +4902,7 @@
         <v>11</v>
       </c>
       <c r="P33" s="8">
-        <v>500000</v>
+        <v>760000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -4995,7 +4995,9 @@
       <c r="M35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N35" s="8"/>
+      <c r="N35" s="8">
+        <v>160000</v>
+      </c>
       <c r="O35" s="7" t="s">
         <v>8</v>
       </c>
@@ -5617,14 +5619,14 @@
       </c>
       <c r="N51" s="8">
         <f>SUM(N32:N48)</f>
-        <v>2400000</v>
+        <v>2560000</v>
       </c>
       <c r="O51" s="9" t="s">
         <v>33</v>
       </c>
       <c r="P51" s="8">
         <f>SUM(P32:P50)</f>
-        <v>500000</v>
+        <v>760000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5686,7 +5688,7 @@
       </c>
       <c r="N53" s="8">
         <f>(N51-P51)</f>
-        <v>1900000</v>
+        <v>1800000</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="8"/>
@@ -9015,16 +9017,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9036,6 +9028,16 @@
     <mergeCell ref="E31:H31"/>
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:P31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55DEB4-9183-46FC-AF73-0480F4F28F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8669B2-60D7-46F7-A147-C42509907B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="103">
   <si>
     <t>آذر</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>تیر 00</t>
+  </si>
+  <si>
+    <t>مرداد 00</t>
   </si>
 </sst>
 </file>
@@ -851,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +874,7 @@
     <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -4748,8 +4751,8 @@
         <v>35</v>
       </c>
       <c r="B28" s="5">
-        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53</f>
-        <v>4819900</v>
+        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53</f>
+        <v>3360800</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4802,6 +4805,12 @@
       <c r="N31" s="47"/>
       <c r="O31" s="47"/>
       <c r="P31" s="47"/>
+      <c r="Q31" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4850,6 +4859,14 @@
         <v>6</v>
       </c>
       <c r="P32" s="8"/>
+      <c r="Q32" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="28"/>
+      <c r="S32" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="T32" s="28"/>
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="21"/>
@@ -4902,8 +4919,16 @@
         <v>11</v>
       </c>
       <c r="P33" s="8">
-        <v>760000</v>
-      </c>
+        <v>2000000</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" s="28"/>
+      <c r="S33" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="T33" s="28"/>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
       <c r="AE33" s="21"/>
@@ -4952,6 +4977,14 @@
         <v>17</v>
       </c>
       <c r="P34" s="8"/>
+      <c r="Q34" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="R34" s="28"/>
+      <c r="S34" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="T34" s="28"/>
       <c r="AC34" s="21"/>
       <c r="AD34" s="21"/>
       <c r="AE34" s="21"/>
@@ -5002,6 +5035,16 @@
         <v>8</v>
       </c>
       <c r="P35" s="8"/>
+      <c r="Q35" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="R35" s="28">
+        <v>160000</v>
+      </c>
+      <c r="S35" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="28"/>
       <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
       <c r="AE35" s="21"/>
@@ -5051,7 +5094,17 @@
       <c r="O36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P36" s="8"/>
+      <c r="P36" s="8">
+        <v>453100</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="R36" s="28"/>
+      <c r="S36" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="T36" s="28"/>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
       <c r="AE36" s="21"/>
@@ -5100,8 +5153,18 @@
       <c r="N37" s="8">
         <v>160000</v>
       </c>
-      <c r="O37" s="7"/>
-      <c r="P37" s="8"/>
+      <c r="O37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P37" s="8">
+        <v>86000</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R37" s="28"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="28"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
@@ -5144,6 +5207,12 @@
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="8"/>
+      <c r="Q38" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="R38" s="28"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="28"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
       <c r="AE38" s="21"/>
@@ -5182,6 +5251,12 @@
       </c>
       <c r="O39" s="7"/>
       <c r="P39" s="8"/>
+      <c r="Q39" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" s="28"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="28"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
@@ -5220,6 +5295,12 @@
       </c>
       <c r="O40" s="7"/>
       <c r="P40" s="8"/>
+      <c r="Q40" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" s="28"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="28"/>
       <c r="AC40" s="21"/>
       <c r="AD40" s="21"/>
       <c r="AE40" s="21"/>
@@ -5258,6 +5339,12 @@
       </c>
       <c r="O41" s="7"/>
       <c r="P41" s="8"/>
+      <c r="Q41" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" s="28"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="28"/>
       <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
       <c r="AE41" s="21"/>
@@ -5291,9 +5378,17 @@
       <c r="M42" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N42" s="8"/>
+      <c r="N42" s="8">
+        <v>160000</v>
+      </c>
       <c r="O42" s="7"/>
       <c r="P42" s="8"/>
+      <c r="Q42" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="R42" s="28"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="28"/>
       <c r="AC42" s="21"/>
       <c r="AD42" s="21"/>
       <c r="AE42" s="21"/>
@@ -5332,6 +5427,12 @@
       </c>
       <c r="O43" s="7"/>
       <c r="P43" s="8"/>
+      <c r="Q43" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R43" s="28"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="28"/>
       <c r="AC43" s="21"/>
       <c r="AD43" s="21"/>
       <c r="AE43" s="21"/>
@@ -5370,6 +5471,12 @@
       </c>
       <c r="O44" s="7"/>
       <c r="P44" s="8"/>
+      <c r="Q44" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R44" s="28"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="28"/>
       <c r="AC44" s="21"/>
       <c r="AD44" s="21"/>
       <c r="AE44" s="21"/>
@@ -5408,6 +5515,12 @@
       </c>
       <c r="O45" s="7"/>
       <c r="P45" s="8"/>
+      <c r="Q45" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R45" s="28"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="28"/>
       <c r="AC45" s="21"/>
       <c r="AD45" s="21"/>
       <c r="AE45" s="21"/>
@@ -5446,6 +5559,12 @@
       </c>
       <c r="O46" s="7"/>
       <c r="P46" s="8"/>
+      <c r="Q46" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="R46" s="28"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="28"/>
       <c r="AC46" s="21"/>
       <c r="AD46" s="21"/>
       <c r="AE46" s="21"/>
@@ -5484,6 +5603,12 @@
       </c>
       <c r="O47" s="7"/>
       <c r="P47" s="8"/>
+      <c r="Q47" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R47" s="28"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="28"/>
       <c r="AC47" s="21"/>
       <c r="AD47" s="21"/>
       <c r="AE47" s="21"/>
@@ -5522,6 +5647,12 @@
       </c>
       <c r="O48" s="7"/>
       <c r="P48" s="8"/>
+      <c r="Q48" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R48" s="28"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="28"/>
       <c r="AC48" s="21"/>
       <c r="AD48" s="21"/>
       <c r="AE48" s="21"/>
@@ -5544,6 +5675,10 @@
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
       <c r="P49" s="8"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="28"/>
       <c r="AC49" s="21"/>
       <c r="AD49" s="21"/>
       <c r="AE49" s="21"/>
@@ -5566,6 +5701,10 @@
       <c r="N50" s="8"/>
       <c r="O50" s="7"/>
       <c r="P50" s="8"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="28"/>
       <c r="AC50" s="21"/>
       <c r="AD50" s="21"/>
       <c r="AE50" s="21"/>
@@ -5619,14 +5758,28 @@
       </c>
       <c r="N51" s="8">
         <f>SUM(N32:N48)</f>
-        <v>2560000</v>
+        <v>2720000</v>
       </c>
       <c r="O51" s="9" t="s">
         <v>33</v>
       </c>
       <c r="P51" s="8">
         <f>SUM(P32:P50)</f>
-        <v>760000</v>
+        <v>2539100</v>
+      </c>
+      <c r="Q51" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R51" s="28">
+        <f>SUM(R32:R48)</f>
+        <v>160000</v>
+      </c>
+      <c r="S51" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="T51" s="28">
+        <f>SUM(T32:T50)</f>
+        <v>0</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5650,6 +5803,10 @@
       <c r="N52" s="8"/>
       <c r="O52" s="7"/>
       <c r="P52" s="8"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="28"/>
       <c r="AC52" s="21"/>
       <c r="AD52" s="21"/>
       <c r="AE52" s="21"/>
@@ -5688,10 +5845,19 @@
       </c>
       <c r="N53" s="8">
         <f>(N51-P51)</f>
-        <v>1800000</v>
+        <v>180900</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="8"/>
+      <c r="Q53" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="R53" s="28">
+        <f>(R51-T51)</f>
+        <v>160000</v>
+      </c>
+      <c r="S53" s="29"/>
+      <c r="T53" s="28"/>
       <c r="AC53" s="21"/>
       <c r="AD53" s="21"/>
       <c r="AE53" s="21"/>
@@ -9016,7 +9182,7 @@
       <c r="AF606" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9028,6 +9194,7 @@
     <mergeCell ref="E31:H31"/>
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:P31"/>
+    <mergeCell ref="Q31:T31"/>
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8669B2-60D7-46F7-A147-C42509907B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325A033C-506C-4B87-A7F2-E3B4B733FC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,10 +510,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,16 +522,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,10 +542,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,18 +560,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -855,7 +855,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,95 +928,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1024,12 +1024,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53</f>
-        <v>3360800</v>
+        <v>3243700</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4771,10 +4771,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4787,30 +4787,30 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="46" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="56" t="s">
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4976,7 +4976,9 @@
       <c r="O34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P34" s="8"/>
+      <c r="P34" s="8">
+        <v>117100</v>
+      </c>
       <c r="Q34" s="27" t="s">
         <v>10</v>
       </c>
@@ -5765,7 +5767,7 @@
       </c>
       <c r="P51" s="8">
         <f>SUM(P32:P50)</f>
-        <v>2539100</v>
+        <v>2656200</v>
       </c>
       <c r="Q51" s="29" t="s">
         <v>32</v>
@@ -5845,7 +5847,7 @@
       </c>
       <c r="N53" s="8">
         <f>(N51-P51)</f>
-        <v>180900</v>
+        <v>63800</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="8"/>
@@ -9183,6 +9185,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9195,16 +9207,6 @@
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325A033C-506C-4B87-A7F2-E3B4B733FC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E37E7E-DBA4-46AD-AC06-40982DA5FFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,10 +510,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,18 +522,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,10 +540,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,16 +558,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="K21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,95 +928,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1024,12 +1024,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="60" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53</f>
-        <v>3243700</v>
+        <v>4343700</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4771,10 +4771,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4787,30 +4787,30 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="50" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="58" t="s">
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4862,7 +4862,9 @@
       <c r="Q32" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="28"/>
+      <c r="R32" s="28">
+        <v>160000</v>
+      </c>
       <c r="S32" s="27" t="s">
         <v>6</v>
       </c>
@@ -4928,7 +4930,9 @@
       <c r="S33" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="T33" s="28"/>
+      <c r="T33" s="28">
+        <v>500000</v>
+      </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
       <c r="AE33" s="21"/>
@@ -4982,7 +4986,9 @@
       <c r="Q34" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="R34" s="28"/>
+      <c r="R34" s="28">
+        <v>160000</v>
+      </c>
       <c r="S34" s="27" t="s">
         <v>17</v>
       </c>
@@ -5102,7 +5108,9 @@
       <c r="Q36" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="R36" s="28"/>
+      <c r="R36" s="28">
+        <v>160000</v>
+      </c>
       <c r="S36" s="27" t="s">
         <v>5</v>
       </c>
@@ -5212,7 +5220,9 @@
       <c r="Q38" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R38" s="28"/>
+      <c r="R38" s="28">
+        <v>160000</v>
+      </c>
       <c r="S38" s="27"/>
       <c r="T38" s="28"/>
       <c r="AC38" s="21"/>
@@ -5256,7 +5266,9 @@
       <c r="Q39" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="R39" s="28"/>
+      <c r="R39" s="28">
+        <v>160000</v>
+      </c>
       <c r="S39" s="27"/>
       <c r="T39" s="28"/>
       <c r="AC39" s="21"/>
@@ -5300,7 +5312,9 @@
       <c r="Q40" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="R40" s="28"/>
+      <c r="R40" s="28">
+        <v>160000</v>
+      </c>
       <c r="S40" s="27"/>
       <c r="T40" s="28"/>
       <c r="AC40" s="21"/>
@@ -5344,7 +5358,9 @@
       <c r="Q41" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="R41" s="28"/>
+      <c r="R41" s="28">
+        <v>160000</v>
+      </c>
       <c r="S41" s="27"/>
       <c r="T41" s="28"/>
       <c r="AC41" s="21"/>
@@ -5476,7 +5492,9 @@
       <c r="Q44" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="R44" s="28"/>
+      <c r="R44" s="28">
+        <v>160000</v>
+      </c>
       <c r="S44" s="27"/>
       <c r="T44" s="28"/>
       <c r="AC44" s="21"/>
@@ -5520,7 +5538,9 @@
       <c r="Q45" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="R45" s="28"/>
+      <c r="R45" s="28">
+        <v>160000</v>
+      </c>
       <c r="S45" s="27"/>
       <c r="T45" s="28"/>
       <c r="AC45" s="21"/>
@@ -5564,7 +5584,9 @@
       <c r="Q46" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="R46" s="28"/>
+      <c r="R46" s="28">
+        <v>160000</v>
+      </c>
       <c r="S46" s="27"/>
       <c r="T46" s="28"/>
       <c r="AC46" s="21"/>
@@ -5774,14 +5796,14 @@
       </c>
       <c r="R51" s="28">
         <f>SUM(R32:R48)</f>
-        <v>160000</v>
+        <v>1760000</v>
       </c>
       <c r="S51" s="29" t="s">
         <v>33</v>
       </c>
       <c r="T51" s="28">
         <f>SUM(T32:T50)</f>
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5856,7 +5878,7 @@
       </c>
       <c r="R53" s="28">
         <f>(R51-T51)</f>
-        <v>160000</v>
+        <v>1260000</v>
       </c>
       <c r="S53" s="29"/>
       <c r="T53" s="28"/>
@@ -9185,16 +9207,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9207,6 +9219,16 @@
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E37E7E-DBA4-46AD-AC06-40982DA5FFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8D3D17-8146-47B8-92FD-78288746BB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,10 +510,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,16 +522,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,10 +542,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,18 +560,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -855,7 +855,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="K21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,95 +928,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1024,12 +1024,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53</f>
-        <v>4343700</v>
+        <v>4503700</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4771,10 +4771,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4787,30 +4787,30 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="46" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="56" t="s">
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -5630,7 +5630,9 @@
       <c r="Q47" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="R47" s="28"/>
+      <c r="R47" s="28">
+        <v>160000</v>
+      </c>
       <c r="S47" s="27"/>
       <c r="T47" s="28"/>
       <c r="AC47" s="21"/>
@@ -5796,7 +5798,7 @@
       </c>
       <c r="R51" s="28">
         <f>SUM(R32:R48)</f>
-        <v>1760000</v>
+        <v>1920000</v>
       </c>
       <c r="S51" s="29" t="s">
         <v>33</v>
@@ -5878,7 +5880,7 @@
       </c>
       <c r="R53" s="28">
         <f>(R51-T51)</f>
-        <v>1260000</v>
+        <v>1420000</v>
       </c>
       <c r="S53" s="29"/>
       <c r="T53" s="28"/>
@@ -9207,6 +9209,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9219,16 +9231,6 @@
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8D3D17-8146-47B8-92FD-78288746BB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F2B617-B1B1-4115-906A-63A4CCE60D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,10 +510,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,18 +522,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,10 +540,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,16 +558,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="K21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R48" sqref="R48"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,95 +928,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1024,12 +1024,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="60" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53</f>
-        <v>4503700</v>
+        <v>4818000</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4771,10 +4771,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4787,30 +4787,30 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="50" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="58" t="s">
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4926,7 +4926,9 @@
       <c r="Q33" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="R33" s="28"/>
+      <c r="R33" s="28">
+        <v>160000</v>
+      </c>
       <c r="S33" s="27" t="s">
         <v>11</v>
       </c>
@@ -5052,7 +5054,9 @@
       <c r="S35" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="T35" s="28"/>
+      <c r="T35" s="28">
+        <v>5700</v>
+      </c>
       <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
       <c r="AE35" s="21"/>
@@ -5448,7 +5452,9 @@
       <c r="Q43" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="R43" s="28"/>
+      <c r="R43" s="28">
+        <v>160000</v>
+      </c>
       <c r="S43" s="27"/>
       <c r="T43" s="28"/>
       <c r="AC43" s="21"/>
@@ -5798,14 +5804,14 @@
       </c>
       <c r="R51" s="28">
         <f>SUM(R32:R48)</f>
-        <v>1920000</v>
+        <v>2240000</v>
       </c>
       <c r="S51" s="29" t="s">
         <v>33</v>
       </c>
       <c r="T51" s="28">
         <f>SUM(T32:T50)</f>
-        <v>500000</v>
+        <v>505700</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5880,7 +5886,7 @@
       </c>
       <c r="R53" s="28">
         <f>(R51-T51)</f>
-        <v>1420000</v>
+        <v>1734300</v>
       </c>
       <c r="S53" s="29"/>
       <c r="T53" s="28"/>
@@ -9209,16 +9215,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9231,6 +9227,16 @@
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F2B617-B1B1-4115-906A-63A4CCE60D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793A6E5-3C02-43FD-8071-8F6D930190E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="105">
   <si>
     <t>آذر</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>مرداد 00</t>
+  </si>
+  <si>
+    <t>خرید لامپ جلوی در</t>
+  </si>
+  <si>
+    <t>خرید درایور لامپ پارکینگ</t>
   </si>
 </sst>
 </file>
@@ -510,10 +516,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,16 +528,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,10 +548,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,18 +566,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -855,7 +861,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,95 +934,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1024,12 +1030,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4752,7 +4758,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53</f>
-        <v>4818000</v>
+        <v>4294000</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4771,10 +4777,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4787,30 +4793,30 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="46" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="56" t="s">
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4933,7 +4939,7 @@
         <v>11</v>
       </c>
       <c r="T33" s="28">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -5176,9 +5182,15 @@
       <c r="Q37" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="R37" s="28"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="28"/>
+      <c r="R37" s="28">
+        <v>160000</v>
+      </c>
+      <c r="S37" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="T37" s="28">
+        <v>37000</v>
+      </c>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
@@ -5227,8 +5239,12 @@
       <c r="R38" s="28">
         <v>160000</v>
       </c>
-      <c r="S38" s="27"/>
-      <c r="T38" s="28"/>
+      <c r="S38" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="T38" s="28">
+        <v>147000</v>
+      </c>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
       <c r="AE38" s="21"/>
@@ -5804,14 +5820,14 @@
       </c>
       <c r="R51" s="28">
         <f>SUM(R32:R48)</f>
-        <v>2240000</v>
+        <v>2400000</v>
       </c>
       <c r="S51" s="29" t="s">
         <v>33</v>
       </c>
       <c r="T51" s="28">
         <f>SUM(T32:T50)</f>
-        <v>505700</v>
+        <v>1189700</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5886,7 +5902,7 @@
       </c>
       <c r="R53" s="28">
         <f>(R51-T51)</f>
-        <v>1734300</v>
+        <v>1210300</v>
       </c>
       <c r="S53" s="29"/>
       <c r="T53" s="28"/>
@@ -9215,6 +9231,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9227,16 +9253,6 @@
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793A6E5-3C02-43FD-8071-8F6D930190E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F2EA75-6CBA-4E72-A917-A25991096607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,10 +516,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,18 +528,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,10 +546,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,16 +564,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -861,7 +861,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,95 +934,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1030,12 +1030,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="60" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53</f>
-        <v>4294000</v>
+        <v>4454000</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4777,10 +4777,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4793,30 +4793,30 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="50" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="58" t="s">
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -5698,7 +5698,9 @@
       <c r="Q48" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="R48" s="28"/>
+      <c r="R48" s="28">
+        <v>160000</v>
+      </c>
       <c r="S48" s="27"/>
       <c r="T48" s="28"/>
       <c r="AC48" s="21"/>
@@ -5820,7 +5822,7 @@
       </c>
       <c r="R51" s="28">
         <f>SUM(R32:R48)</f>
-        <v>2400000</v>
+        <v>2560000</v>
       </c>
       <c r="S51" s="29" t="s">
         <v>33</v>
@@ -5902,7 +5904,7 @@
       </c>
       <c r="R53" s="28">
         <f>(R51-T51)</f>
-        <v>1210300</v>
+        <v>1370300</v>
       </c>
       <c r="S53" s="29"/>
       <c r="T53" s="28"/>
@@ -9231,16 +9233,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9253,6 +9245,16 @@
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F2EA75-6CBA-4E72-A917-A25991096607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC17F9F2-857A-4889-9335-0126AEFD0C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,10 +516,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,16 +528,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,10 +548,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -564,18 +566,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -861,7 +861,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R49" sqref="R49"/>
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,95 +934,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1030,12 +1030,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53</f>
-        <v>4454000</v>
+        <v>4075100</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4777,10 +4777,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4793,30 +4793,30 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="46" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="56" t="s">
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -5124,7 +5124,9 @@
       <c r="S36" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T36" s="28"/>
+      <c r="T36" s="28">
+        <v>538900</v>
+      </c>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
       <c r="AE36" s="21"/>
@@ -5424,7 +5426,9 @@
       <c r="Q42" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="R42" s="28"/>
+      <c r="R42" s="28">
+        <v>160000</v>
+      </c>
       <c r="S42" s="27"/>
       <c r="T42" s="28"/>
       <c r="AC42" s="21"/>
@@ -5822,14 +5826,14 @@
       </c>
       <c r="R51" s="28">
         <f>SUM(R32:R48)</f>
-        <v>2560000</v>
+        <v>2720000</v>
       </c>
       <c r="S51" s="29" t="s">
         <v>33</v>
       </c>
       <c r="T51" s="28">
         <f>SUM(T32:T50)</f>
-        <v>1189700</v>
+        <v>1728600</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5904,7 +5908,7 @@
       </c>
       <c r="R53" s="28">
         <f>(R51-T51)</f>
-        <v>1370300</v>
+        <v>991400</v>
       </c>
       <c r="S53" s="29"/>
       <c r="T53" s="28"/>
@@ -9233,6 +9237,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9245,16 +9259,6 @@
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC17F9F2-857A-4889-9335-0126AEFD0C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC18EFE-7E3E-4D67-BE85-18F21191C76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="106">
   <si>
     <t>آذر</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>خرید درایور لامپ پارکینگ</t>
+  </si>
+  <si>
+    <t>کمک هزینه بیماری سرایدار</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,18 +531,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,10 +549,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,16 +567,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -861,7 +864,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +883,7 @@
     <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -934,95 +937,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1030,12 +1033,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="60" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4758,7 +4761,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53</f>
-        <v>4075100</v>
+        <v>2575100</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4777,10 +4780,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4793,30 +4796,30 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="50" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="58" t="s">
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4939,7 +4942,7 @@
         <v>11</v>
       </c>
       <c r="T33" s="28">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -5291,8 +5294,12 @@
       <c r="R39" s="28">
         <v>160000</v>
       </c>
-      <c r="S39" s="27"/>
-      <c r="T39" s="28"/>
+      <c r="S39" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="T39" s="28">
+        <v>500000</v>
+      </c>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
@@ -5833,7 +5840,7 @@
       </c>
       <c r="T51" s="28">
         <f>SUM(T32:T50)</f>
-        <v>1728600</v>
+        <v>3228600</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5908,7 +5915,7 @@
       </c>
       <c r="R53" s="28">
         <f>(R51-T51)</f>
-        <v>991400</v>
+        <v>-508600</v>
       </c>
       <c r="S53" s="29"/>
       <c r="T53" s="28"/>
@@ -9237,16 +9244,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9259,6 +9256,16 @@
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC18EFE-7E3E-4D67-BE85-18F21191C76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5038F59-D438-46CE-BE5C-40F5E3B5A5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="107">
   <si>
     <t>آذر</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>کمک هزینه بیماری سرایدار</t>
+  </si>
+  <si>
+    <t>شهریور 00</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -531,16 +534,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,10 +554,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -567,18 +572,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -863,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="L25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,9 +888,9 @@
     <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.140625" customWidth="1"/>
@@ -937,95 +940,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1033,12 +1036,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4760,8 +4763,8 @@
         <v>35</v>
       </c>
       <c r="B28" s="5">
-        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53</f>
-        <v>2575100</v>
+        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53</f>
+        <v>2075100</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4780,10 +4783,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4796,30 +4799,36 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="46" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="56" t="s">
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4878,6 +4887,14 @@
         <v>6</v>
       </c>
       <c r="T32" s="28"/>
+      <c r="U32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="18"/>
+      <c r="W32" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="X32" s="18"/>
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="21"/>
@@ -4944,6 +4961,16 @@
       <c r="T33" s="28">
         <v>2000000</v>
       </c>
+      <c r="U33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V33" s="18"/>
+      <c r="W33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="X33" s="18">
+        <v>500000</v>
+      </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
       <c r="AE33" s="21"/>
@@ -5004,6 +5031,14 @@
         <v>17</v>
       </c>
       <c r="T34" s="28"/>
+      <c r="U34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="V34" s="18"/>
+      <c r="W34" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="X34" s="18"/>
       <c r="AC34" s="21"/>
       <c r="AD34" s="21"/>
       <c r="AE34" s="21"/>
@@ -5066,6 +5101,14 @@
       <c r="T35" s="28">
         <v>5700</v>
       </c>
+      <c r="U35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="V35" s="18"/>
+      <c r="W35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X35" s="18"/>
       <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
       <c r="AE35" s="21"/>
@@ -5130,6 +5173,14 @@
       <c r="T36" s="28">
         <v>538900</v>
       </c>
+      <c r="U36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="V36" s="18"/>
+      <c r="W36" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="X36" s="18"/>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
       <c r="AE36" s="21"/>
@@ -5196,6 +5247,14 @@
       <c r="T37" s="28">
         <v>37000</v>
       </c>
+      <c r="U37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="V37" s="18"/>
+      <c r="W37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="X37" s="18"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
@@ -5250,6 +5309,14 @@
       <c r="T38" s="28">
         <v>147000</v>
       </c>
+      <c r="U38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V38" s="18"/>
+      <c r="W38" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="X38" s="18"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
       <c r="AE38" s="21"/>
@@ -5300,6 +5367,14 @@
       <c r="T39" s="28">
         <v>500000</v>
       </c>
+      <c r="U39" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" s="18"/>
+      <c r="W39" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="X39" s="18"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
@@ -5346,6 +5421,12 @@
       </c>
       <c r="S40" s="27"/>
       <c r="T40" s="28"/>
+      <c r="U40" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="V40" s="18"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="18"/>
       <c r="AC40" s="21"/>
       <c r="AD40" s="21"/>
       <c r="AE40" s="21"/>
@@ -5392,6 +5473,12 @@
       </c>
       <c r="S41" s="27"/>
       <c r="T41" s="28"/>
+      <c r="U41" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V41" s="18"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="18"/>
       <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
       <c r="AE41" s="21"/>
@@ -5438,6 +5525,12 @@
       </c>
       <c r="S42" s="27"/>
       <c r="T42" s="28"/>
+      <c r="U42" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="V42" s="18"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="18"/>
       <c r="AC42" s="21"/>
       <c r="AD42" s="21"/>
       <c r="AE42" s="21"/>
@@ -5484,6 +5577,12 @@
       </c>
       <c r="S43" s="27"/>
       <c r="T43" s="28"/>
+      <c r="U43" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="V43" s="18"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="18"/>
       <c r="AC43" s="21"/>
       <c r="AD43" s="21"/>
       <c r="AE43" s="21"/>
@@ -5530,6 +5629,12 @@
       </c>
       <c r="S44" s="27"/>
       <c r="T44" s="28"/>
+      <c r="U44" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V44" s="18"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="18"/>
       <c r="AC44" s="21"/>
       <c r="AD44" s="21"/>
       <c r="AE44" s="21"/>
@@ -5576,6 +5681,12 @@
       </c>
       <c r="S45" s="27"/>
       <c r="T45" s="28"/>
+      <c r="U45" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="V45" s="18"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="18"/>
       <c r="AC45" s="21"/>
       <c r="AD45" s="21"/>
       <c r="AE45" s="21"/>
@@ -5622,6 +5733,12 @@
       </c>
       <c r="S46" s="27"/>
       <c r="T46" s="28"/>
+      <c r="U46" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="V46" s="18"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="18"/>
       <c r="AC46" s="21"/>
       <c r="AD46" s="21"/>
       <c r="AE46" s="21"/>
@@ -5668,6 +5785,12 @@
       </c>
       <c r="S47" s="27"/>
       <c r="T47" s="28"/>
+      <c r="U47" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="V47" s="18"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="18"/>
       <c r="AC47" s="21"/>
       <c r="AD47" s="21"/>
       <c r="AE47" s="21"/>
@@ -5714,6 +5837,12 @@
       </c>
       <c r="S48" s="27"/>
       <c r="T48" s="28"/>
+      <c r="U48" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="V48" s="18"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="18"/>
       <c r="AC48" s="21"/>
       <c r="AD48" s="21"/>
       <c r="AE48" s="21"/>
@@ -5740,6 +5869,10 @@
       <c r="R49" s="27"/>
       <c r="S49" s="27"/>
       <c r="T49" s="28"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="18"/>
       <c r="AC49" s="21"/>
       <c r="AD49" s="21"/>
       <c r="AE49" s="21"/>
@@ -5766,6 +5899,10 @@
       <c r="R50" s="28"/>
       <c r="S50" s="27"/>
       <c r="T50" s="28"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="18"/>
       <c r="AC50" s="21"/>
       <c r="AD50" s="21"/>
       <c r="AE50" s="21"/>
@@ -5841,6 +5978,20 @@
       <c r="T51" s="28">
         <f>SUM(T32:T50)</f>
         <v>3228600</v>
+      </c>
+      <c r="U51" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="V51" s="18">
+        <f>SUM(V32:V48)</f>
+        <v>0</v>
+      </c>
+      <c r="W51" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="X51" s="18">
+        <f>SUM(X32:X50)</f>
+        <v>500000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -5868,6 +6019,10 @@
       <c r="R52" s="28"/>
       <c r="S52" s="27"/>
       <c r="T52" s="28"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="18"/>
       <c r="AC52" s="21"/>
       <c r="AD52" s="21"/>
       <c r="AE52" s="21"/>
@@ -5919,6 +6074,15 @@
       </c>
       <c r="S53" s="29"/>
       <c r="T53" s="28"/>
+      <c r="U53" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="V53" s="18">
+        <f>(V51-X51)</f>
+        <v>-500000</v>
+      </c>
+      <c r="W53" s="17"/>
+      <c r="X53" s="18"/>
       <c r="AC53" s="21"/>
       <c r="AD53" s="21"/>
       <c r="AE53" s="21"/>
@@ -9243,7 +9407,17 @@
       <c r="AF606" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9256,16 +9430,7 @@
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="U31:X31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5038F59-D438-46CE-BE5C-40F5E3B5A5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A47CF41-726B-478C-B46E-BF270F00F9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="107">
   <si>
     <t>آذر</t>
   </si>
@@ -522,10 +522,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,18 +534,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,10 +552,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,16 +570,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -867,7 +867,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="L25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+      <selection activeCell="W37" sqref="W37:W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,95 +940,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1036,12 +1036,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="60" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53</f>
-        <v>2075100</v>
+        <v>2715100</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4783,10 +4783,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4799,36 +4799,36 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="50" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="58" t="s">
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="42" t="s">
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -5176,7 +5176,9 @@
       <c r="U36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="V36" s="18"/>
+      <c r="V36" s="18">
+        <v>160000</v>
+      </c>
       <c r="W36" s="16" t="s">
         <v>5</v>
       </c>
@@ -5251,9 +5253,7 @@
         <v>15</v>
       </c>
       <c r="V37" s="18"/>
-      <c r="W37" s="16" t="s">
-        <v>103</v>
-      </c>
+      <c r="W37" s="16"/>
       <c r="X37" s="18"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
@@ -5313,9 +5313,7 @@
         <v>18</v>
       </c>
       <c r="V38" s="18"/>
-      <c r="W38" s="16" t="s">
-        <v>104</v>
-      </c>
+      <c r="W38" s="16"/>
       <c r="X38" s="18"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
@@ -5371,9 +5369,7 @@
         <v>21</v>
       </c>
       <c r="V39" s="18"/>
-      <c r="W39" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="W39" s="16"/>
       <c r="X39" s="18"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
@@ -5424,7 +5420,9 @@
       <c r="U40" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="V40" s="18"/>
+      <c r="V40" s="18">
+        <v>160000</v>
+      </c>
       <c r="W40" s="16"/>
       <c r="X40" s="18"/>
       <c r="AC40" s="21"/>
@@ -5684,7 +5682,9 @@
       <c r="U45" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="V45" s="18"/>
+      <c r="V45" s="18">
+        <v>160000</v>
+      </c>
       <c r="W45" s="16"/>
       <c r="X45" s="18"/>
       <c r="AC45" s="21"/>
@@ -5788,7 +5788,9 @@
       <c r="U47" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="V47" s="18"/>
+      <c r="V47" s="18">
+        <v>160000</v>
+      </c>
       <c r="W47" s="16"/>
       <c r="X47" s="18"/>
       <c r="AC47" s="21"/>
@@ -5984,7 +5986,7 @@
       </c>
       <c r="V51" s="18">
         <f>SUM(V32:V48)</f>
-        <v>0</v>
+        <v>640000</v>
       </c>
       <c r="W51" s="17" t="s">
         <v>33</v>
@@ -6079,7 +6081,7 @@
       </c>
       <c r="V53" s="18">
         <f>(V51-X51)</f>
-        <v>-500000</v>
+        <v>140000</v>
       </c>
       <c r="W53" s="17"/>
       <c r="X53" s="18"/>
@@ -9408,16 +9410,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9431,6 +9423,16 @@
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A47CF41-726B-478C-B46E-BF270F00F9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E00B9A-DDA4-4C1C-A168-676B72E7A6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,10 +522,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,16 +534,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,10 +554,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -570,18 +572,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="L25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37:W39"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="L24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,95 +940,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1036,12 +1036,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53</f>
-        <v>2715100</v>
+        <v>2875100</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4783,10 +4783,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4799,36 +4799,36 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="46" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="56" t="s">
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="48" t="s">
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -5312,7 +5312,9 @@
       <c r="U38" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="V38" s="18"/>
+      <c r="V38" s="18">
+        <v>160000</v>
+      </c>
       <c r="W38" s="16"/>
       <c r="X38" s="18"/>
       <c r="AC38" s="21"/>
@@ -5986,7 +5988,7 @@
       </c>
       <c r="V51" s="18">
         <f>SUM(V32:V48)</f>
-        <v>640000</v>
+        <v>800000</v>
       </c>
       <c r="W51" s="17" t="s">
         <v>33</v>
@@ -6081,7 +6083,7 @@
       </c>
       <c r="V53" s="18">
         <f>(V51-X51)</f>
-        <v>140000</v>
+        <v>300000</v>
       </c>
       <c r="W53" s="17"/>
       <c r="X53" s="18"/>
@@ -9410,6 +9412,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9423,16 +9435,6 @@
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E00B9A-DDA4-4C1C-A168-676B72E7A6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAE6A94-D248-49BC-9B18-B6499AD6A22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="2700" windowWidth="11985" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ساخنمان نسترن" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="108">
   <si>
     <t>آذر</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>شهریور 00</t>
+  </si>
+  <si>
+    <t>خرید آداپتور مانیتور</t>
   </si>
 </sst>
 </file>
@@ -522,10 +525,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,18 +537,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,10 +555,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,16 +573,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -866,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="L24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="K24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,95 +943,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1036,12 +1039,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="60" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4764,7 +4767,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53</f>
-        <v>2875100</v>
+        <v>4038600</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4783,10 +4786,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4799,36 +4802,36 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="50" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="58" t="s">
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="42" t="s">
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4890,7 +4893,9 @@
       <c r="U32" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="V32" s="18"/>
+      <c r="V32" s="18">
+        <v>160000</v>
+      </c>
       <c r="W32" s="16" t="s">
         <v>6</v>
       </c>
@@ -4964,12 +4969,14 @@
       <c r="U33" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V33" s="18"/>
+      <c r="V33" s="18">
+        <v>160000</v>
+      </c>
       <c r="W33" s="16" t="s">
         <v>11</v>
       </c>
       <c r="X33" s="18">
-        <v>500000</v>
+        <v>760000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -5034,7 +5041,9 @@
       <c r="U34" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="V34" s="18"/>
+      <c r="V34" s="18">
+        <v>160000</v>
+      </c>
       <c r="W34" s="16" t="s">
         <v>17</v>
       </c>
@@ -5104,7 +5113,9 @@
       <c r="U35" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="V35" s="18"/>
+      <c r="V35" s="18">
+        <v>160000</v>
+      </c>
       <c r="W35" s="16" t="s">
         <v>8</v>
       </c>
@@ -5253,8 +5264,12 @@
         <v>15</v>
       </c>
       <c r="V37" s="18"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="18"/>
+      <c r="W37" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="X37" s="18">
+        <v>176500</v>
+      </c>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
@@ -5370,7 +5385,9 @@
       <c r="U39" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="V39" s="18"/>
+      <c r="V39" s="18">
+        <v>160000</v>
+      </c>
       <c r="W39" s="16"/>
       <c r="X39" s="18"/>
       <c r="AC39" s="21"/>
@@ -5476,7 +5493,9 @@
       <c r="U41" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="V41" s="18"/>
+      <c r="V41" s="18">
+        <v>160000</v>
+      </c>
       <c r="W41" s="16"/>
       <c r="X41" s="18"/>
       <c r="AC41" s="21"/>
@@ -5528,7 +5547,9 @@
       <c r="U42" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V42" s="18"/>
+      <c r="V42" s="18">
+        <v>160000</v>
+      </c>
       <c r="W42" s="16"/>
       <c r="X42" s="18"/>
       <c r="AC42" s="21"/>
@@ -5632,7 +5653,9 @@
       <c r="U44" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="V44" s="18"/>
+      <c r="V44" s="18">
+        <v>160000</v>
+      </c>
       <c r="W44" s="16"/>
       <c r="X44" s="18"/>
       <c r="AC44" s="21"/>
@@ -5738,7 +5761,9 @@
       <c r="U46" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="V46" s="18"/>
+      <c r="V46" s="18">
+        <v>160000</v>
+      </c>
       <c r="W46" s="16"/>
       <c r="X46" s="18"/>
       <c r="AC46" s="21"/>
@@ -5844,7 +5869,9 @@
       <c r="U48" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="V48" s="18"/>
+      <c r="V48" s="18">
+        <v>160000</v>
+      </c>
       <c r="W48" s="16"/>
       <c r="X48" s="18"/>
       <c r="AC48" s="21"/>
@@ -5988,14 +6015,14 @@
       </c>
       <c r="V51" s="18">
         <f>SUM(V32:V48)</f>
-        <v>800000</v>
+        <v>2400000</v>
       </c>
       <c r="W51" s="17" t="s">
         <v>33</v>
       </c>
       <c r="X51" s="18">
         <f>SUM(X32:X50)</f>
-        <v>500000</v>
+        <v>936500</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -6083,7 +6110,7 @@
       </c>
       <c r="V53" s="18">
         <f>(V51-X51)</f>
-        <v>300000</v>
+        <v>1463500</v>
       </c>
       <c r="W53" s="17"/>
       <c r="X53" s="18"/>
@@ -9412,16 +9439,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9435,6 +9452,16 @@
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAE6A94-D248-49BC-9B18-B6499AD6A22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A111CF2-81CB-49B0-8189-4F97246EA18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="2700" windowWidth="11985" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ساخنمان نسترن" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="109">
   <si>
     <t>آذر</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>خرید آداپتور مانیتور</t>
+  </si>
+  <si>
+    <t>لامپ داخل کابین آسانسور</t>
   </si>
 </sst>
 </file>
@@ -525,10 +528,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,16 +540,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,10 +560,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -573,18 +578,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -870,7 +873,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="K24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V49" sqref="V49"/>
+      <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,95 +946,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1039,12 +1042,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4767,7 +4770,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53</f>
-        <v>4038600</v>
+        <v>2799400</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4786,10 +4789,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4802,36 +4805,36 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="46" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="56" t="s">
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="48" t="s">
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4976,7 +4979,7 @@
         <v>11</v>
       </c>
       <c r="X33" s="18">
-        <v>760000</v>
+        <v>1660000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -5193,7 +5196,9 @@
       <c r="W36" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="X36" s="18"/>
+      <c r="X36" s="18">
+        <v>499200</v>
+      </c>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
       <c r="AE36" s="21"/>
@@ -5263,7 +5268,9 @@
       <c r="U37" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="V37" s="18"/>
+      <c r="V37" s="18">
+        <v>160000</v>
+      </c>
       <c r="W37" s="16" t="s">
         <v>107</v>
       </c>
@@ -5330,8 +5337,12 @@
       <c r="V38" s="18">
         <v>160000</v>
       </c>
-      <c r="W38" s="16"/>
-      <c r="X38" s="18"/>
+      <c r="W38" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="X38" s="18">
+        <v>160000</v>
+      </c>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
       <c r="AE38" s="21"/>
@@ -5601,7 +5612,9 @@
       <c r="U43" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="V43" s="18"/>
+      <c r="V43" s="18">
+        <v>160000</v>
+      </c>
       <c r="W43" s="16"/>
       <c r="X43" s="18"/>
       <c r="AC43" s="21"/>
@@ -6015,14 +6028,14 @@
       </c>
       <c r="V51" s="18">
         <f>SUM(V32:V48)</f>
-        <v>2400000</v>
+        <v>2720000</v>
       </c>
       <c r="W51" s="17" t="s">
         <v>33</v>
       </c>
       <c r="X51" s="18">
         <f>SUM(X32:X50)</f>
-        <v>936500</v>
+        <v>2495700</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -6110,7 +6123,7 @@
       </c>
       <c r="V53" s="18">
         <f>(V51-X51)</f>
-        <v>1463500</v>
+        <v>224300</v>
       </c>
       <c r="W53" s="17"/>
       <c r="X53" s="18"/>
@@ -9439,6 +9452,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9452,16 +9475,6 @@
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A111CF2-81CB-49B0-8189-4F97246EA18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C7620F-56B3-45FD-B12C-FC2EAAE323E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="111">
   <si>
     <t>آذر</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>لامپ داخل کابین آسانسور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لامپ طبقه اول </t>
+  </si>
+  <si>
+    <t xml:space="preserve">لامپ طبقه پنجم و هویه </t>
   </si>
 </sst>
 </file>
@@ -528,10 +534,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,18 +546,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,10 +564,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,16 +582,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -873,7 +879,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="K24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X37" sqref="X37"/>
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,95 +952,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1042,12 +1048,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="60" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4770,7 +4776,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53</f>
-        <v>2799400</v>
+        <v>1997400</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4789,10 +4795,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4805,36 +4811,36 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="50" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="58" t="s">
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="42" t="s">
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4902,7 +4908,9 @@
       <c r="W32" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="X32" s="18"/>
+      <c r="X32" s="18">
+        <v>330000</v>
+      </c>
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="21"/>
@@ -4979,7 +4987,7 @@
         <v>11</v>
       </c>
       <c r="X33" s="18">
-        <v>1660000</v>
+        <v>2000000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -5399,8 +5407,12 @@
       <c r="V39" s="18">
         <v>160000</v>
       </c>
-      <c r="W39" s="16"/>
-      <c r="X39" s="18"/>
+      <c r="W39" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="X39" s="18">
+        <v>37000</v>
+      </c>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
@@ -5453,8 +5465,12 @@
       <c r="V40" s="18">
         <v>160000</v>
       </c>
-      <c r="W40" s="16"/>
-      <c r="X40" s="18"/>
+      <c r="W40" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="X40" s="18">
+        <v>95000</v>
+      </c>
       <c r="AC40" s="21"/>
       <c r="AD40" s="21"/>
       <c r="AE40" s="21"/>
@@ -6035,7 +6051,7 @@
       </c>
       <c r="X51" s="18">
         <f>SUM(X32:X50)</f>
-        <v>2495700</v>
+        <v>3297700</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -6123,7 +6139,7 @@
       </c>
       <c r="V53" s="18">
         <f>(V51-X51)</f>
-        <v>224300</v>
+        <v>-577700</v>
       </c>
       <c r="W53" s="17"/>
       <c r="X53" s="18"/>
@@ -9452,16 +9468,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9475,6 +9481,16 @@
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C7620F-56B3-45FD-B12C-FC2EAAE323E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D68582-D1C4-4F86-8CC4-913925B6B22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,10 +534,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,16 +546,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -564,10 +566,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,18 +584,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -879,7 +879,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="K24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,95 +952,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1048,12 +1048,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53</f>
-        <v>1997400</v>
+        <v>1872300</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4795,10 +4795,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4811,36 +4811,36 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="46" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="56" t="s">
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="48" t="s">
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -5058,7 +5058,9 @@
       <c r="W34" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="X34" s="18"/>
+      <c r="X34" s="18">
+        <v>125100</v>
+      </c>
       <c r="AC34" s="21"/>
       <c r="AD34" s="21"/>
       <c r="AE34" s="21"/>
@@ -6051,7 +6053,7 @@
       </c>
       <c r="X51" s="18">
         <f>SUM(X32:X50)</f>
-        <v>3297700</v>
+        <v>3422800</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -6139,7 +6141,7 @@
       </c>
       <c r="V53" s="18">
         <f>(V51-X51)</f>
-        <v>-577700</v>
+        <v>-702800</v>
       </c>
       <c r="W53" s="17"/>
       <c r="X53" s="18"/>
@@ -9468,6 +9470,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9481,16 +9493,6 @@
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D68582-D1C4-4F86-8CC4-913925B6B22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ED8DAF-9D88-4F9F-8C11-6377C260A312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="112">
   <si>
     <t>آذر</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t xml:space="preserve">لامپ طبقه پنجم و هویه </t>
+  </si>
+  <si>
+    <t>مهر 00</t>
   </si>
 </sst>
 </file>
@@ -534,10 +537,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,18 +549,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,10 +567,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,16 +585,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -878,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="K24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Q27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,95 +955,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1048,12 +1051,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="60" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4775,8 +4778,8 @@
         <v>35</v>
       </c>
       <c r="B28" s="5">
-        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53</f>
-        <v>1872300</v>
+        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53</f>
+        <v>2092300</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4795,10 +4798,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4811,36 +4814,42 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="50" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="58" t="s">
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="42" t="s">
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4911,6 +4920,14 @@
       <c r="X32" s="18">
         <v>330000</v>
       </c>
+      <c r="Y32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB32" s="11"/>
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
       <c r="AE32" s="21"/>
@@ -4989,6 +5006,16 @@
       <c r="X33" s="18">
         <v>2000000</v>
       </c>
+      <c r="Y33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB33" s="11">
+        <v>100000</v>
+      </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
       <c r="AE33" s="21"/>
@@ -5061,6 +5088,14 @@
       <c r="X34" s="18">
         <v>125100</v>
       </c>
+      <c r="Y34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB34" s="11"/>
       <c r="AC34" s="21"/>
       <c r="AD34" s="21"/>
       <c r="AE34" s="21"/>
@@ -5133,6 +5168,14 @@
         <v>8</v>
       </c>
       <c r="X35" s="18"/>
+      <c r="Y35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB35" s="11"/>
       <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
       <c r="AE35" s="21"/>
@@ -5209,6 +5252,14 @@
       <c r="X36" s="18">
         <v>499200</v>
       </c>
+      <c r="Y36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB36" s="11"/>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
       <c r="AE36" s="21"/>
@@ -5287,6 +5338,14 @@
       <c r="X37" s="18">
         <v>176500</v>
       </c>
+      <c r="Y37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB37" s="11"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
@@ -5353,6 +5412,14 @@
       <c r="X38" s="18">
         <v>160000</v>
       </c>
+      <c r="Y38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB38" s="11"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
       <c r="AE38" s="21"/>
@@ -5415,6 +5482,14 @@
       <c r="X39" s="18">
         <v>37000</v>
       </c>
+      <c r="Y39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB39" s="11"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
@@ -5473,6 +5548,14 @@
       <c r="X40" s="18">
         <v>95000</v>
       </c>
+      <c r="Y40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB40" s="11"/>
       <c r="AC40" s="21"/>
       <c r="AD40" s="21"/>
       <c r="AE40" s="21"/>
@@ -5527,6 +5610,12 @@
       </c>
       <c r="W41" s="16"/>
       <c r="X41" s="18"/>
+      <c r="Y41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="11"/>
       <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
       <c r="AE41" s="21"/>
@@ -5581,6 +5670,12 @@
       </c>
       <c r="W42" s="16"/>
       <c r="X42" s="18"/>
+      <c r="Y42" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="11"/>
       <c r="AC42" s="21"/>
       <c r="AD42" s="21"/>
       <c r="AE42" s="21"/>
@@ -5635,6 +5730,12 @@
       </c>
       <c r="W43" s="16"/>
       <c r="X43" s="18"/>
+      <c r="Y43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="11"/>
       <c r="AC43" s="21"/>
       <c r="AD43" s="21"/>
       <c r="AE43" s="21"/>
@@ -5689,6 +5790,14 @@
       </c>
       <c r="W44" s="16"/>
       <c r="X44" s="18"/>
+      <c r="Y44" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z44" s="11">
+        <v>160000</v>
+      </c>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="11"/>
       <c r="AC44" s="21"/>
       <c r="AD44" s="21"/>
       <c r="AE44" s="21"/>
@@ -5743,6 +5852,14 @@
       </c>
       <c r="W45" s="16"/>
       <c r="X45" s="18"/>
+      <c r="Y45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z45" s="11">
+        <v>160000</v>
+      </c>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="11"/>
       <c r="AC45" s="21"/>
       <c r="AD45" s="21"/>
       <c r="AE45" s="21"/>
@@ -5797,6 +5914,12 @@
       </c>
       <c r="W46" s="16"/>
       <c r="X46" s="18"/>
+      <c r="Y46" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="11"/>
       <c r="AC46" s="21"/>
       <c r="AD46" s="21"/>
       <c r="AE46" s="21"/>
@@ -5851,6 +5974,12 @@
       </c>
       <c r="W47" s="16"/>
       <c r="X47" s="18"/>
+      <c r="Y47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="11"/>
       <c r="AC47" s="21"/>
       <c r="AD47" s="21"/>
       <c r="AE47" s="21"/>
@@ -5905,6 +6034,12 @@
       </c>
       <c r="W48" s="16"/>
       <c r="X48" s="18"/>
+      <c r="Y48" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="11"/>
       <c r="AC48" s="21"/>
       <c r="AD48" s="21"/>
       <c r="AE48" s="21"/>
@@ -5935,6 +6070,10 @@
       <c r="V49" s="16"/>
       <c r="W49" s="16"/>
       <c r="X49" s="18"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="11"/>
       <c r="AC49" s="21"/>
       <c r="AD49" s="21"/>
       <c r="AE49" s="21"/>
@@ -5965,6 +6104,10 @@
       <c r="V50" s="18"/>
       <c r="W50" s="16"/>
       <c r="X50" s="18"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="11"/>
       <c r="AC50" s="21"/>
       <c r="AD50" s="21"/>
       <c r="AE50" s="21"/>
@@ -6054,6 +6197,20 @@
       <c r="X51" s="18">
         <f>SUM(X32:X50)</f>
         <v>3422800</v>
+      </c>
+      <c r="Y51" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z51" s="11">
+        <f>SUM(Z32:Z48)</f>
+        <v>320000</v>
+      </c>
+      <c r="AA51" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB51" s="11">
+        <f>SUM(AB32:AB50)</f>
+        <v>100000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -6085,6 +6242,10 @@
       <c r="V52" s="18"/>
       <c r="W52" s="16"/>
       <c r="X52" s="18"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="11"/>
       <c r="AC52" s="21"/>
       <c r="AD52" s="21"/>
       <c r="AE52" s="21"/>
@@ -6145,6 +6306,15 @@
       </c>
       <c r="W53" s="17"/>
       <c r="X53" s="18"/>
+      <c r="Y53" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z53" s="11">
+        <f>(Z51-AB51)</f>
+        <v>220000</v>
+      </c>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="11"/>
       <c r="AC53" s="21"/>
       <c r="AD53" s="21"/>
       <c r="AE53" s="21"/>
@@ -9469,17 +9639,7 @@
       <c r="AF606" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
+  <mergeCells count="24">
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9493,6 +9653,17 @@
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
+    <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ED8DAF-9D88-4F9F-8C11-6377C260A312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633A779B-5480-4EF9-B1BA-F5D8E37F35E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,10 +537,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,16 +549,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -567,10 +569,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,18 +587,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Q27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Q31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,95 +955,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1051,12 +1051,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53</f>
-        <v>2092300</v>
+        <v>2892300</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4798,10 +4798,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4814,42 +4814,42 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="46" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="56" t="s">
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="48" t="s">
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="58" t="s">
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -5255,7 +5255,9 @@
       <c r="Y36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z36" s="11"/>
+      <c r="Z36" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA36" s="10" t="s">
         <v>5</v>
       </c>
@@ -5415,7 +5417,9 @@
       <c r="Y38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z38" s="11"/>
+      <c r="Z38" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA38" s="10" t="s">
         <v>108</v>
       </c>
@@ -5551,7 +5555,9 @@
       <c r="Y40" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z40" s="11"/>
+      <c r="Z40" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA40" s="10" t="s">
         <v>110</v>
       </c>
@@ -5613,7 +5619,9 @@
       <c r="Y41" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z41" s="11"/>
+      <c r="Z41" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA41" s="10"/>
       <c r="AB41" s="11"/>
       <c r="AC41" s="21"/>
@@ -5917,7 +5925,9 @@
       <c r="Y46" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Z46" s="11"/>
+      <c r="Z46" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA46" s="10"/>
       <c r="AB46" s="11"/>
       <c r="AC46" s="21"/>
@@ -6203,7 +6213,7 @@
       </c>
       <c r="Z51" s="11">
         <f>SUM(Z32:Z48)</f>
-        <v>320000</v>
+        <v>1120000</v>
       </c>
       <c r="AA51" s="12" t="s">
         <v>33</v>
@@ -6311,7 +6321,7 @@
       </c>
       <c r="Z53" s="11">
         <f>(Z51-AB51)</f>
-        <v>220000</v>
+        <v>1020000</v>
       </c>
       <c r="AA53" s="12"/>
       <c r="AB53" s="11"/>
@@ -9640,6 +9650,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9654,16 +9674,6 @@
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633A779B-5480-4EF9-B1BA-F5D8E37F35E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C46FE2-F87E-4C59-A62B-E7C2BF64328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="112">
   <si>
     <t>آذر</t>
   </si>
@@ -882,7 +882,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Q31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+      <selection activeCell="AA37" sqref="AA37:AA40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53</f>
-        <v>2892300</v>
+        <v>3132300</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -5009,12 +5009,14 @@
       <c r="Y33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z33" s="11"/>
+      <c r="Z33" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA33" s="10" t="s">
         <v>11</v>
       </c>
       <c r="AB33" s="11">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -5344,9 +5346,7 @@
         <v>15</v>
       </c>
       <c r="Z37" s="11"/>
-      <c r="AA37" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="AA37" s="10"/>
       <c r="AB37" s="11"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
@@ -5420,9 +5420,7 @@
       <c r="Z38" s="11">
         <v>160000</v>
       </c>
-      <c r="AA38" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="AA38" s="10"/>
       <c r="AB38" s="11"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
@@ -5490,9 +5488,7 @@
         <v>21</v>
       </c>
       <c r="Z39" s="11"/>
-      <c r="AA39" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="AA39" s="10"/>
       <c r="AB39" s="11"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
@@ -5558,9 +5554,7 @@
       <c r="Z40" s="11">
         <v>160000</v>
       </c>
-      <c r="AA40" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="AA40" s="10"/>
       <c r="AB40" s="11"/>
       <c r="AC40" s="21"/>
       <c r="AD40" s="21"/>
@@ -5681,7 +5675,9 @@
       <c r="Y42" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Z42" s="11"/>
+      <c r="Z42" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA42" s="10"/>
       <c r="AB42" s="11"/>
       <c r="AC42" s="21"/>
@@ -5987,7 +5983,9 @@
       <c r="Y47" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Z47" s="11"/>
+      <c r="Z47" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA47" s="10"/>
       <c r="AB47" s="11"/>
       <c r="AC47" s="21"/>
@@ -6047,7 +6045,9 @@
       <c r="Y48" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Z48" s="11"/>
+      <c r="Z48" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA48" s="10"/>
       <c r="AB48" s="11"/>
       <c r="AC48" s="21"/>
@@ -6213,14 +6213,14 @@
       </c>
       <c r="Z51" s="11">
         <f>SUM(Z32:Z48)</f>
-        <v>1120000</v>
+        <v>1760000</v>
       </c>
       <c r="AA51" s="12" t="s">
         <v>33</v>
       </c>
       <c r="AB51" s="11">
         <f>SUM(AB32:AB50)</f>
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="Z53" s="11">
         <f>(Z51-AB51)</f>
-        <v>1020000</v>
+        <v>1260000</v>
       </c>
       <c r="AA53" s="12"/>
       <c r="AB53" s="11"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C46FE2-F87E-4C59-A62B-E7C2BF64328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3304CCE1-98EA-4056-9888-B46E78E61E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,10 +537,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,18 +549,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,10 +567,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,16 +585,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -882,7 +882,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Q31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA37" sqref="AA37:AA40"/>
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,95 +955,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1051,12 +1051,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="60" t="s">
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53</f>
-        <v>3132300</v>
+        <v>3612300</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4798,10 +4798,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4814,42 +4814,42 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="50" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="58" t="s">
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="42" t="s">
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="46" t="s">
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -4923,7 +4923,9 @@
       <c r="Y32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Z32" s="11"/>
+      <c r="Z32" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA32" s="10" t="s">
         <v>6</v>
       </c>
@@ -5093,7 +5095,9 @@
       <c r="Y34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Z34" s="11"/>
+      <c r="Z34" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA34" s="10" t="s">
         <v>17</v>
       </c>
@@ -5737,7 +5741,9 @@
       <c r="Y43" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Z43" s="11"/>
+      <c r="Z43" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA43" s="10"/>
       <c r="AB43" s="11"/>
       <c r="AC43" s="21"/>
@@ -6213,7 +6219,7 @@
       </c>
       <c r="Z51" s="11">
         <f>SUM(Z32:Z48)</f>
-        <v>1760000</v>
+        <v>2240000</v>
       </c>
       <c r="AA51" s="12" t="s">
         <v>33</v>
@@ -6321,7 +6327,7 @@
       </c>
       <c r="Z53" s="11">
         <f>(Z51-AB51)</f>
-        <v>1260000</v>
+        <v>1740000</v>
       </c>
       <c r="AA53" s="12"/>
       <c r="AB53" s="11"/>
@@ -9650,16 +9656,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9674,6 +9670,16 @@
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3304CCE1-98EA-4056-9888-B46E78E61E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194F99D3-0CAA-4937-B587-D88061918130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -881,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Q31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Q13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB34" sqref="AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +919,7 @@
     <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.140625" customWidth="1"/>
     <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" style="23" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="22.42578125" style="23" bestFit="1" customWidth="1"/>
@@ -4779,7 +4788,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53</f>
-        <v>3612300</v>
+        <v>2932300</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -5018,7 +5027,7 @@
         <v>11</v>
       </c>
       <c r="AB33" s="11">
-        <v>500000</v>
+        <v>1660000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -5177,7 +5186,9 @@
       <c r="Y35" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Z35" s="11"/>
+      <c r="Z35" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA35" s="10" t="s">
         <v>8</v>
       </c>
@@ -5349,7 +5360,9 @@
       <c r="Y37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Z37" s="11"/>
+      <c r="Z37" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA37" s="10"/>
       <c r="AB37" s="11"/>
       <c r="AC37" s="21"/>
@@ -5491,7 +5504,9 @@
       <c r="Y39" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z39" s="11"/>
+      <c r="Z39" s="11">
+        <v>160000</v>
+      </c>
       <c r="AA39" s="10"/>
       <c r="AB39" s="11"/>
       <c r="AC39" s="21"/>
@@ -6219,14 +6234,14 @@
       </c>
       <c r="Z51" s="11">
         <f>SUM(Z32:Z48)</f>
-        <v>2240000</v>
+        <v>2720000</v>
       </c>
       <c r="AA51" s="12" t="s">
         <v>33</v>
       </c>
       <c r="AB51" s="11">
         <f>SUM(AB32:AB50)</f>
-        <v>500000</v>
+        <v>1660000</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -6327,7 +6342,7 @@
       </c>
       <c r="Z53" s="11">
         <f>(Z51-AB51)</f>
-        <v>1740000</v>
+        <v>1060000</v>
       </c>
       <c r="AA53" s="12"/>
       <c r="AB53" s="11"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194F99D3-0CAA-4937-B587-D88061918130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECB756D-78EB-44C3-9FE0-C25A9699D06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,10 +546,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,16 +558,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -576,10 +578,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,18 +596,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Q13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB34" sqref="AB34"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Q11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,95 +964,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
       <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="45"/>
       <c r="AR1" s="45"/>
       <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
       <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
@@ -1060,12 +1060,12 @@
       <c r="BL1" s="45"/>
       <c r="BM1" s="45"/>
       <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BO1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53</f>
-        <v>2932300</v>
+        <v>2122000</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4807,10 +4807,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4823,42 +4823,42 @@
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="46" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="56" t="s">
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="48" t="s">
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="58" t="s">
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -5027,7 +5027,7 @@
         <v>11</v>
       </c>
       <c r="AB33" s="11">
-        <v>1660000</v>
+        <v>2000000</v>
       </c>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
@@ -5192,7 +5192,9 @@
       <c r="AA35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AB35" s="11"/>
+      <c r="AB35" s="11">
+        <v>470300</v>
+      </c>
       <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
       <c r="AE35" s="21"/>
@@ -6241,7 +6243,7 @@
       </c>
       <c r="AB51" s="11">
         <f>SUM(AB32:AB50)</f>
-        <v>1660000</v>
+        <v>2470300</v>
       </c>
       <c r="AC51" s="21"/>
       <c r="AD51" s="21"/>
@@ -6342,7 +6344,7 @@
       </c>
       <c r="Z53" s="11">
         <f>(Z51-AB51)</f>
-        <v>1060000</v>
+        <v>249700</v>
       </c>
       <c r="AA53" s="12"/>
       <c r="AB53" s="11"/>
@@ -9671,6 +9673,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>
@@ -9685,16 +9697,6 @@
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECB756D-78EB-44C3-9FE0-C25A9699D06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADD10C2-8D64-4A04-9E5D-A5320C2EAD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="113">
   <si>
     <t>آذر</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>مهر 00</t>
+  </si>
+  <si>
+    <t>آبان 00</t>
   </si>
 </sst>
 </file>
@@ -546,6 +549,12 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,12 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -890,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="Q11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB36" sqref="AB36"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="R25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,8 +918,7 @@
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.140625" customWidth="1"/>
     <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -964,71 +966,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
       <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="53"/>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="46" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
       <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AD1" s="53"/>
       <c r="AE1" s="53"/>
       <c r="AF1" s="53"/>
-      <c r="AG1" s="42" t="s">
+      <c r="AG1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="44" t="s">
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
       <c r="AT1" s="58" t="s">
         <v>79</v>
       </c>
@@ -1047,19 +1049,19 @@
       <c r="BC1" s="63"/>
       <c r="BD1" s="63"/>
       <c r="BE1" s="63"/>
-      <c r="BF1" s="50" t="s">
+      <c r="BF1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="44" t="s">
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="47"/>
       <c r="BO1" s="60" t="s">
         <v>3</v>
       </c>
@@ -4787,8 +4789,8 @@
         <v>35</v>
       </c>
       <c r="B28" s="5">
-        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53</f>
-        <v>2122000</v>
+        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53+AD53</f>
+        <v>1782000</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4807,22 +4809,22 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
@@ -4835,34 +4837,36 @@
       <c r="J31" s="57"/>
       <c r="K31" s="57"/>
       <c r="L31" s="57"/>
-      <c r="M31" s="50" t="s">
+      <c r="M31" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
       <c r="Q31" s="58" t="s">
         <v>102</v>
       </c>
       <c r="R31" s="59"/>
       <c r="S31" s="59"/>
       <c r="T31" s="59"/>
-      <c r="U31" s="42" t="s">
+      <c r="U31" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="46" t="s">
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="21"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="43"/>
     </row>
     <row r="32" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -4939,10 +4943,14 @@
         <v>6</v>
       </c>
       <c r="AB32" s="11"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
+      <c r="AC32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF32" s="8"/>
     </row>
     <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
@@ -5029,10 +5037,16 @@
       <c r="AB33" s="11">
         <v>2000000</v>
       </c>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
-      <c r="AE33" s="21"/>
-      <c r="AF33" s="21"/>
+      <c r="AC33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF33" s="8">
+        <v>500000</v>
+      </c>
     </row>
     <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
@@ -5111,10 +5125,14 @@
         <v>17</v>
       </c>
       <c r="AB34" s="11"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="21"/>
+      <c r="AC34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF34" s="8"/>
     </row>
     <row r="35" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
@@ -5192,13 +5210,15 @@
       <c r="AA35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AB35" s="11">
-        <v>470300</v>
-      </c>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
-      <c r="AE35" s="21"/>
-      <c r="AF35" s="21"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF35" s="8"/>
     </row>
     <row r="36" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
@@ -5280,11 +5300,17 @@
       <c r="AA36" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="21"/>
+      <c r="AB36" s="11">
+        <v>470300</v>
+      </c>
+      <c r="AC36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF36" s="8"/>
     </row>
     <row r="37" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
@@ -5367,10 +5393,12 @@
       </c>
       <c r="AA37" s="10"/>
       <c r="AB37" s="11"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
+      <c r="AC37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="8"/>
     </row>
     <row r="38" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
@@ -5441,10 +5469,12 @@
       </c>
       <c r="AA38" s="10"/>
       <c r="AB38" s="11"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
+      <c r="AC38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="8"/>
     </row>
     <row r="39" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -5511,10 +5541,12 @@
       </c>
       <c r="AA39" s="10"/>
       <c r="AB39" s="11"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
+      <c r="AC39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="8"/>
     </row>
     <row r="40" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
@@ -5577,10 +5609,14 @@
       </c>
       <c r="AA40" s="10"/>
       <c r="AB40" s="11"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
+      <c r="AC40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD40" s="8">
+        <v>160000</v>
+      </c>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="8"/>
     </row>
     <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
@@ -5639,10 +5675,12 @@
       </c>
       <c r="AA41" s="10"/>
       <c r="AB41" s="11"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-      <c r="AE41" s="21"/>
-      <c r="AF41" s="21"/>
+      <c r="AC41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="8"/>
     </row>
     <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
@@ -5701,10 +5739,12 @@
       </c>
       <c r="AA42" s="10"/>
       <c r="AB42" s="11"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
-      <c r="AE42" s="21"/>
-      <c r="AF42" s="21"/>
+      <c r="AC42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="8"/>
     </row>
     <row r="43" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
@@ -5763,10 +5803,12 @@
       </c>
       <c r="AA43" s="10"/>
       <c r="AB43" s="11"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-      <c r="AE43" s="21"/>
-      <c r="AF43" s="21"/>
+      <c r="AC43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="8"/>
     </row>
     <row r="44" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
@@ -5825,10 +5867,12 @@
       </c>
       <c r="AA44" s="10"/>
       <c r="AB44" s="11"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
-      <c r="AE44" s="21"/>
-      <c r="AF44" s="21"/>
+      <c r="AC44" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="8"/>
     </row>
     <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
@@ -5887,10 +5931,12 @@
       </c>
       <c r="AA45" s="10"/>
       <c r="AB45" s="11"/>
-      <c r="AC45" s="21"/>
-      <c r="AD45" s="21"/>
-      <c r="AE45" s="21"/>
-      <c r="AF45" s="21"/>
+      <c r="AC45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="8"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
@@ -5949,10 +5995,12 @@
       </c>
       <c r="AA46" s="10"/>
       <c r="AB46" s="11"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="21"/>
-      <c r="AE46" s="21"/>
-      <c r="AF46" s="21"/>
+      <c r="AC46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="8"/>
     </row>
     <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
@@ -6011,10 +6059,12 @@
       </c>
       <c r="AA47" s="10"/>
       <c r="AB47" s="11"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21"/>
-      <c r="AE47" s="21"/>
-      <c r="AF47" s="21"/>
+      <c r="AC47" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="8"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
@@ -6073,10 +6123,12 @@
       </c>
       <c r="AA48" s="10"/>
       <c r="AB48" s="11"/>
-      <c r="AC48" s="21"/>
-      <c r="AD48" s="21"/>
-      <c r="AE48" s="21"/>
-      <c r="AF48" s="21"/>
+      <c r="AC48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="8"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
@@ -6107,10 +6159,10 @@
       <c r="Z49" s="10"/>
       <c r="AA49" s="10"/>
       <c r="AB49" s="11"/>
-      <c r="AC49" s="21"/>
-      <c r="AD49" s="21"/>
-      <c r="AE49" s="21"/>
-      <c r="AF49" s="21"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="8"/>
     </row>
     <row r="50" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
@@ -6141,10 +6193,10 @@
       <c r="Z50" s="11"/>
       <c r="AA50" s="10"/>
       <c r="AB50" s="11"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="21"/>
-      <c r="AE50" s="21"/>
-      <c r="AF50" s="21"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="8"/>
     </row>
     <row r="51" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
@@ -6245,10 +6297,20 @@
         <f>SUM(AB32:AB50)</f>
         <v>2470300</v>
       </c>
-      <c r="AC51" s="21"/>
-      <c r="AD51" s="21"/>
-      <c r="AE51" s="21"/>
-      <c r="AF51" s="21"/>
+      <c r="AC51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD51" s="8">
+        <f>SUM(AD32:AD48)</f>
+        <v>160000</v>
+      </c>
+      <c r="AE51" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF51" s="8">
+        <f>SUM(AF32:AF50)</f>
+        <v>500000</v>
+      </c>
     </row>
     <row r="52" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
@@ -6279,10 +6341,10 @@
       <c r="Z52" s="11"/>
       <c r="AA52" s="10"/>
       <c r="AB52" s="11"/>
-      <c r="AC52" s="21"/>
-      <c r="AD52" s="21"/>
-      <c r="AE52" s="21"/>
-      <c r="AF52" s="21"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="8"/>
     </row>
     <row r="53" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
@@ -6348,10 +6410,15 @@
       </c>
       <c r="AA53" s="12"/>
       <c r="AB53" s="11"/>
-      <c r="AC53" s="21"/>
-      <c r="AD53" s="21"/>
-      <c r="AE53" s="21"/>
-      <c r="AF53" s="21"/>
+      <c r="AC53" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD53" s="8">
+        <f>(AD51-AF51)</f>
+        <v>-340000</v>
+      </c>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="8"/>
     </row>
     <row r="54" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC54" s="21"/>
@@ -9672,7 +9739,7 @@
       <c r="AF606" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="BO1:BR1"/>
     <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AK1:AO1"/>
@@ -9683,6 +9750,7 @@
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="X1:AB1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADD10C2-8D64-4A04-9E5D-A5320C2EAD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C79C0B-290A-43D6-8127-6F1B0FB7DFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="114">
   <si>
     <t>آذر</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>آبان 00</t>
+  </si>
+  <si>
+    <t>وسایل نظافت و شستشوی ساختمان</t>
   </si>
 </sst>
 </file>
@@ -549,6 +552,18 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,30 +576,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,16 +600,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -893,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="R25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="U25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,108 +969,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="44" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="42" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="48" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="44" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="42" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="46" t="s">
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="42" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="46" t="s">
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="47"/>
-      <c r="BL1" s="47"/>
-      <c r="BM1" s="47"/>
-      <c r="BN1" s="47"/>
-      <c r="BO1" s="60" t="s">
+      <c r="BK1" s="45"/>
+      <c r="BL1" s="45"/>
+      <c r="BM1" s="45"/>
+      <c r="BN1" s="45"/>
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4790,7 +4793,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53+AD53</f>
-        <v>1782000</v>
+        <v>1557000</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4809,64 +4812,64 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="54" t="s">
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="42" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="58" t="s">
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="44" t="s">
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="48" t="s">
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="42" t="s">
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="43"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
     </row>
     <row r="32" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -5391,8 +5394,12 @@
       <c r="Z37" s="11">
         <v>160000</v>
       </c>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="11"/>
+      <c r="AA37" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB37" s="11">
+        <v>225000</v>
+      </c>
       <c r="AC37" s="7" t="s">
         <v>15</v>
       </c>
@@ -6295,7 +6302,7 @@
       </c>
       <c r="AB51" s="11">
         <f>SUM(AB32:AB50)</f>
-        <v>2470300</v>
+        <v>2695300</v>
       </c>
       <c r="AC51" s="9" t="s">
         <v>32</v>
@@ -6406,7 +6413,7 @@
       </c>
       <c r="Z53" s="11">
         <f>(Z51-AB51)</f>
-        <v>249700</v>
+        <v>24700</v>
       </c>
       <c r="AA53" s="12"/>
       <c r="AB53" s="11"/>
@@ -9740,16 +9747,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -9765,6 +9762,16 @@
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C79C0B-290A-43D6-8127-6F1B0FB7DFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A814EB-E289-4CDE-A80E-A77DD375E4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,18 +552,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,16 +564,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,18 +602,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -897,7 +897,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="U25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+      <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,108 +969,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="44" t="s">
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="44" t="s">
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="47"/>
+      <c r="BO1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53+AD53</f>
-        <v>1557000</v>
+        <v>2037000</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4812,64 +4812,64 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="46" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="56" t="s">
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="48" t="s">
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="58" t="s">
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="46" t="s">
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="43"/>
     </row>
     <row r="32" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -5309,7 +5309,9 @@
       <c r="AC36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AD36" s="8"/>
+      <c r="AD36" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE36" s="7" t="s">
         <v>5</v>
       </c>
@@ -5877,7 +5879,9 @@
       <c r="AC44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AD44" s="8"/>
+      <c r="AD44" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE44" s="7"/>
       <c r="AF44" s="8"/>
     </row>
@@ -5941,7 +5945,9 @@
       <c r="AC45" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD45" s="8"/>
+      <c r="AD45" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE45" s="7"/>
       <c r="AF45" s="8"/>
     </row>
@@ -6309,7 +6315,7 @@
       </c>
       <c r="AD51" s="8">
         <f>SUM(AD32:AD48)</f>
-        <v>160000</v>
+        <v>640000</v>
       </c>
       <c r="AE51" s="9" t="s">
         <v>33</v>
@@ -6422,7 +6428,7 @@
       </c>
       <c r="AD53" s="8">
         <f>(AD51-AF51)</f>
-        <v>-340000</v>
+        <v>140000</v>
       </c>
       <c r="AE53" s="9"/>
       <c r="AF53" s="8"/>
@@ -9747,6 +9753,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -9762,16 +9778,6 @@
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A814EB-E289-4CDE-A80E-A77DD375E4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D74FE73-0778-4B93-87F5-68BB94C36113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,6 +552,18 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,30 +576,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,16 +600,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -897,7 +897,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="U25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD44" sqref="AD44"/>
+      <selection activeCell="AD48" sqref="AD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,108 +969,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="44" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="42" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="48" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="44" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="42" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="46" t="s">
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="42" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="46" t="s">
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="47"/>
-      <c r="BL1" s="47"/>
-      <c r="BM1" s="47"/>
-      <c r="BN1" s="47"/>
-      <c r="BO1" s="60" t="s">
+      <c r="BK1" s="45"/>
+      <c r="BL1" s="45"/>
+      <c r="BM1" s="45"/>
+      <c r="BN1" s="45"/>
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53+AD53</f>
-        <v>2037000</v>
+        <v>2357000</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4812,64 +4812,64 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="54" t="s">
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="42" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="58" t="s">
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="44" t="s">
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="48" t="s">
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="42" t="s">
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="43"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
     </row>
     <row r="32" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -6011,7 +6011,9 @@
       <c r="AC46" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AD46" s="8"/>
+      <c r="AD46" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE46" s="7"/>
       <c r="AF46" s="8"/>
     </row>
@@ -6075,7 +6077,9 @@
       <c r="AC47" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AD47" s="8"/>
+      <c r="AD47" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE47" s="7"/>
       <c r="AF47" s="8"/>
     </row>
@@ -6315,7 +6319,7 @@
       </c>
       <c r="AD51" s="8">
         <f>SUM(AD32:AD48)</f>
-        <v>640000</v>
+        <v>960000</v>
       </c>
       <c r="AE51" s="9" t="s">
         <v>33</v>
@@ -6428,7 +6432,7 @@
       </c>
       <c r="AD53" s="8">
         <f>(AD51-AF51)</f>
-        <v>140000</v>
+        <v>460000</v>
       </c>
       <c r="AE53" s="9"/>
       <c r="AF53" s="8"/>
@@ -9753,16 +9757,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -9778,6 +9772,16 @@
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D74FE73-0778-4B93-87F5-68BB94C36113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE71C9D-5B80-4513-AF7F-7D89953AA11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,18 +552,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,16 +564,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,18 +602,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -897,7 +897,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="U25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD48" sqref="AD48"/>
+      <selection activeCell="AF36" sqref="AF36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,108 +969,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="44" t="s">
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="44" t="s">
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="47"/>
+      <c r="BO1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53+AD53</f>
-        <v>2357000</v>
+        <v>2351900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4812,64 +4812,64 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="46" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="56" t="s">
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="48" t="s">
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="58" t="s">
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="46" t="s">
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="43"/>
     </row>
     <row r="32" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -5221,7 +5221,9 @@
       <c r="AE35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AF35" s="8"/>
+      <c r="AF35" s="8">
+        <v>5100</v>
+      </c>
     </row>
     <row r="36" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
@@ -6326,7 +6328,7 @@
       </c>
       <c r="AF51" s="8">
         <f>SUM(AF32:AF50)</f>
-        <v>500000</v>
+        <v>505100</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -6432,7 +6434,7 @@
       </c>
       <c r="AD53" s="8">
         <f>(AD51-AF51)</f>
-        <v>460000</v>
+        <v>454900</v>
       </c>
       <c r="AE53" s="9"/>
       <c r="AF53" s="8"/>
@@ -9757,6 +9759,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -9772,16 +9784,6 @@
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE71C9D-5B80-4513-AF7F-7D89953AA11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735EC31C-F7F4-4BDD-BA61-3E6B3D2B71A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,6 +552,18 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,30 +576,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,16 +600,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -897,7 +897,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="U25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF36" sqref="AF36"/>
+      <selection activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,108 +969,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="44" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="42" t="s">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="48" t="s">
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="44" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="42" t="s">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="46" t="s">
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="42" t="s">
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="46" t="s">
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="47"/>
+      <c r="BI1" s="47"/>
+      <c r="BJ1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="47"/>
-      <c r="BL1" s="47"/>
-      <c r="BM1" s="47"/>
-      <c r="BN1" s="47"/>
-      <c r="BO1" s="60" t="s">
+      <c r="BK1" s="45"/>
+      <c r="BL1" s="45"/>
+      <c r="BM1" s="45"/>
+      <c r="BN1" s="45"/>
+      <c r="BO1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53+AD53</f>
-        <v>2351900</v>
+        <v>2831900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4812,64 +4812,64 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="54" t="s">
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="42" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="58" t="s">
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="44" t="s">
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="48" t="s">
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="42" t="s">
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="43"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
     </row>
     <row r="32" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -4949,7 +4949,9 @@
       <c r="AC32" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AD32" s="8"/>
+      <c r="AD32" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE32" s="7" t="s">
         <v>6</v>
       </c>
@@ -5043,7 +5045,9 @@
       <c r="AC33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AD33" s="8"/>
+      <c r="AD33" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE33" s="7" t="s">
         <v>11</v>
       </c>
@@ -5131,7 +5135,9 @@
       <c r="AC34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AD34" s="8"/>
+      <c r="AD34" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE34" s="7" t="s">
         <v>17</v>
       </c>
@@ -6321,7 +6327,7 @@
       </c>
       <c r="AD51" s="8">
         <f>SUM(AD32:AD48)</f>
-        <v>960000</v>
+        <v>1440000</v>
       </c>
       <c r="AE51" s="9" t="s">
         <v>33</v>
@@ -6434,7 +6440,7 @@
       </c>
       <c r="AD53" s="8">
         <f>(AD51-AF51)</f>
-        <v>454900</v>
+        <v>934900</v>
       </c>
       <c r="AE53" s="9"/>
       <c r="AF53" s="8"/>
@@ -9759,16 +9765,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -9784,6 +9780,16 @@
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735EC31C-F7F4-4BDD-BA61-3E6B3D2B71A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D033CF-7ECB-4D44-8150-384FBC609C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,7 +897,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="U25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD35" sqref="AD35"/>
+      <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53+AD53</f>
-        <v>2831900</v>
+        <v>3631900</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -5052,7 +5052,7 @@
         <v>11</v>
       </c>
       <c r="AF33" s="8">
-        <v>500000</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -5223,7 +5223,9 @@
       <c r="AC35" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AD35" s="8"/>
+      <c r="AD35" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE35" s="7" t="s">
         <v>8</v>
       </c>
@@ -5413,7 +5415,9 @@
       <c r="AC37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AD37" s="8"/>
+      <c r="AD37" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE37" s="7"/>
       <c r="AF37" s="8"/>
     </row>
@@ -5489,7 +5493,9 @@
       <c r="AC38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AD38" s="8"/>
+      <c r="AD38" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE38" s="7"/>
       <c r="AF38" s="8"/>
     </row>
@@ -5561,7 +5567,9 @@
       <c r="AC39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AD39" s="8"/>
+      <c r="AD39" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE39" s="7"/>
       <c r="AF39" s="8"/>
     </row>
@@ -5759,7 +5767,9 @@
       <c r="AC42" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AD42" s="8"/>
+      <c r="AD42" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE42" s="7"/>
       <c r="AF42" s="8"/>
     </row>
@@ -5823,7 +5833,9 @@
       <c r="AC43" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AD43" s="8"/>
+      <c r="AD43" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE43" s="7"/>
       <c r="AF43" s="8"/>
     </row>
@@ -6327,14 +6339,14 @@
       </c>
       <c r="AD51" s="8">
         <f>SUM(AD32:AD48)</f>
-        <v>1440000</v>
+        <v>2400000</v>
       </c>
       <c r="AE51" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AF51" s="8">
         <f>SUM(AF32:AF50)</f>
-        <v>505100</v>
+        <v>665100</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -6440,7 +6452,7 @@
       </c>
       <c r="AD53" s="8">
         <f>(AD51-AF51)</f>
-        <v>934900</v>
+        <v>1734900</v>
       </c>
       <c r="AE53" s="9"/>
       <c r="AF53" s="8"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D033CF-7ECB-4D44-8150-384FBC609C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C6FF0-C7DE-4132-886B-F84D3E95E335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="116">
   <si>
     <t>آذر</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>وسایل نظافت و شستشوی ساختمان</t>
+  </si>
+  <si>
+    <t>خرید اداپاتور برای دوربین ها</t>
+  </si>
+  <si>
+    <t>آذر 00</t>
   </si>
 </sst>
 </file>
@@ -552,18 +558,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,16 +570,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,18 +608,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -896,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="U25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD39" sqref="AD39"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,8 +933,8 @@
     <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" style="23" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.7109375" style="23" customWidth="1"/>
+    <col min="32" max="32" width="12.85546875" style="23" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="27.7109375" bestFit="1" customWidth="1"/>
@@ -969,108 +975,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="48" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="46" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="58" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="50" t="s">
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="48" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="44" t="s">
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="54" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="52" t="s">
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="53"/>
-      <c r="BD1" s="53"/>
-      <c r="BE1" s="53"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="44" t="s">
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="42" t="s">
+      <c r="BK1" s="47"/>
+      <c r="BL1" s="47"/>
+      <c r="BM1" s="47"/>
+      <c r="BN1" s="47"/>
+      <c r="BO1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="43"/>
-      <c r="BQ1" s="43"/>
-      <c r="BR1" s="43"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4792,8 +4798,8 @@
         <v>35</v>
       </c>
       <c r="B28" s="5">
-        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53+AD53</f>
-        <v>3631900</v>
+        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53+AD53+AH53</f>
+        <v>2187800</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4812,64 +4818,70 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="62" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="54" t="s">
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="46" t="s">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="56" t="s">
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="48" t="s">
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="58" t="s">
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="46" t="s">
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
     </row>
     <row r="32" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -4956,8 +4968,16 @@
         <v>6</v>
       </c>
       <c r="AF32" s="8"/>
-    </row>
-    <row r="33" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG32" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH32" s="34"/>
+      <c r="AI32" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ32" s="34"/>
+    </row>
+    <row r="33" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>7</v>
       </c>
@@ -5052,10 +5072,18 @@
         <v>11</v>
       </c>
       <c r="AF33" s="8">
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2000000</v>
+      </c>
+      <c r="AG33" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH33" s="34"/>
+      <c r="AI33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ33" s="34"/>
+    </row>
+    <row r="34" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>10</v>
       </c>
@@ -5141,9 +5169,19 @@
       <c r="AE34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AF34" s="8"/>
-    </row>
-    <row r="35" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AF34" s="8">
+        <v>108000</v>
+      </c>
+      <c r="AG34" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH34" s="34"/>
+      <c r="AI34" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ34" s="34"/>
+    </row>
+    <row r="35" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>12</v>
       </c>
@@ -5232,8 +5270,16 @@
       <c r="AF35" s="8">
         <v>5100</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG35" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH35" s="34"/>
+      <c r="AI35" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ35" s="34"/>
+    </row>
+    <row r="36" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>14</v>
       </c>
@@ -5325,9 +5371,19 @@
       <c r="AE36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AF36" s="8"/>
-    </row>
-    <row r="37" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AF36" s="8">
+        <v>470300</v>
+      </c>
+      <c r="AG36" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH36" s="34"/>
+      <c r="AI36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ36" s="34"/>
+    </row>
+    <row r="37" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>15</v>
       </c>
@@ -5418,10 +5474,20 @@
       <c r="AD37" s="8">
         <v>160000</v>
       </c>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="8"/>
-    </row>
-    <row r="38" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE37" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF37" s="8">
+        <v>165800</v>
+      </c>
+      <c r="AG37" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH37" s="34"/>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="34"/>
+    </row>
+    <row r="38" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
@@ -5498,8 +5564,14 @@
       </c>
       <c r="AE38" s="7"/>
       <c r="AF38" s="8"/>
-    </row>
-    <row r="39" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG38" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH38" s="34"/>
+      <c r="AI38" s="33"/>
+      <c r="AJ38" s="34"/>
+    </row>
+    <row r="39" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>21</v>
       </c>
@@ -5572,8 +5644,14 @@
       </c>
       <c r="AE39" s="7"/>
       <c r="AF39" s="8"/>
-    </row>
-    <row r="40" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG39" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH39" s="34"/>
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="34"/>
+    </row>
+    <row r="40" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>23</v>
       </c>
@@ -5642,8 +5720,16 @@
       </c>
       <c r="AE40" s="7"/>
       <c r="AF40" s="8"/>
-    </row>
-    <row r="41" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG40" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH40" s="34">
+        <v>160000</v>
+      </c>
+      <c r="AI40" s="33"/>
+      <c r="AJ40" s="34"/>
+    </row>
+    <row r="41" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>24</v>
       </c>
@@ -5703,11 +5789,19 @@
       <c r="AC41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AD41" s="8"/>
+      <c r="AD41" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE41" s="7"/>
       <c r="AF41" s="8"/>
-    </row>
-    <row r="42" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG41" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH41" s="34"/>
+      <c r="AI41" s="33"/>
+      <c r="AJ41" s="34"/>
+    </row>
+    <row r="42" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>25</v>
       </c>
@@ -5772,8 +5866,14 @@
       </c>
       <c r="AE42" s="7"/>
       <c r="AF42" s="8"/>
-    </row>
-    <row r="43" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG42" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH42" s="34"/>
+      <c r="AI42" s="33"/>
+      <c r="AJ42" s="34"/>
+    </row>
+    <row r="43" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>26</v>
       </c>
@@ -5838,8 +5938,14 @@
       </c>
       <c r="AE43" s="7"/>
       <c r="AF43" s="8"/>
-    </row>
-    <row r="44" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG43" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH43" s="34"/>
+      <c r="AI43" s="33"/>
+      <c r="AJ43" s="34"/>
+    </row>
+    <row r="44" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>27</v>
       </c>
@@ -5904,8 +6010,16 @@
       </c>
       <c r="AE44" s="7"/>
       <c r="AF44" s="8"/>
-    </row>
-    <row r="45" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG44" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH44" s="34">
+        <v>160000</v>
+      </c>
+      <c r="AI44" s="33"/>
+      <c r="AJ44" s="34"/>
+    </row>
+    <row r="45" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>28</v>
       </c>
@@ -5970,8 +6084,14 @@
       </c>
       <c r="AE45" s="7"/>
       <c r="AF45" s="8"/>
-    </row>
-    <row r="46" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG45" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH45" s="34"/>
+      <c r="AI45" s="33"/>
+      <c r="AJ45" s="34"/>
+    </row>
+    <row r="46" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>29</v>
       </c>
@@ -6036,8 +6156,14 @@
       </c>
       <c r="AE46" s="7"/>
       <c r="AF46" s="8"/>
-    </row>
-    <row r="47" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG46" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH46" s="34"/>
+      <c r="AI46" s="33"/>
+      <c r="AJ46" s="34"/>
+    </row>
+    <row r="47" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>30</v>
       </c>
@@ -6102,8 +6228,14 @@
       </c>
       <c r="AE47" s="7"/>
       <c r="AF47" s="8"/>
-    </row>
-    <row r="48" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG47" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH47" s="34"/>
+      <c r="AI47" s="33"/>
+      <c r="AJ47" s="34"/>
+    </row>
+    <row r="48" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>31</v>
       </c>
@@ -6163,11 +6295,19 @@
       <c r="AC48" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AD48" s="8"/>
+      <c r="AD48" s="8">
+        <v>160000</v>
+      </c>
       <c r="AE48" s="7"/>
       <c r="AF48" s="8"/>
-    </row>
-    <row r="49" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG48" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH48" s="34"/>
+      <c r="AI48" s="33"/>
+      <c r="AJ48" s="34"/>
+    </row>
+    <row r="49" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -6200,8 +6340,12 @@
       <c r="AD49" s="7"/>
       <c r="AE49" s="7"/>
       <c r="AF49" s="8"/>
-    </row>
-    <row r="50" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG49" s="33"/>
+      <c r="AH49" s="33"/>
+      <c r="AI49" s="33"/>
+      <c r="AJ49" s="34"/>
+    </row>
+    <row r="50" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="25"/>
       <c r="C50" s="24"/>
@@ -6234,8 +6378,12 @@
       <c r="AD50" s="8"/>
       <c r="AE50" s="7"/>
       <c r="AF50" s="8"/>
-    </row>
-    <row r="51" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG50" s="33"/>
+      <c r="AH50" s="34"/>
+      <c r="AI50" s="33"/>
+      <c r="AJ50" s="34"/>
+    </row>
+    <row r="51" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>32</v>
       </c>
@@ -6339,17 +6487,31 @@
       </c>
       <c r="AD51" s="8">
         <f>SUM(AD32:AD48)</f>
-        <v>2400000</v>
+        <v>2720000</v>
       </c>
       <c r="AE51" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AF51" s="8">
         <f>SUM(AF32:AF50)</f>
-        <v>665100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2749200</v>
+      </c>
+      <c r="AG51" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH51" s="34">
+        <f>SUM(AH32:AH48)</f>
+        <v>320000</v>
+      </c>
+      <c r="AI51" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ51" s="34">
+        <f>SUM(AJ32:AJ50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="25"/>
       <c r="C52" s="24"/>
@@ -6382,8 +6544,12 @@
       <c r="AD52" s="8"/>
       <c r="AE52" s="7"/>
       <c r="AF52" s="8"/>
-    </row>
-    <row r="53" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG52" s="33"/>
+      <c r="AH52" s="34"/>
+      <c r="AI52" s="33"/>
+      <c r="AJ52" s="34"/>
+    </row>
+    <row r="53" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>34</v>
       </c>
@@ -6452,72 +6618,81 @@
       </c>
       <c r="AD53" s="8">
         <f>(AD51-AF51)</f>
-        <v>1734900</v>
+        <v>-29200</v>
       </c>
       <c r="AE53" s="9"/>
       <c r="AF53" s="8"/>
-    </row>
-    <row r="54" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AG53" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH53" s="34">
+        <f>(AH51-AJ51)</f>
+        <v>320000</v>
+      </c>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="34"/>
+    </row>
+    <row r="54" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC54" s="21"/>
       <c r="AD54" s="21"/>
       <c r="AE54" s="21"/>
       <c r="AF54" s="21"/>
     </row>
-    <row r="55" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC55" s="21"/>
       <c r="AD55" s="21"/>
       <c r="AE55" s="21"/>
       <c r="AF55" s="21"/>
     </row>
-    <row r="56" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC56" s="21"/>
       <c r="AD56" s="21"/>
       <c r="AE56" s="21"/>
       <c r="AF56" s="21"/>
     </row>
-    <row r="57" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC57" s="21"/>
       <c r="AD57" s="21"/>
       <c r="AE57" s="21"/>
       <c r="AF57" s="21"/>
     </row>
-    <row r="58" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC58" s="21"/>
       <c r="AD58" s="21"/>
       <c r="AE58" s="21"/>
       <c r="AF58" s="21"/>
     </row>
-    <row r="59" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC59" s="21"/>
       <c r="AD59" s="21"/>
       <c r="AE59" s="21"/>
       <c r="AF59" s="21"/>
     </row>
-    <row r="60" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC60" s="21"/>
       <c r="AD60" s="21"/>
       <c r="AE60" s="21"/>
       <c r="AF60" s="21"/>
     </row>
-    <row r="61" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC61" s="21"/>
       <c r="AD61" s="21"/>
       <c r="AE61" s="21"/>
       <c r="AF61" s="21"/>
     </row>
-    <row r="62" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC62" s="21"/>
       <c r="AD62" s="21"/>
       <c r="AE62" s="21"/>
       <c r="AF62" s="21"/>
     </row>
-    <row r="63" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC63" s="21"/>
       <c r="AD63" s="21"/>
       <c r="AE63" s="21"/>
       <c r="AF63" s="21"/>
     </row>
-    <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC64" s="21"/>
       <c r="AD64" s="21"/>
       <c r="AE64" s="21"/>
@@ -9776,7 +9951,18 @@
       <c r="AF606" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -9792,16 +9978,6 @@
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C6FF0-C7DE-4132-886B-F84D3E95E335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856B0ED0-0FF6-4E8E-A048-F9859B06A149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,6 +558,24 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,10 +588,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,30 +618,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="V23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ34" sqref="AJ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,95 +975,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="48" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="52" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="44" t="s">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="42" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="48" t="s">
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="52" t="s">
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="44" t="s">
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="42" t="s">
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
       <c r="AP1" s="46" t="s">
         <v>74</v>
       </c>
       <c r="AQ1" s="47"/>
       <c r="AR1" s="47"/>
       <c r="AS1" s="47"/>
-      <c r="AT1" s="58" t="s">
+      <c r="AT1" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="56" t="s">
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="62" t="s">
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="42" t="s">
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="43"/>
-      <c r="BI1" s="43"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
       <c r="BJ1" s="46" t="s">
         <v>2</v>
       </c>
@@ -1071,12 +1071,12 @@
       <c r="BL1" s="47"/>
       <c r="BM1" s="47"/>
       <c r="BN1" s="47"/>
-      <c r="BO1" s="60" t="s">
+      <c r="BO1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
+      <c r="BP1" s="45"/>
+      <c r="BQ1" s="45"/>
+      <c r="BR1" s="45"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53+AD53+AH53</f>
-        <v>2187800</v>
+        <v>3027800</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4818,10 +4818,10 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -4834,54 +4834,54 @@
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="42" t="s">
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="58" t="s">
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="44" t="s">
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="48" t="s">
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="42" t="s">
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="43"/>
-      <c r="AG31" s="62" t="s">
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="AH31" s="63"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="63"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="43"/>
+      <c r="AJ31" s="43"/>
     </row>
     <row r="32" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -4971,7 +4971,9 @@
       <c r="AG32" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AH32" s="34"/>
+      <c r="AH32" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI32" s="33" t="s">
         <v>6</v>
       </c>
@@ -5077,11 +5079,15 @@
       <c r="AG33" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AH33" s="34"/>
+      <c r="AH33" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI33" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AJ33" s="34"/>
+      <c r="AJ33" s="34">
+        <v>1400000</v>
+      </c>
     </row>
     <row r="34" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
@@ -5175,7 +5181,9 @@
       <c r="AG34" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="AH34" s="34"/>
+      <c r="AH34" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI34" s="33" t="s">
         <v>17</v>
       </c>
@@ -5273,7 +5281,9 @@
       <c r="AG35" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AH35" s="34"/>
+      <c r="AH35" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI35" s="33" t="s">
         <v>8</v>
       </c>
@@ -5377,7 +5387,9 @@
       <c r="AG36" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="AH36" s="34"/>
+      <c r="AH36" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI36" s="33" t="s">
         <v>5</v>
       </c>
@@ -5483,7 +5495,9 @@
       <c r="AG37" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="AH37" s="34"/>
+      <c r="AH37" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI37" s="33"/>
       <c r="AJ37" s="34"/>
     </row>
@@ -5567,7 +5581,9 @@
       <c r="AG38" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AH38" s="34"/>
+      <c r="AH38" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI38" s="33"/>
       <c r="AJ38" s="34"/>
     </row>
@@ -5647,7 +5663,9 @@
       <c r="AG39" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AH39" s="34"/>
+      <c r="AH39" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI39" s="33"/>
       <c r="AJ39" s="34"/>
     </row>
@@ -5797,7 +5815,9 @@
       <c r="AG41" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AH41" s="34"/>
+      <c r="AH41" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI41" s="33"/>
       <c r="AJ41" s="34"/>
     </row>
@@ -5869,7 +5889,9 @@
       <c r="AG42" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="AH42" s="34"/>
+      <c r="AH42" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI42" s="33"/>
       <c r="AJ42" s="34"/>
     </row>
@@ -5941,7 +5963,9 @@
       <c r="AG43" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="AH43" s="34"/>
+      <c r="AH43" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI43" s="33"/>
       <c r="AJ43" s="34"/>
     </row>
@@ -6087,7 +6111,9 @@
       <c r="AG45" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AH45" s="34"/>
+      <c r="AH45" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI45" s="33"/>
       <c r="AJ45" s="34"/>
     </row>
@@ -6159,7 +6185,9 @@
       <c r="AG46" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AH46" s="34"/>
+      <c r="AH46" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI46" s="33"/>
       <c r="AJ46" s="34"/>
     </row>
@@ -6231,7 +6259,9 @@
       <c r="AG47" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AH47" s="34"/>
+      <c r="AH47" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI47" s="33"/>
       <c r="AJ47" s="34"/>
     </row>
@@ -6501,14 +6531,14 @@
       </c>
       <c r="AH51" s="34">
         <f>SUM(AH32:AH48)</f>
-        <v>320000</v>
+        <v>2560000</v>
       </c>
       <c r="AI51" s="35" t="s">
         <v>33</v>
       </c>
       <c r="AJ51" s="34">
         <f>SUM(AJ32:AJ50)</f>
-        <v>0</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="52" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
@@ -6627,7 +6657,7 @@
       </c>
       <c r="AH53" s="34">
         <f>(AH51-AJ51)</f>
-        <v>320000</v>
+        <v>1160000</v>
       </c>
       <c r="AI53" s="35"/>
       <c r="AJ53" s="34"/>
@@ -9952,17 +9982,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -9978,6 +9997,17 @@
     <mergeCell ref="Q31:T31"/>
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856B0ED0-0FF6-4E8E-A048-F9859B06A149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E5B302-B6A3-4F53-92E5-44E7E4543296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="118">
   <si>
     <t>آذر</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>آذر 00</t>
+  </si>
+  <si>
+    <t>درایور LED لامپ پارکینگها</t>
+  </si>
+  <si>
+    <t>دی 00</t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +493,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -515,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -558,22 +570,16 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -588,16 +594,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,6 +618,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -902,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="V23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ34" sqref="AJ34"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AD23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN36" sqref="AN36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +971,7 @@
     <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.140625" customWidth="1"/>
+    <col min="39" max="39" width="22" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
@@ -982,18 +1012,18 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="60" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="50" t="s">
         <v>3</v>
       </c>
@@ -1008,19 +1038,19 @@
       <c r="U1" s="49"/>
       <c r="V1" s="49"/>
       <c r="W1" s="49"/>
-      <c r="X1" s="56" t="s">
+      <c r="X1" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="60" t="s">
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
       <c r="AG1" s="50" t="s">
         <v>56</v>
       </c>
@@ -1034,49 +1064,49 @@
       <c r="AM1" s="49"/>
       <c r="AN1" s="49"/>
       <c r="AO1" s="49"/>
-      <c r="AP1" s="46" t="s">
+      <c r="AP1" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="54" t="s">
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="52" t="s">
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="53"/>
-      <c r="BB1" s="42" t="s">
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43"/>
-      <c r="BE1" s="43"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
       <c r="BF1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="BG1" s="49"/>
       <c r="BH1" s="49"/>
       <c r="BI1" s="49"/>
-      <c r="BJ1" s="46" t="s">
+      <c r="BJ1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="47"/>
-      <c r="BL1" s="47"/>
-      <c r="BM1" s="47"/>
-      <c r="BN1" s="47"/>
-      <c r="BO1" s="44" t="s">
+      <c r="BK1" s="53"/>
+      <c r="BL1" s="53"/>
+      <c r="BM1" s="53"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="45"/>
-      <c r="BQ1" s="45"/>
-      <c r="BR1" s="45"/>
+      <c r="BP1" s="69"/>
+      <c r="BQ1" s="69"/>
+      <c r="BR1" s="69"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4799,7 +4829,7 @@
       </c>
       <c r="B28" s="5">
         <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53+AD53+AH53</f>
-        <v>3027800</v>
+        <v>1196100</v>
       </c>
       <c r="C28" s="5"/>
       <c r="AC28" s="21"/>
@@ -4818,70 +4848,76 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="62" t="s">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="52" t="s">
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
       <c r="M31" s="48" t="s">
         <v>101</v>
       </c>
       <c r="N31" s="49"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
-      <c r="Q31" s="54" t="s">
+      <c r="Q31" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
       <c r="U31" s="50" t="s">
         <v>106</v>
       </c>
       <c r="V31" s="51"/>
       <c r="W31" s="51"/>
       <c r="X31" s="51"/>
-      <c r="Y31" s="56" t="s">
+      <c r="Y31" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="57"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
       <c r="AC31" s="48" t="s">
         <v>112</v>
       </c>
       <c r="AD31" s="49"/>
       <c r="AE31" s="49"/>
       <c r="AF31" s="49"/>
-      <c r="AG31" s="42" t="s">
+      <c r="AG31" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="AH31" s="43"/>
-      <c r="AI31" s="43"/>
-      <c r="AJ31" s="43"/>
+      <c r="AH31" s="67"/>
+      <c r="AI31" s="67"/>
+      <c r="AJ31" s="67"/>
+      <c r="AK31" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL31" s="71"/>
+      <c r="AM31" s="71"/>
+      <c r="AN31" s="71"/>
     </row>
     <row r="32" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -4977,9 +5013,21 @@
       <c r="AI32" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AJ32" s="34"/>
-    </row>
-    <row r="33" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ32" s="34">
+        <v>390000</v>
+      </c>
+      <c r="AK32" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL32" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AM32" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN32" s="45"/>
+    </row>
+    <row r="33" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>7</v>
       </c>
@@ -5086,10 +5134,22 @@
         <v>11</v>
       </c>
       <c r="AJ33" s="34">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2000000</v>
+      </c>
+      <c r="AK33" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL33" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AM33" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN33" s="45">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>10</v>
       </c>
@@ -5188,8 +5248,18 @@
         <v>17</v>
       </c>
       <c r="AJ34" s="34"/>
-    </row>
-    <row r="35" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK34" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL34" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AM34" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN34" s="45"/>
+    </row>
+    <row r="35" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>12</v>
       </c>
@@ -5287,9 +5357,19 @@
       <c r="AI35" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AJ35" s="34"/>
-    </row>
-    <row r="36" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ35" s="34">
+        <v>398500</v>
+      </c>
+      <c r="AK35" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL35" s="46"/>
+      <c r="AM35" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN35" s="45"/>
+    </row>
+    <row r="36" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>14</v>
       </c>
@@ -5393,9 +5473,21 @@
       <c r="AI36" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AJ36" s="34"/>
-    </row>
-    <row r="37" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ36" s="34">
+        <v>428200</v>
+      </c>
+      <c r="AK36" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL36" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AM36" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN36" s="45"/>
+    </row>
+    <row r="37" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>15</v>
       </c>
@@ -5498,10 +5590,20 @@
       <c r="AH37" s="34">
         <v>160000</v>
       </c>
-      <c r="AI37" s="33"/>
-      <c r="AJ37" s="34"/>
-    </row>
-    <row r="38" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AI37" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ37" s="34">
+        <v>175000</v>
+      </c>
+      <c r="AK37" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL37" s="46"/>
+      <c r="AM37" s="42"/>
+      <c r="AN37" s="45"/>
+    </row>
+    <row r="38" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
@@ -5586,8 +5688,16 @@
       </c>
       <c r="AI38" s="33"/>
       <c r="AJ38" s="34"/>
-    </row>
-    <row r="39" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK38" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL38" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AM38" s="42"/>
+      <c r="AN38" s="45"/>
+    </row>
+    <row r="39" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>21</v>
       </c>
@@ -5668,8 +5778,14 @@
       </c>
       <c r="AI39" s="33"/>
       <c r="AJ39" s="34"/>
-    </row>
-    <row r="40" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK39" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL39" s="46"/>
+      <c r="AM39" s="42"/>
+      <c r="AN39" s="45"/>
+    </row>
+    <row r="40" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>23</v>
       </c>
@@ -5746,8 +5862,16 @@
       </c>
       <c r="AI40" s="33"/>
       <c r="AJ40" s="34"/>
-    </row>
-    <row r="41" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK40" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL40" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="45"/>
+    </row>
+    <row r="41" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>24</v>
       </c>
@@ -5820,8 +5944,16 @@
       </c>
       <c r="AI41" s="33"/>
       <c r="AJ41" s="34"/>
-    </row>
-    <row r="42" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK41" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL41" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AM41" s="42"/>
+      <c r="AN41" s="45"/>
+    </row>
+    <row r="42" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>25</v>
       </c>
@@ -5894,8 +6026,16 @@
       </c>
       <c r="AI42" s="33"/>
       <c r="AJ42" s="34"/>
-    </row>
-    <row r="43" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK42" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL42" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AM42" s="42"/>
+      <c r="AN42" s="45"/>
+    </row>
+    <row r="43" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>26</v>
       </c>
@@ -5968,8 +6108,14 @@
       </c>
       <c r="AI43" s="33"/>
       <c r="AJ43" s="34"/>
-    </row>
-    <row r="44" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK43" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL43" s="46"/>
+      <c r="AM43" s="42"/>
+      <c r="AN43" s="45"/>
+    </row>
+    <row r="44" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>27</v>
       </c>
@@ -6042,8 +6188,16 @@
       </c>
       <c r="AI44" s="33"/>
       <c r="AJ44" s="34"/>
-    </row>
-    <row r="45" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK44" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL44" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AM44" s="42"/>
+      <c r="AN44" s="45"/>
+    </row>
+    <row r="45" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>28</v>
       </c>
@@ -6116,8 +6270,16 @@
       </c>
       <c r="AI45" s="33"/>
       <c r="AJ45" s="34"/>
-    </row>
-    <row r="46" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK45" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL45" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AM45" s="42"/>
+      <c r="AN45" s="45"/>
+    </row>
+    <row r="46" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>29</v>
       </c>
@@ -6190,8 +6352,16 @@
       </c>
       <c r="AI46" s="33"/>
       <c r="AJ46" s="34"/>
-    </row>
-    <row r="47" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK46" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL46" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AM46" s="42"/>
+      <c r="AN46" s="45"/>
+    </row>
+    <row r="47" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>30</v>
       </c>
@@ -6264,8 +6434,16 @@
       </c>
       <c r="AI47" s="33"/>
       <c r="AJ47" s="34"/>
-    </row>
-    <row r="48" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK47" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL47" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AM47" s="42"/>
+      <c r="AN47" s="45"/>
+    </row>
+    <row r="48" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>31</v>
       </c>
@@ -6333,11 +6511,19 @@
       <c r="AG48" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AH48" s="34"/>
+      <c r="AH48" s="34">
+        <v>160000</v>
+      </c>
       <c r="AI48" s="33"/>
       <c r="AJ48" s="34"/>
-    </row>
-    <row r="49" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK48" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL48" s="46"/>
+      <c r="AM48" s="42"/>
+      <c r="AN48" s="45"/>
+    </row>
+    <row r="49" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -6374,8 +6560,12 @@
       <c r="AH49" s="33"/>
       <c r="AI49" s="33"/>
       <c r="AJ49" s="34"/>
-    </row>
-    <row r="50" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK49" s="42"/>
+      <c r="AL49" s="47"/>
+      <c r="AM49" s="42"/>
+      <c r="AN49" s="45"/>
+    </row>
+    <row r="50" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="25"/>
       <c r="C50" s="24"/>
@@ -6412,8 +6602,12 @@
       <c r="AH50" s="34"/>
       <c r="AI50" s="33"/>
       <c r="AJ50" s="34"/>
-    </row>
-    <row r="51" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK50" s="42"/>
+      <c r="AL50" s="43"/>
+      <c r="AM50" s="42"/>
+      <c r="AN50" s="45"/>
+    </row>
+    <row r="51" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>32</v>
       </c>
@@ -6531,17 +6725,31 @@
       </c>
       <c r="AH51" s="34">
         <f>SUM(AH32:AH48)</f>
-        <v>2560000</v>
+        <v>2720000</v>
       </c>
       <c r="AI51" s="35" t="s">
         <v>33</v>
       </c>
       <c r="AJ51" s="34">
         <f>SUM(AJ32:AJ50)</f>
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3391700</v>
+      </c>
+      <c r="AK51" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL51" s="43">
+        <f>SUM(AL32:AL48)</f>
+        <v>1920000</v>
+      </c>
+      <c r="AM51" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN51" s="45">
+        <f>SUM(AN32:AN50)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="25"/>
       <c r="C52" s="24"/>
@@ -6578,8 +6786,12 @@
       <c r="AH52" s="34"/>
       <c r="AI52" s="33"/>
       <c r="AJ52" s="34"/>
-    </row>
-    <row r="53" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK52" s="42"/>
+      <c r="AL52" s="43"/>
+      <c r="AM52" s="42"/>
+      <c r="AN52" s="45"/>
+    </row>
+    <row r="53" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>34</v>
       </c>
@@ -6657,72 +6869,81 @@
       </c>
       <c r="AH53" s="34">
         <f>(AH51-AJ51)</f>
-        <v>1160000</v>
+        <v>-671700</v>
       </c>
       <c r="AI53" s="35"/>
       <c r="AJ53" s="34"/>
-    </row>
-    <row r="54" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK53" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL53" s="43">
+        <f>(AL51-AN51)</f>
+        <v>1420000</v>
+      </c>
+      <c r="AM53" s="44"/>
+      <c r="AN53" s="45"/>
+    </row>
+    <row r="54" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC54" s="21"/>
       <c r="AD54" s="21"/>
       <c r="AE54" s="21"/>
       <c r="AF54" s="21"/>
     </row>
-    <row r="55" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC55" s="21"/>
       <c r="AD55" s="21"/>
       <c r="AE55" s="21"/>
       <c r="AF55" s="21"/>
     </row>
-    <row r="56" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC56" s="21"/>
       <c r="AD56" s="21"/>
       <c r="AE56" s="21"/>
       <c r="AF56" s="21"/>
     </row>
-    <row r="57" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC57" s="21"/>
       <c r="AD57" s="21"/>
       <c r="AE57" s="21"/>
       <c r="AF57" s="21"/>
     </row>
-    <row r="58" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC58" s="21"/>
       <c r="AD58" s="21"/>
       <c r="AE58" s="21"/>
       <c r="AF58" s="21"/>
     </row>
-    <row r="59" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC59" s="21"/>
       <c r="AD59" s="21"/>
       <c r="AE59" s="21"/>
       <c r="AF59" s="21"/>
     </row>
-    <row r="60" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC60" s="21"/>
       <c r="AD60" s="21"/>
       <c r="AE60" s="21"/>
       <c r="AF60" s="21"/>
     </row>
-    <row r="61" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC61" s="21"/>
       <c r="AD61" s="21"/>
       <c r="AE61" s="21"/>
       <c r="AF61" s="21"/>
     </row>
-    <row r="62" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC62" s="21"/>
       <c r="AD62" s="21"/>
       <c r="AE62" s="21"/>
       <c r="AF62" s="21"/>
     </row>
-    <row r="63" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC63" s="21"/>
       <c r="AD63" s="21"/>
       <c r="AE63" s="21"/>
       <c r="AF63" s="21"/>
     </row>
-    <row r="64" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC64" s="21"/>
       <c r="AD64" s="21"/>
       <c r="AE64" s="21"/>
@@ -9981,7 +10202,18 @@
       <c r="AF606" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AK31:AN31"/>
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -9998,16 +10230,6 @@
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E5B302-B6A3-4F53-92E5-44E7E4543296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA73FA62-383C-4A9D-8160-686992DCA10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="122">
   <si>
     <t>آذر</t>
   </si>
@@ -388,6 +388,18 @@
   </si>
   <si>
     <t>دی 00</t>
+  </si>
+  <si>
+    <t>پروژکتور برای کوچه</t>
+  </si>
+  <si>
+    <t>نصب پروژکتور</t>
+  </si>
+  <si>
+    <t>تعمیر چراغ سردر</t>
+  </si>
+  <si>
+    <t>بهمن 00</t>
   </si>
 </sst>
 </file>
@@ -426,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,12 +505,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -527,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -570,16 +576,31 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,10 +615,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,34 +647,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -932,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AD23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN36" sqref="AN36"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AG27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP53" sqref="AP53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,23 +966,21 @@
     <col min="24" max="25" width="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.140625" customWidth="1"/>
     <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" style="23" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.7109375" style="23" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" style="23" customWidth="1"/>
+    <col min="31" max="31" width="23" style="23" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="11" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.140625" bestFit="1" customWidth="1"/>
@@ -1005,108 +1009,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="58" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="50" t="s">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="48" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="54" t="s">
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="58" t="s">
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="50" t="s">
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="48" t="s">
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="52" t="s">
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="64" t="s">
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="62" t="s">
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="63"/>
-      <c r="BA1" s="63"/>
-      <c r="BB1" s="66" t="s">
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="48" t="s">
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="52" t="s">
+      <c r="BG1" s="52"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="53"/>
-      <c r="BL1" s="53"/>
-      <c r="BM1" s="53"/>
-      <c r="BN1" s="53"/>
-      <c r="BO1" s="68" t="s">
+      <c r="BK1" s="50"/>
+      <c r="BL1" s="50"/>
+      <c r="BM1" s="50"/>
+      <c r="BN1" s="50"/>
+      <c r="BO1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="69"/>
-      <c r="BQ1" s="69"/>
-      <c r="BR1" s="69"/>
+      <c r="BP1" s="48"/>
+      <c r="BQ1" s="48"/>
+      <c r="BR1" s="48"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4848,76 +4852,82 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="60" t="s">
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62" t="s">
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="48" t="s">
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="64" t="s">
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="50" t="s">
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="54" t="s">
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="55"/>
-      <c r="AB31" s="55"/>
-      <c r="AC31" s="48" t="s">
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="60"/>
+      <c r="AC31" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="66" t="s">
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="AH31" s="67"/>
-      <c r="AI31" s="67"/>
-      <c r="AJ31" s="67"/>
-      <c r="AK31" s="70" t="s">
+      <c r="AH31" s="46"/>
+      <c r="AI31" s="46"/>
+      <c r="AJ31" s="46"/>
+      <c r="AK31" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="AL31" s="71"/>
-      <c r="AM31" s="71"/>
-      <c r="AN31" s="71"/>
+      <c r="AL31" s="56"/>
+      <c r="AM31" s="56"/>
+      <c r="AN31" s="56"/>
+      <c r="AO31" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
+      <c r="AR31" s="66"/>
     </row>
     <row r="32" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -5016,18 +5026,26 @@
       <c r="AJ32" s="34">
         <v>390000</v>
       </c>
-      <c r="AK32" s="42" t="s">
+      <c r="AK32" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AL32" s="46">
-        <v>160000</v>
-      </c>
-      <c r="AM32" s="42" t="s">
+      <c r="AL32" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM32" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AN32" s="45"/>
-    </row>
-    <row r="33" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN32" s="43"/>
+      <c r="AO32" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP32" s="67"/>
+      <c r="AQ32" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR32" s="68"/>
+    </row>
+    <row r="33" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>7</v>
       </c>
@@ -5136,20 +5154,30 @@
       <c r="AJ33" s="34">
         <v>2000000</v>
       </c>
-      <c r="AK33" s="42" t="s">
+      <c r="AK33" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AL33" s="46">
-        <v>160000</v>
-      </c>
-      <c r="AM33" s="42" t="s">
+      <c r="AL33" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM33" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AN33" s="45">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN33" s="43">
+        <v>2000000</v>
+      </c>
+      <c r="AO33" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP33" s="67"/>
+      <c r="AQ33" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR33" s="68">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>10</v>
       </c>
@@ -5248,18 +5276,28 @@
         <v>17</v>
       </c>
       <c r="AJ34" s="34"/>
-      <c r="AK34" s="42" t="s">
+      <c r="AK34" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AL34" s="46">
-        <v>160000</v>
-      </c>
-      <c r="AM34" s="42" t="s">
+      <c r="AL34" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM34" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AN34" s="45"/>
-    </row>
-    <row r="35" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN34" s="43">
+        <v>88300</v>
+      </c>
+      <c r="AO34" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP34" s="67"/>
+      <c r="AQ34" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR34" s="68"/>
+    </row>
+    <row r="35" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>12</v>
       </c>
@@ -5360,16 +5398,28 @@
       <c r="AJ35" s="34">
         <v>398500</v>
       </c>
-      <c r="AK35" s="42" t="s">
+      <c r="AK35" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AL35" s="46"/>
-      <c r="AM35" s="42" t="s">
+      <c r="AL35" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM35" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AN35" s="45"/>
-    </row>
-    <row r="36" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN35" s="43"/>
+      <c r="AO35" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP35" s="67">
+        <v>160000</v>
+      </c>
+      <c r="AQ35" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR35" s="68"/>
+    </row>
+    <row r="36" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>14</v>
       </c>
@@ -5476,18 +5526,26 @@
       <c r="AJ36" s="34">
         <v>428200</v>
       </c>
-      <c r="AK36" s="42" t="s">
+      <c r="AK36" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AL36" s="46">
-        <v>160000</v>
-      </c>
-      <c r="AM36" s="42" t="s">
+      <c r="AL36" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM36" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AN36" s="45"/>
-    </row>
-    <row r="37" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN36" s="43"/>
+      <c r="AO36" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP36" s="67"/>
+      <c r="AQ36" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR36" s="68"/>
+    </row>
+    <row r="37" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>15</v>
       </c>
@@ -5596,14 +5654,28 @@
       <c r="AJ37" s="34">
         <v>175000</v>
       </c>
-      <c r="AK37" s="42" t="s">
+      <c r="AK37" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AL37" s="46"/>
-      <c r="AM37" s="42"/>
-      <c r="AN37" s="45"/>
-    </row>
-    <row r="38" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL37" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM37" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN37" s="43">
+        <v>449000</v>
+      </c>
+      <c r="AO37" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP37" s="67"/>
+      <c r="AQ37" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR37" s="68"/>
+    </row>
+    <row r="38" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
@@ -5688,16 +5760,28 @@
       </c>
       <c r="AI38" s="33"/>
       <c r="AJ38" s="34"/>
-      <c r="AK38" s="42" t="s">
+      <c r="AK38" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="AL38" s="46">
-        <v>160000</v>
-      </c>
-      <c r="AM38" s="42"/>
-      <c r="AN38" s="45"/>
-    </row>
-    <row r="39" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL38" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM38" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN38" s="43">
+        <v>150000</v>
+      </c>
+      <c r="AO38" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP38" s="67"/>
+      <c r="AQ38" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR38" s="68"/>
+    </row>
+    <row r="39" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>21</v>
       </c>
@@ -5778,14 +5862,28 @@
       </c>
       <c r="AI39" s="33"/>
       <c r="AJ39" s="34"/>
-      <c r="AK39" s="42" t="s">
+      <c r="AK39" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AL39" s="46"/>
-      <c r="AM39" s="42"/>
-      <c r="AN39" s="45"/>
-    </row>
-    <row r="40" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL39" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM39" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN39" s="43">
+        <v>32000</v>
+      </c>
+      <c r="AO39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP39" s="67"/>
+      <c r="AQ39" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR39" s="68"/>
+    </row>
+    <row r="40" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>23</v>
       </c>
@@ -5862,16 +5960,22 @@
       </c>
       <c r="AI40" s="33"/>
       <c r="AJ40" s="34"/>
-      <c r="AK40" s="42" t="s">
+      <c r="AK40" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AL40" s="46">
-        <v>160000</v>
-      </c>
-      <c r="AM40" s="42"/>
-      <c r="AN40" s="45"/>
-    </row>
-    <row r="41" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL40" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM40" s="30"/>
+      <c r="AN40" s="43"/>
+      <c r="AO40" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP40" s="67"/>
+      <c r="AQ40" s="39"/>
+      <c r="AR40" s="68"/>
+    </row>
+    <row r="41" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>24</v>
       </c>
@@ -5944,16 +6048,22 @@
       </c>
       <c r="AI41" s="33"/>
       <c r="AJ41" s="34"/>
-      <c r="AK41" s="42" t="s">
+      <c r="AK41" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AL41" s="46">
-        <v>160000</v>
-      </c>
-      <c r="AM41" s="42"/>
-      <c r="AN41" s="45"/>
-    </row>
-    <row r="42" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL41" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM41" s="30"/>
+      <c r="AN41" s="43"/>
+      <c r="AO41" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP41" s="67"/>
+      <c r="AQ41" s="39"/>
+      <c r="AR41" s="68"/>
+    </row>
+    <row r="42" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>25</v>
       </c>
@@ -6026,16 +6136,22 @@
       </c>
       <c r="AI42" s="33"/>
       <c r="AJ42" s="34"/>
-      <c r="AK42" s="42" t="s">
+      <c r="AK42" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AL42" s="46">
-        <v>160000</v>
-      </c>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="45"/>
-    </row>
-    <row r="43" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL42" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM42" s="30"/>
+      <c r="AN42" s="43"/>
+      <c r="AO42" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP42" s="67"/>
+      <c r="AQ42" s="39"/>
+      <c r="AR42" s="68"/>
+    </row>
+    <row r="43" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>26</v>
       </c>
@@ -6108,14 +6224,22 @@
       </c>
       <c r="AI43" s="33"/>
       <c r="AJ43" s="34"/>
-      <c r="AK43" s="42" t="s">
+      <c r="AK43" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AL43" s="46"/>
-      <c r="AM43" s="42"/>
-      <c r="AN43" s="45"/>
-    </row>
-    <row r="44" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL43" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM43" s="30"/>
+      <c r="AN43" s="43"/>
+      <c r="AO43" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP43" s="67"/>
+      <c r="AQ43" s="39"/>
+      <c r="AR43" s="68"/>
+    </row>
+    <row r="44" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>27</v>
       </c>
@@ -6188,16 +6312,22 @@
       </c>
       <c r="AI44" s="33"/>
       <c r="AJ44" s="34"/>
-      <c r="AK44" s="42" t="s">
+      <c r="AK44" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AL44" s="46">
-        <v>160000</v>
-      </c>
-      <c r="AM44" s="42"/>
-      <c r="AN44" s="45"/>
-    </row>
-    <row r="45" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL44" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM44" s="30"/>
+      <c r="AN44" s="43"/>
+      <c r="AO44" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP44" s="67"/>
+      <c r="AQ44" s="39"/>
+      <c r="AR44" s="68"/>
+    </row>
+    <row r="45" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>28</v>
       </c>
@@ -6270,16 +6400,22 @@
       </c>
       <c r="AI45" s="33"/>
       <c r="AJ45" s="34"/>
-      <c r="AK45" s="42" t="s">
+      <c r="AK45" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AL45" s="46">
-        <v>160000</v>
-      </c>
-      <c r="AM45" s="42"/>
-      <c r="AN45" s="45"/>
-    </row>
-    <row r="46" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL45" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM45" s="30"/>
+      <c r="AN45" s="43"/>
+      <c r="AO45" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP45" s="67"/>
+      <c r="AQ45" s="39"/>
+      <c r="AR45" s="68"/>
+    </row>
+    <row r="46" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>29</v>
       </c>
@@ -6352,16 +6488,22 @@
       </c>
       <c r="AI46" s="33"/>
       <c r="AJ46" s="34"/>
-      <c r="AK46" s="42" t="s">
+      <c r="AK46" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AL46" s="46">
-        <v>160000</v>
-      </c>
-      <c r="AM46" s="42"/>
-      <c r="AN46" s="45"/>
-    </row>
-    <row r="47" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL46" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM46" s="30"/>
+      <c r="AN46" s="43"/>
+      <c r="AO46" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP46" s="67"/>
+      <c r="AQ46" s="39"/>
+      <c r="AR46" s="68"/>
+    </row>
+    <row r="47" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>30</v>
       </c>
@@ -6434,16 +6576,22 @@
       </c>
       <c r="AI47" s="33"/>
       <c r="AJ47" s="34"/>
-      <c r="AK47" s="42" t="s">
+      <c r="AK47" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AL47" s="46">
-        <v>160000</v>
-      </c>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="45"/>
-    </row>
-    <row r="48" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL47" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM47" s="30"/>
+      <c r="AN47" s="43"/>
+      <c r="AO47" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP47" s="67"/>
+      <c r="AQ47" s="39"/>
+      <c r="AR47" s="68"/>
+    </row>
+    <row r="48" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>31</v>
       </c>
@@ -6516,14 +6664,22 @@
       </c>
       <c r="AI48" s="33"/>
       <c r="AJ48" s="34"/>
-      <c r="AK48" s="42" t="s">
+      <c r="AK48" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AL48" s="46"/>
-      <c r="AM48" s="42"/>
-      <c r="AN48" s="45"/>
-    </row>
-    <row r="49" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL48" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AM48" s="30"/>
+      <c r="AN48" s="43"/>
+      <c r="AO48" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP48" s="67"/>
+      <c r="AQ48" s="39"/>
+      <c r="AR48" s="68"/>
+    </row>
+    <row r="49" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -6560,12 +6716,16 @@
       <c r="AH49" s="33"/>
       <c r="AI49" s="33"/>
       <c r="AJ49" s="34"/>
-      <c r="AK49" s="42"/>
-      <c r="AL49" s="47"/>
-      <c r="AM49" s="42"/>
-      <c r="AN49" s="45"/>
-    </row>
-    <row r="50" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK49" s="30"/>
+      <c r="AL49" s="44"/>
+      <c r="AM49" s="30"/>
+      <c r="AN49" s="43"/>
+      <c r="AO49" s="39"/>
+      <c r="AP49" s="69"/>
+      <c r="AQ49" s="39"/>
+      <c r="AR49" s="68"/>
+    </row>
+    <row r="50" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="25"/>
       <c r="C50" s="24"/>
@@ -6602,12 +6762,16 @@
       <c r="AH50" s="34"/>
       <c r="AI50" s="33"/>
       <c r="AJ50" s="34"/>
-      <c r="AK50" s="42"/>
-      <c r="AL50" s="43"/>
-      <c r="AM50" s="42"/>
-      <c r="AN50" s="45"/>
-    </row>
-    <row r="51" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK50" s="30"/>
+      <c r="AL50" s="31"/>
+      <c r="AM50" s="30"/>
+      <c r="AN50" s="43"/>
+      <c r="AO50" s="39"/>
+      <c r="AP50" s="40"/>
+      <c r="AQ50" s="39"/>
+      <c r="AR50" s="68"/>
+    </row>
+    <row r="51" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>32</v>
       </c>
@@ -6734,22 +6898,36 @@
         <f>SUM(AJ32:AJ50)</f>
         <v>3391700</v>
       </c>
-      <c r="AK51" s="44" t="s">
+      <c r="AK51" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AL51" s="43">
+      <c r="AL51" s="31">
         <f>SUM(AL32:AL48)</f>
-        <v>1920000</v>
-      </c>
-      <c r="AM51" s="44" t="s">
+        <v>2720000</v>
+      </c>
+      <c r="AM51" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AN51" s="45">
+      <c r="AN51" s="43">
         <f>SUM(AN32:AN50)</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2719300</v>
+      </c>
+      <c r="AO51" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP51" s="40">
+        <f>SUM(AP32:AP48)</f>
+        <v>160000</v>
+      </c>
+      <c r="AQ51" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR51" s="68">
+        <f>SUM(AR32:AR50)</f>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="25"/>
       <c r="C52" s="24"/>
@@ -6786,12 +6964,16 @@
       <c r="AH52" s="34"/>
       <c r="AI52" s="33"/>
       <c r="AJ52" s="34"/>
-      <c r="AK52" s="42"/>
-      <c r="AL52" s="43"/>
-      <c r="AM52" s="42"/>
-      <c r="AN52" s="45"/>
-    </row>
-    <row r="53" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK52" s="30"/>
+      <c r="AL52" s="31"/>
+      <c r="AM52" s="30"/>
+      <c r="AN52" s="43"/>
+      <c r="AO52" s="39"/>
+      <c r="AP52" s="40"/>
+      <c r="AQ52" s="39"/>
+      <c r="AR52" s="68"/>
+    </row>
+    <row r="53" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>34</v>
       </c>
@@ -6873,77 +7055,86 @@
       </c>
       <c r="AI53" s="35"/>
       <c r="AJ53" s="34"/>
-      <c r="AK53" s="44" t="s">
+      <c r="AK53" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AL53" s="43">
+      <c r="AL53" s="31">
         <f>(AL51-AN51)</f>
-        <v>1420000</v>
-      </c>
-      <c r="AM53" s="44"/>
-      <c r="AN53" s="45"/>
-    </row>
-    <row r="54" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+      <c r="AM53" s="32"/>
+      <c r="AN53" s="43"/>
+      <c r="AO53" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP53" s="40">
+        <f>(AP51-AR51)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="41"/>
+      <c r="AR53" s="68"/>
+    </row>
+    <row r="54" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC54" s="21"/>
       <c r="AD54" s="21"/>
       <c r="AE54" s="21"/>
       <c r="AF54" s="21"/>
     </row>
-    <row r="55" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC55" s="21"/>
       <c r="AD55" s="21"/>
       <c r="AE55" s="21"/>
       <c r="AF55" s="21"/>
     </row>
-    <row r="56" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC56" s="21"/>
       <c r="AD56" s="21"/>
       <c r="AE56" s="21"/>
       <c r="AF56" s="21"/>
     </row>
-    <row r="57" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC57" s="21"/>
       <c r="AD57" s="21"/>
       <c r="AE57" s="21"/>
       <c r="AF57" s="21"/>
     </row>
-    <row r="58" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC58" s="21"/>
       <c r="AD58" s="21"/>
       <c r="AE58" s="21"/>
       <c r="AF58" s="21"/>
     </row>
-    <row r="59" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC59" s="21"/>
       <c r="AD59" s="21"/>
       <c r="AE59" s="21"/>
       <c r="AF59" s="21"/>
     </row>
-    <row r="60" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC60" s="21"/>
       <c r="AD60" s="21"/>
       <c r="AE60" s="21"/>
       <c r="AF60" s="21"/>
     </row>
-    <row r="61" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC61" s="21"/>
       <c r="AD61" s="21"/>
       <c r="AE61" s="21"/>
       <c r="AF61" s="21"/>
     </row>
-    <row r="62" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC62" s="21"/>
       <c r="AD62" s="21"/>
       <c r="AE62" s="21"/>
       <c r="AF62" s="21"/>
     </row>
-    <row r="63" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC63" s="21"/>
       <c r="AD63" s="21"/>
       <c r="AE63" s="21"/>
       <c r="AF63" s="21"/>
     </row>
-    <row r="64" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC64" s="21"/>
       <c r="AD64" s="21"/>
       <c r="AE64" s="21"/>
@@ -10202,18 +10393,7 @@
       <c r="AF606" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AK31:AN31"/>
+  <mergeCells count="28">
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -10230,6 +10410,18 @@
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AO31:AR31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA73FA62-383C-4A9D-8160-686992DCA10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22012C8-FE58-45B0-958C-97315CFDA671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,6 +585,15 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,6 +636,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,21 +654,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -939,7 +939,7 @@
   <dimension ref="A1:BR606"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AG27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP53" sqref="AP53"/>
+      <selection activeCell="AP42" sqref="AP42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,108 +1009,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="59" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="63" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="51" t="s">
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="59" t="s">
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="63" t="s">
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="53" t="s">
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="51" t="s">
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="49" t="s">
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="57" t="s">
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="55" t="s">
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="45" t="s">
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="51" t="s">
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="52"/>
-      <c r="BH1" s="52"/>
-      <c r="BI1" s="52"/>
-      <c r="BJ1" s="49" t="s">
+      <c r="BG1" s="55"/>
+      <c r="BH1" s="55"/>
+      <c r="BI1" s="55"/>
+      <c r="BJ1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="50"/>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="50"/>
-      <c r="BO1" s="47" t="s">
+      <c r="BK1" s="53"/>
+      <c r="BL1" s="53"/>
+      <c r="BM1" s="53"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="48"/>
-      <c r="BQ1" s="48"/>
-      <c r="BR1" s="48"/>
+      <c r="BP1" s="51"/>
+      <c r="BQ1" s="51"/>
+      <c r="BR1" s="51"/>
     </row>
     <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4852,82 +4852,82 @@
     </row>
     <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="65" t="s">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="55" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="51" t="s">
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="57" t="s">
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="53" t="s">
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="59" t="s">
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="60"/>
-      <c r="AA31" s="60"/>
-      <c r="AB31" s="60"/>
-      <c r="AC31" s="51" t="s">
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="45" t="s">
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="AH31" s="46"/>
-      <c r="AI31" s="46"/>
-      <c r="AJ31" s="46"/>
-      <c r="AK31" s="55" t="s">
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="AL31" s="56"/>
-      <c r="AM31" s="56"/>
-      <c r="AN31" s="56"/>
-      <c r="AO31" s="65" t="s">
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="59"/>
+      <c r="AN31" s="59"/>
+      <c r="AO31" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="AP31" s="66"/>
-      <c r="AQ31" s="66"/>
-      <c r="AR31" s="66"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="63"/>
     </row>
     <row r="32" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -5039,11 +5039,11 @@
       <c r="AO32" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AP32" s="67"/>
+      <c r="AP32" s="45"/>
       <c r="AQ32" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AR32" s="68"/>
+      <c r="AR32" s="46"/>
     </row>
     <row r="33" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
@@ -5169,12 +5169,14 @@
       <c r="AO33" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AP33" s="67"/>
+      <c r="AP33" s="45">
+        <v>160000</v>
+      </c>
       <c r="AQ33" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="AR33" s="68">
-        <v>160000</v>
+      <c r="AR33" s="46">
+        <v>500000</v>
       </c>
     </row>
     <row r="34" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
@@ -5291,11 +5293,13 @@
       <c r="AO34" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AP34" s="67"/>
+      <c r="AP34" s="45">
+        <v>160000</v>
+      </c>
       <c r="AQ34" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="AR34" s="68"/>
+      <c r="AR34" s="46"/>
     </row>
     <row r="35" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
@@ -5411,13 +5415,13 @@
       <c r="AO35" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AP35" s="67">
+      <c r="AP35" s="45">
         <v>160000</v>
       </c>
       <c r="AQ35" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AR35" s="68"/>
+      <c r="AR35" s="46"/>
     </row>
     <row r="36" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
@@ -5539,11 +5543,15 @@
       <c r="AO36" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="AP36" s="67"/>
+      <c r="AP36" s="45">
+        <v>160000</v>
+      </c>
       <c r="AQ36" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AR36" s="68"/>
+      <c r="AR36" s="46">
+        <v>468300</v>
+      </c>
     </row>
     <row r="37" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
@@ -5669,11 +5677,13 @@
       <c r="AO37" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="AP37" s="67"/>
+      <c r="AP37" s="45">
+        <v>160000</v>
+      </c>
       <c r="AQ37" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="AR37" s="68"/>
+      <c r="AR37" s="46"/>
     </row>
     <row r="38" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
@@ -5775,11 +5785,13 @@
       <c r="AO38" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AP38" s="67"/>
+      <c r="AP38" s="45">
+        <v>160000</v>
+      </c>
       <c r="AQ38" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="AR38" s="68"/>
+      <c r="AR38" s="46"/>
     </row>
     <row r="39" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -5877,11 +5889,11 @@
       <c r="AO39" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AP39" s="67"/>
+      <c r="AP39" s="45"/>
       <c r="AQ39" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="AR39" s="68"/>
+      <c r="AR39" s="46"/>
     </row>
     <row r="40" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
@@ -5971,9 +5983,11 @@
       <c r="AO40" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AP40" s="67"/>
+      <c r="AP40" s="45">
+        <v>160000</v>
+      </c>
       <c r="AQ40" s="39"/>
-      <c r="AR40" s="68"/>
+      <c r="AR40" s="46"/>
     </row>
     <row r="41" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
@@ -6059,9 +6073,11 @@
       <c r="AO41" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AP41" s="67"/>
+      <c r="AP41" s="45">
+        <v>160000</v>
+      </c>
       <c r="AQ41" s="39"/>
-      <c r="AR41" s="68"/>
+      <c r="AR41" s="46"/>
     </row>
     <row r="42" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
@@ -6147,9 +6163,9 @@
       <c r="AO42" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AP42" s="67"/>
+      <c r="AP42" s="45"/>
       <c r="AQ42" s="39"/>
-      <c r="AR42" s="68"/>
+      <c r="AR42" s="46"/>
     </row>
     <row r="43" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
@@ -6235,9 +6251,9 @@
       <c r="AO43" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AP43" s="67"/>
+      <c r="AP43" s="45"/>
       <c r="AQ43" s="39"/>
-      <c r="AR43" s="68"/>
+      <c r="AR43" s="46"/>
     </row>
     <row r="44" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
@@ -6323,9 +6339,11 @@
       <c r="AO44" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AP44" s="67"/>
+      <c r="AP44" s="45">
+        <v>160000</v>
+      </c>
       <c r="AQ44" s="39"/>
-      <c r="AR44" s="68"/>
+      <c r="AR44" s="46"/>
     </row>
     <row r="45" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
@@ -6411,9 +6429,11 @@
       <c r="AO45" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AP45" s="67"/>
+      <c r="AP45" s="45">
+        <v>160000</v>
+      </c>
       <c r="AQ45" s="39"/>
-      <c r="AR45" s="68"/>
+      <c r="AR45" s="46"/>
     </row>
     <row r="46" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
@@ -6499,9 +6519,11 @@
       <c r="AO46" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AP46" s="67"/>
+      <c r="AP46" s="45">
+        <v>160000</v>
+      </c>
       <c r="AQ46" s="39"/>
-      <c r="AR46" s="68"/>
+      <c r="AR46" s="46"/>
     </row>
     <row r="47" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
@@ -6587,9 +6609,11 @@
       <c r="AO47" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AP47" s="67"/>
+      <c r="AP47" s="45">
+        <v>160000</v>
+      </c>
       <c r="AQ47" s="39"/>
-      <c r="AR47" s="68"/>
+      <c r="AR47" s="46"/>
     </row>
     <row r="48" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
@@ -6675,9 +6699,9 @@
       <c r="AO48" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AP48" s="67"/>
+      <c r="AP48" s="45"/>
       <c r="AQ48" s="39"/>
-      <c r="AR48" s="68"/>
+      <c r="AR48" s="46"/>
     </row>
     <row r="49" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
@@ -6721,9 +6745,9 @@
       <c r="AM49" s="30"/>
       <c r="AN49" s="43"/>
       <c r="AO49" s="39"/>
-      <c r="AP49" s="69"/>
+      <c r="AP49" s="47"/>
       <c r="AQ49" s="39"/>
-      <c r="AR49" s="68"/>
+      <c r="AR49" s="46"/>
     </row>
     <row r="50" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
@@ -6769,7 +6793,7 @@
       <c r="AO50" s="39"/>
       <c r="AP50" s="40"/>
       <c r="AQ50" s="39"/>
-      <c r="AR50" s="68"/>
+      <c r="AR50" s="46"/>
     </row>
     <row r="51" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
@@ -6917,14 +6941,14 @@
       </c>
       <c r="AP51" s="40">
         <f>SUM(AP32:AP48)</f>
-        <v>160000</v>
+        <v>1920000</v>
       </c>
       <c r="AQ51" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AR51" s="68">
+      <c r="AR51" s="46">
         <f>SUM(AR32:AR50)</f>
-        <v>160000</v>
+        <v>968300</v>
       </c>
     </row>
     <row r="52" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
@@ -6971,7 +6995,7 @@
       <c r="AO52" s="39"/>
       <c r="AP52" s="40"/>
       <c r="AQ52" s="39"/>
-      <c r="AR52" s="68"/>
+      <c r="AR52" s="46"/>
     </row>
     <row r="53" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
@@ -7069,10 +7093,10 @@
       </c>
       <c r="AP53" s="40">
         <f>(AP51-AR51)</f>
-        <v>0</v>
+        <v>951700</v>
       </c>
       <c r="AQ53" s="41"/>
-      <c r="AR53" s="68"/>
+      <c r="AR53" s="46"/>
     </row>
     <row r="54" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC54" s="21"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22012C8-FE58-45B0-958C-97315CFDA671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BD9269-7AC2-4C15-BC3D-63C739ECA3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="126">
   <si>
     <t>آذر</t>
   </si>
@@ -400,6 +400,18 @@
   </si>
   <si>
     <t>بهمن 00</t>
+  </si>
+  <si>
+    <t>چراغ داخل کابین آسانسور</t>
+  </si>
+  <si>
+    <t>چراغ سردر حیاط</t>
+  </si>
+  <si>
+    <t>اسفند 00</t>
+  </si>
+  <si>
+    <t>حقوق سرایدار + عیدی</t>
   </si>
 </sst>
 </file>
@@ -533,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -585,13 +597,66 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,54 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -936,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR606"/>
+  <dimension ref="A1:BS606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AG27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP42" sqref="AP42"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AM25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW36" sqref="AW36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,137 +1000,138 @@
     <col min="41" max="42" width="11" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" customWidth="1"/>
+    <col min="47" max="47" width="12.7109375" customWidth="1"/>
+    <col min="48" max="49" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:71" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="64" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="68" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="56" t="s">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="54" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="64" t="s">
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="68" t="s">
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="56" t="s">
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="54" t="s">
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="52" t="s">
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="60" t="s">
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="58" t="s">
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="48" t="s">
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64"/>
+      <c r="BC1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="54" t="s">
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="BG1" s="55"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
-      <c r="BJ1" s="52" t="s">
+      <c r="BH1" s="50"/>
+      <c r="BI1" s="50"/>
+      <c r="BJ1" s="50"/>
+      <c r="BK1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="53"/>
-      <c r="BL1" s="53"/>
-      <c r="BM1" s="53"/>
-      <c r="BN1" s="53"/>
-      <c r="BO1" s="50" t="s">
+      <c r="BL1" s="54"/>
+      <c r="BM1" s="54"/>
+      <c r="BN1" s="54"/>
+      <c r="BO1" s="54"/>
+      <c r="BP1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="51"/>
-      <c r="BR1" s="51"/>
-    </row>
-    <row r="2" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BQ1" s="70"/>
+      <c r="BR1" s="70"/>
+      <c r="BS1" s="70"/>
+    </row>
+    <row r="2" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1238,75 +1257,76 @@
         <v>6</v>
       </c>
       <c r="AS2" s="25"/>
-      <c r="AT2" s="27" t="s">
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV2" s="27" t="s">
+      <c r="AV2" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="30" t="s">
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AY2" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ2" s="30" t="s">
+      <c r="AZ2" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="33" t="s">
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="BC2" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD2" s="33" t="s">
+      <c r="BD2" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="BE2" s="34">
+      <c r="BF2" s="34">
         <v>440000</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BG2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="BG2" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH2" s="7" t="s">
+      <c r="BH2" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="24" t="s">
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="BK2" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL2" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM2" s="25">
         <v>100000</v>
       </c>
-      <c r="BM2" s="24" t="s">
+      <c r="BN2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="BN2" s="25"/>
-      <c r="BO2" s="36" t="s">
+      <c r="BO2" s="25"/>
+      <c r="BP2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="BP2" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ2" s="36" t="s">
+      <c r="BQ2" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="BR2" s="37">
+      <c r="BS2" s="37">
         <v>330000</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1442,83 +1462,84 @@
       <c r="AS3" s="25">
         <v>1500000</v>
       </c>
-      <c r="AT3" s="27" t="s">
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AU3" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV3" s="27" t="s">
+      <c r="AV3" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AW3" s="28">
+      <c r="AX3" s="28">
         <v>1750000</v>
       </c>
-      <c r="AX3" s="30" t="s">
+      <c r="AY3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AY3" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ3" s="30" t="s">
+      <c r="AZ3" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="BA3" s="31">
+      <c r="BB3" s="31">
         <v>1750000</v>
       </c>
-      <c r="BB3" s="33" t="s">
+      <c r="BC3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="BC3" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD3" s="33" t="s">
+      <c r="BD3" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE3" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="BE3" s="34">
+      <c r="BF3" s="34">
         <v>1750000</v>
       </c>
-      <c r="BF3" s="7" t="s">
+      <c r="BG3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="BG3" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH3" s="7" t="s">
+      <c r="BH3" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="BI3" s="8">
+      <c r="BJ3" s="8">
         <v>1850000</v>
       </c>
-      <c r="BJ3" s="24" t="s">
+      <c r="BK3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="BK3" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL3" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM3" s="25">
         <v>100000</v>
       </c>
-      <c r="BM3" s="24" t="s">
+      <c r="BN3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="BN3" s="25">
+      <c r="BO3" s="25">
         <v>1860000</v>
       </c>
-      <c r="BO3" s="36" t="s">
+      <c r="BP3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="BP3" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ3" s="36" t="s">
+      <c r="BQ3" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="BR3" s="37">
+      <c r="BS3" s="37">
         <v>1750000</v>
       </c>
     </row>
-    <row r="4" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1650,77 +1671,78 @@
       <c r="AS4" s="25">
         <v>111800</v>
       </c>
-      <c r="AT4" s="27" t="s">
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AU4" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV4" s="27" t="s">
+      <c r="AV4" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="30" t="s">
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AY4" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ4" s="30" t="s">
+      <c r="AZ4" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BA4" s="31">
+      <c r="BB4" s="31">
         <v>102200</v>
       </c>
-      <c r="BB4" s="33" t="s">
+      <c r="BC4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="BC4" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD4" s="33" t="s">
+      <c r="BD4" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="7" t="s">
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH4" s="7" t="s">
+      <c r="BH4" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="BI4" s="8">
+      <c r="BJ4" s="8">
         <v>98900</v>
       </c>
-      <c r="BJ4" s="24" t="s">
+      <c r="BK4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="BK4" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL4" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM4" s="25">
         <v>100000</v>
       </c>
-      <c r="BM4" s="24" t="s">
+      <c r="BN4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="BN4" s="25"/>
-      <c r="BO4" s="36" t="s">
+      <c r="BO4" s="25"/>
+      <c r="BP4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="BP4" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ4" s="36" t="s">
+      <c r="BQ4" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="BR4" s="37">
+      <c r="BS4" s="37">
         <v>94800</v>
       </c>
     </row>
-    <row r="5" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1854,79 +1876,80 @@
       <c r="AS5" s="25">
         <v>124600</v>
       </c>
-      <c r="AT5" s="27" t="s">
+      <c r="AT5" s="25"/>
+      <c r="AU5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV5" s="27" t="s">
+      <c r="AV5" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="30" t="s">
+      <c r="AX5" s="28"/>
+      <c r="AY5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AY5" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ5" s="30" t="s">
+      <c r="AZ5" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="BA5" s="31">
+      <c r="BB5" s="31">
         <v>122000</v>
       </c>
-      <c r="BB5" s="33" t="s">
+      <c r="BC5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="BC5" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD5" s="33" t="s">
+      <c r="BD5" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="BE5" s="34">
+      <c r="BF5" s="34">
         <v>393900</v>
       </c>
-      <c r="BF5" s="7" t="s">
+      <c r="BG5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BG5" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH5" s="7" t="s">
+      <c r="BH5" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="24" t="s">
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="BK5" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL5" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM5" s="25">
         <v>100000</v>
       </c>
-      <c r="BM5" s="24" t="s">
+      <c r="BN5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="BN5" s="25">
+      <c r="BO5" s="25">
         <v>556000</v>
       </c>
-      <c r="BO5" s="36" t="s">
+      <c r="BP5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="BP5" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ5" s="36" t="s">
+      <c r="BQ5" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="BR5" s="37">
+      <c r="BS5" s="37">
         <v>650200</v>
       </c>
     </row>
-    <row r="6" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -2062,81 +2085,82 @@
       <c r="AS6" s="25">
         <v>403800</v>
       </c>
-      <c r="AT6" s="27" t="s">
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AU6" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV6" s="27" t="s">
+      <c r="AV6" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AW6" s="28">
+      <c r="AX6" s="28">
         <v>303900</v>
       </c>
-      <c r="AX6" s="30" t="s">
+      <c r="AY6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AY6" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ6" s="30" t="s">
+      <c r="AZ6" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BA6" s="31">
+      <c r="BB6" s="31">
         <v>335600</v>
       </c>
-      <c r="BB6" s="33" t="s">
+      <c r="BC6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="BC6" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD6" s="33" t="s">
+      <c r="BD6" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BE6" s="34">
+      <c r="BF6" s="34">
         <v>326500</v>
       </c>
-      <c r="BF6" s="7" t="s">
+      <c r="BG6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="BG6" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH6" s="7" t="s">
+      <c r="BH6" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="BI6" s="8"/>
-      <c r="BJ6" s="24" t="s">
+      <c r="BJ6" s="8"/>
+      <c r="BK6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="BK6" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL6" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM6" s="25">
         <v>100000</v>
       </c>
-      <c r="BM6" s="24" t="s">
+      <c r="BN6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BN6" s="25">
+      <c r="BO6" s="25">
         <v>227200</v>
       </c>
-      <c r="BO6" s="36" t="s">
+      <c r="BP6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="BP6" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ6" s="36" t="s">
+      <c r="BQ6" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="BR6" s="37">
+      <c r="BS6" s="37">
         <v>242100</v>
       </c>
     </row>
-    <row r="7" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2272,83 +2296,84 @@
       <c r="AS7" s="25">
         <v>165000</v>
       </c>
-      <c r="AT7" s="27" t="s">
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AU7" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV7" s="27" t="s">
+      <c r="AV7" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW7" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="AW7" s="28">
+      <c r="AX7" s="28">
         <v>40000</v>
       </c>
-      <c r="AX7" s="30" t="s">
+      <c r="AY7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AY7" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ7" s="30" t="s">
+      <c r="AZ7" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA7" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="BA7" s="31">
+      <c r="BB7" s="31">
         <v>400000</v>
       </c>
-      <c r="BB7" s="33" t="s">
+      <c r="BC7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="BC7" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD7" s="33" t="s">
+      <c r="BD7" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE7" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="BE7" s="34">
+      <c r="BF7" s="34">
         <v>700000</v>
       </c>
-      <c r="BF7" s="7" t="s">
+      <c r="BG7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="BG7" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH7" s="7" t="s">
+      <c r="BH7" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="BI7" s="8">
+      <c r="BJ7" s="8">
         <v>500000</v>
       </c>
-      <c r="BJ7" s="24" t="s">
+      <c r="BK7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="BK7" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL7" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM7" s="25">
         <v>100000</v>
       </c>
-      <c r="BM7" s="24" t="s">
+      <c r="BN7" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="BN7" s="25">
+      <c r="BO7" s="25">
         <v>65000</v>
       </c>
-      <c r="BO7" s="36" t="s">
+      <c r="BP7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="BP7" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ7" s="36" t="s">
+      <c r="BQ7" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="BR7" s="37">
+      <c r="BS7" s="37">
         <v>86000</v>
       </c>
     </row>
-    <row r="8" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -2480,75 +2505,76 @@
       <c r="AS8" s="25">
         <v>853000</v>
       </c>
-      <c r="AT8" s="27" t="s">
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AU8" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV8" s="27" t="s">
+      <c r="AV8" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW8" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="AW8" s="28">
+      <c r="AX8" s="28">
         <v>93000</v>
       </c>
-      <c r="AX8" s="30" t="s">
+      <c r="AY8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="AY8" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ8" s="30" t="s">
+      <c r="AZ8" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA8" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="BA8" s="31">
+      <c r="BB8" s="31">
         <v>340000</v>
       </c>
-      <c r="BB8" s="33" t="s">
+      <c r="BC8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="BC8" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD8" s="33" t="s">
+      <c r="BD8" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE8" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="BE8" s="34">
+      <c r="BF8" s="34">
         <v>450000</v>
       </c>
-      <c r="BF8" s="7" t="s">
+      <c r="BG8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="BG8" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH8" s="7"/>
-      <c r="BI8" s="8"/>
-      <c r="BJ8" s="24" t="s">
+      <c r="BH8" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI8" s="7"/>
+      <c r="BJ8" s="8"/>
+      <c r="BK8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="BK8" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL8" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM8" s="25">
         <v>100000</v>
       </c>
-      <c r="BM8" s="24" t="s">
+      <c r="BN8" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="BN8" s="25">
+      <c r="BO8" s="25">
         <v>900000</v>
       </c>
-      <c r="BO8" s="36" t="s">
+      <c r="BP8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="BP8" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ8" s="36"/>
-      <c r="BR8" s="37"/>
-    </row>
-    <row r="9" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BQ8" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR8" s="36"/>
+      <c r="BS8" s="37"/>
+    </row>
+    <row r="9" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -2676,67 +2702,68 @@
       <c r="AS9" s="25">
         <v>25000</v>
       </c>
-      <c r="AT9" s="27" t="s">
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AU9" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="28"/>
-      <c r="AX9" s="30" t="s">
+      <c r="AV9" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW9" s="27"/>
+      <c r="AX9" s="28"/>
+      <c r="AY9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AY9" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ9" s="30" t="s">
+      <c r="AZ9" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA9" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="BA9" s="31">
+      <c r="BB9" s="31">
         <v>900000</v>
       </c>
-      <c r="BB9" s="33" t="s">
+      <c r="BC9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="BC9" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="34"/>
-      <c r="BF9" s="7" t="s">
+      <c r="BD9" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="BG9" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH9" s="7"/>
-      <c r="BI9" s="8"/>
-      <c r="BJ9" s="24" t="s">
+      <c r="BH9" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="8"/>
+      <c r="BK9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="BK9" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL9" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM9" s="25">
         <v>100000</v>
       </c>
-      <c r="BM9" s="24" t="s">
+      <c r="BN9" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="BN9" s="25">
+      <c r="BO9" s="25">
         <v>1700000</v>
       </c>
-      <c r="BO9" s="36" t="s">
+      <c r="BP9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="BP9" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ9" s="36"/>
-      <c r="BR9" s="37"/>
-    </row>
-    <row r="10" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BQ9" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR9" s="36"/>
+      <c r="BS9" s="37"/>
+    </row>
+    <row r="10" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
@@ -2860,63 +2887,64 @@
       <c r="AS10" s="25">
         <v>75000</v>
       </c>
-      <c r="AT10" s="27" t="s">
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AU10" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV10" s="27"/>
-      <c r="AW10" s="28"/>
-      <c r="AX10" s="30" t="s">
+      <c r="AV10" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW10" s="27"/>
+      <c r="AX10" s="28"/>
+      <c r="AY10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AY10" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ10" s="30" t="s">
+      <c r="AZ10" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA10" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="BA10" s="31">
+      <c r="BB10" s="31">
         <v>85000</v>
       </c>
-      <c r="BB10" s="33" t="s">
+      <c r="BC10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="BC10" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD10" s="33"/>
-      <c r="BE10" s="34"/>
-      <c r="BF10" s="7" t="s">
+      <c r="BD10" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE10" s="33"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="BG10" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH10" s="7"/>
-      <c r="BI10" s="8"/>
-      <c r="BJ10" s="24" t="s">
+      <c r="BH10" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI10" s="7"/>
+      <c r="BJ10" s="8"/>
+      <c r="BK10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="BK10" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL10" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM10" s="25">
         <v>100000</v>
       </c>
-      <c r="BM10" s="24"/>
-      <c r="BN10" s="25"/>
-      <c r="BO10" s="36" t="s">
+      <c r="BN10" s="24"/>
+      <c r="BO10" s="25"/>
+      <c r="BP10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="BP10" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ10" s="36"/>
-      <c r="BR10" s="37"/>
-    </row>
-    <row r="11" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BQ10" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR10" s="36"/>
+      <c r="BS10" s="37"/>
+    </row>
+    <row r="11" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -3022,63 +3050,64 @@
       </c>
       <c r="AR11" s="24"/>
       <c r="AS11" s="25"/>
-      <c r="AT11" s="27" t="s">
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AU11" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV11" s="27"/>
-      <c r="AW11" s="28"/>
-      <c r="AX11" s="30" t="s">
+      <c r="AV11" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="28"/>
+      <c r="AY11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AY11" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ11" s="30" t="s">
+      <c r="AZ11" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA11" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BA11" s="31">
+      <c r="BB11" s="31">
         <v>299000</v>
       </c>
-      <c r="BB11" s="33" t="s">
+      <c r="BC11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="BC11" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD11" s="33"/>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="7" t="s">
+      <c r="BD11" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE11" s="33"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="BG11" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH11" s="7"/>
-      <c r="BI11" s="8"/>
-      <c r="BJ11" s="24" t="s">
+      <c r="BH11" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="8"/>
+      <c r="BK11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="BK11" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL11" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM11" s="25">
         <v>100000</v>
       </c>
-      <c r="BM11" s="24"/>
-      <c r="BN11" s="25"/>
-      <c r="BO11" s="36" t="s">
+      <c r="BN11" s="24"/>
+      <c r="BO11" s="25"/>
+      <c r="BP11" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="BP11" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ11" s="36"/>
-      <c r="BR11" s="37"/>
-    </row>
-    <row r="12" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BQ11" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR11" s="36"/>
+      <c r="BS11" s="37"/>
+    </row>
+    <row r="12" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -3184,59 +3213,60 @@
       </c>
       <c r="AR12" s="24"/>
       <c r="AS12" s="25"/>
-      <c r="AT12" s="27" t="s">
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AU12" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV12" s="27"/>
-      <c r="AW12" s="28"/>
-      <c r="AX12" s="30" t="s">
+      <c r="AV12" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW12" s="27"/>
+      <c r="AX12" s="28"/>
+      <c r="AY12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AY12" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ12" s="30"/>
-      <c r="BA12" s="31"/>
-      <c r="BB12" s="33" t="s">
+      <c r="AZ12" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA12" s="30"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="BC12" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD12" s="33"/>
-      <c r="BE12" s="34"/>
-      <c r="BF12" s="7" t="s">
+      <c r="BD12" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE12" s="33"/>
+      <c r="BF12" s="34"/>
+      <c r="BG12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="BG12" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH12" s="7"/>
-      <c r="BI12" s="8"/>
-      <c r="BJ12" s="24" t="s">
+      <c r="BH12" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="8"/>
+      <c r="BK12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="BK12" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL12" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM12" s="25">
         <v>100000</v>
       </c>
-      <c r="BM12" s="24"/>
-      <c r="BN12" s="25"/>
-      <c r="BO12" s="36" t="s">
+      <c r="BN12" s="24"/>
+      <c r="BO12" s="25"/>
+      <c r="BP12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="BP12" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ12" s="36"/>
-      <c r="BR12" s="37"/>
-    </row>
-    <row r="13" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BQ12" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR12" s="36"/>
+      <c r="BS12" s="37"/>
+    </row>
+    <row r="13" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -3342,57 +3372,58 @@
       </c>
       <c r="AR13" s="24"/>
       <c r="AS13" s="25"/>
-      <c r="AT13" s="27" t="s">
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AU13" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="28"/>
-      <c r="AX13" s="30" t="s">
+      <c r="AV13" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW13" s="27"/>
+      <c r="AX13" s="28"/>
+      <c r="AY13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AY13" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ13" s="30"/>
-      <c r="BA13" s="31"/>
-      <c r="BB13" s="33" t="s">
+      <c r="AZ13" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA13" s="30"/>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="BC13" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD13" s="33"/>
-      <c r="BE13" s="34"/>
-      <c r="BF13" s="7" t="s">
+      <c r="BD13" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE13" s="33"/>
+      <c r="BF13" s="34"/>
+      <c r="BG13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="BG13" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH13" s="7"/>
-      <c r="BI13" s="8"/>
-      <c r="BJ13" s="24" t="s">
+      <c r="BH13" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="8"/>
+      <c r="BK13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="BK13" s="25">
-        <v>160000</v>
-      </c>
-      <c r="BL13" s="25"/>
-      <c r="BM13" s="24"/>
-      <c r="BN13" s="25"/>
-      <c r="BO13" s="36" t="s">
+      <c r="BL13" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM13" s="25"/>
+      <c r="BN13" s="24"/>
+      <c r="BO13" s="25"/>
+      <c r="BP13" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="BP13" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ13" s="36"/>
-      <c r="BR13" s="37"/>
-    </row>
-    <row r="14" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BQ13" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR13" s="36"/>
+      <c r="BS13" s="37"/>
+    </row>
+    <row r="14" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
@@ -3496,59 +3527,60 @@
       </c>
       <c r="AR14" s="24"/>
       <c r="AS14" s="25"/>
-      <c r="AT14" s="27" t="s">
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AU14" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV14" s="27"/>
-      <c r="AW14" s="28"/>
-      <c r="AX14" s="30" t="s">
+      <c r="AV14" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW14" s="27"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AY14" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ14" s="30"/>
-      <c r="BA14" s="31"/>
-      <c r="BB14" s="33" t="s">
+      <c r="AZ14" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA14" s="30"/>
+      <c r="BB14" s="31"/>
+      <c r="BC14" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="BC14" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD14" s="33"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="7" t="s">
+      <c r="BD14" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE14" s="33"/>
+      <c r="BF14" s="34"/>
+      <c r="BG14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="BG14" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH14" s="7"/>
-      <c r="BI14" s="8"/>
-      <c r="BJ14" s="24" t="s">
+      <c r="BH14" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="8"/>
+      <c r="BK14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="BK14" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL14" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM14" s="25">
         <v>100000</v>
       </c>
-      <c r="BM14" s="24"/>
-      <c r="BN14" s="25"/>
-      <c r="BO14" s="36" t="s">
+      <c r="BN14" s="24"/>
+      <c r="BO14" s="25"/>
+      <c r="BP14" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="BP14" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ14" s="36"/>
-      <c r="BR14" s="37"/>
-    </row>
-    <row r="15" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BQ14" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR14" s="36"/>
+      <c r="BS14" s="37"/>
+    </row>
+    <row r="15" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
@@ -3652,57 +3684,58 @@
       </c>
       <c r="AR15" s="24"/>
       <c r="AS15" s="25"/>
-      <c r="AT15" s="27" t="s">
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AU15" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="28"/>
-      <c r="AX15" s="30" t="s">
+      <c r="AV15" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW15" s="27"/>
+      <c r="AX15" s="28"/>
+      <c r="AY15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AY15" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ15" s="30"/>
-      <c r="BA15" s="31"/>
-      <c r="BB15" s="33" t="s">
+      <c r="AZ15" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA15" s="30"/>
+      <c r="BB15" s="31"/>
+      <c r="BC15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="BC15" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD15" s="33"/>
-      <c r="BE15" s="34"/>
-      <c r="BF15" s="7" t="s">
+      <c r="BD15" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE15" s="33"/>
+      <c r="BF15" s="34"/>
+      <c r="BG15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BG15" s="8"/>
-      <c r="BH15" s="7"/>
-      <c r="BI15" s="8"/>
-      <c r="BJ15" s="24" t="s">
+      <c r="BH15" s="8"/>
+      <c r="BI15" s="7"/>
+      <c r="BJ15" s="8"/>
+      <c r="BK15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="BK15" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL15" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM15" s="25">
         <v>100000</v>
       </c>
-      <c r="BM15" s="24"/>
-      <c r="BN15" s="25"/>
-      <c r="BO15" s="36" t="s">
+      <c r="BN15" s="24"/>
+      <c r="BO15" s="25"/>
+      <c r="BP15" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="BP15" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ15" s="36"/>
-      <c r="BR15" s="37"/>
-    </row>
-    <row r="16" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BQ15" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR15" s="36"/>
+      <c r="BS15" s="37"/>
+    </row>
+    <row r="16" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
@@ -3802,59 +3835,60 @@
       </c>
       <c r="AR16" s="24"/>
       <c r="AS16" s="25"/>
-      <c r="AT16" s="27" t="s">
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AU16" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV16" s="27"/>
-      <c r="AW16" s="28"/>
-      <c r="AX16" s="30" t="s">
+      <c r="AV16" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW16" s="27"/>
+      <c r="AX16" s="28"/>
+      <c r="AY16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AY16" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ16" s="30"/>
-      <c r="BA16" s="31"/>
-      <c r="BB16" s="33" t="s">
+      <c r="AZ16" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA16" s="30"/>
+      <c r="BB16" s="31"/>
+      <c r="BC16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="BC16" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD16" s="33"/>
-      <c r="BE16" s="34"/>
-      <c r="BF16" s="7" t="s">
+      <c r="BD16" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE16" s="33"/>
+      <c r="BF16" s="34"/>
+      <c r="BG16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="BG16" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH16" s="7"/>
-      <c r="BI16" s="8"/>
-      <c r="BJ16" s="24" t="s">
+      <c r="BH16" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI16" s="7"/>
+      <c r="BJ16" s="8"/>
+      <c r="BK16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="BK16" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL16" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM16" s="25">
         <v>100000</v>
       </c>
-      <c r="BM16" s="24"/>
-      <c r="BN16" s="25"/>
-      <c r="BO16" s="36" t="s">
+      <c r="BN16" s="24"/>
+      <c r="BO16" s="25"/>
+      <c r="BP16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="BP16" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ16" s="36"/>
-      <c r="BR16" s="37"/>
-    </row>
-    <row r="17" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BQ16" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR16" s="36"/>
+      <c r="BS16" s="37"/>
+    </row>
+    <row r="17" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -3952,59 +3986,60 @@
       </c>
       <c r="AR17" s="24"/>
       <c r="AS17" s="25"/>
-      <c r="AT17" s="27" t="s">
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AU17" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV17" s="27"/>
-      <c r="AW17" s="28"/>
-      <c r="AX17" s="30" t="s">
+      <c r="AV17" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW17" s="27"/>
+      <c r="AX17" s="28"/>
+      <c r="AY17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AY17" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ17" s="30"/>
-      <c r="BA17" s="31"/>
-      <c r="BB17" s="33" t="s">
+      <c r="AZ17" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA17" s="30"/>
+      <c r="BB17" s="31"/>
+      <c r="BC17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="BC17" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD17" s="33"/>
-      <c r="BE17" s="34"/>
-      <c r="BF17" s="7" t="s">
+      <c r="BD17" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE17" s="33"/>
+      <c r="BF17" s="34"/>
+      <c r="BG17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="BG17" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH17" s="7"/>
-      <c r="BI17" s="8"/>
-      <c r="BJ17" s="24" t="s">
+      <c r="BH17" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="8"/>
+      <c r="BK17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="BK17" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL17" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM17" s="25">
         <v>100000</v>
       </c>
-      <c r="BM17" s="24"/>
-      <c r="BN17" s="25"/>
-      <c r="BO17" s="36" t="s">
+      <c r="BN17" s="24"/>
+      <c r="BO17" s="25"/>
+      <c r="BP17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="BP17" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ17" s="36"/>
-      <c r="BR17" s="37"/>
-    </row>
-    <row r="18" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BQ17" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR17" s="36"/>
+      <c r="BS17" s="37"/>
+    </row>
+    <row r="18" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
@@ -4104,59 +4139,60 @@
       </c>
       <c r="AR18" s="24"/>
       <c r="AS18" s="25"/>
-      <c r="AT18" s="27" t="s">
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AU18" s="28">
-        <v>160000</v>
-      </c>
-      <c r="AV18" s="27"/>
-      <c r="AW18" s="28"/>
-      <c r="AX18" s="30" t="s">
+      <c r="AV18" s="28">
+        <v>160000</v>
+      </c>
+      <c r="AW18" s="27"/>
+      <c r="AX18" s="28"/>
+      <c r="AY18" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AY18" s="31">
-        <v>160000</v>
-      </c>
-      <c r="AZ18" s="30"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="33" t="s">
+      <c r="AZ18" s="31">
+        <v>160000</v>
+      </c>
+      <c r="BA18" s="30"/>
+      <c r="BB18" s="31"/>
+      <c r="BC18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="BC18" s="34">
-        <v>160000</v>
-      </c>
-      <c r="BD18" s="33"/>
-      <c r="BE18" s="34"/>
-      <c r="BF18" s="7" t="s">
+      <c r="BD18" s="34">
+        <v>160000</v>
+      </c>
+      <c r="BE18" s="33"/>
+      <c r="BF18" s="34"/>
+      <c r="BG18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="BG18" s="8">
-        <v>160000</v>
-      </c>
-      <c r="BH18" s="7"/>
-      <c r="BI18" s="8"/>
-      <c r="BJ18" s="24" t="s">
+      <c r="BH18" s="8">
+        <v>160000</v>
+      </c>
+      <c r="BI18" s="7"/>
+      <c r="BJ18" s="8"/>
+      <c r="BK18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="BK18" s="25">
-        <v>160000</v>
-      </c>
       <c r="BL18" s="25">
+        <v>160000</v>
+      </c>
+      <c r="BM18" s="25">
         <v>100000</v>
       </c>
-      <c r="BM18" s="24"/>
-      <c r="BN18" s="25"/>
-      <c r="BO18" s="36" t="s">
+      <c r="BN18" s="24"/>
+      <c r="BO18" s="25"/>
+      <c r="BP18" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="BP18" s="37">
-        <v>160000</v>
-      </c>
-      <c r="BQ18" s="36"/>
-      <c r="BR18" s="37"/>
-    </row>
-    <row r="19" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BQ18" s="37">
+        <v>160000</v>
+      </c>
+      <c r="BR18" s="36"/>
+      <c r="BS18" s="37"/>
+    </row>
+    <row r="19" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -4206,33 +4242,34 @@
       <c r="AQ19" s="24"/>
       <c r="AR19" s="24"/>
       <c r="AS19" s="25"/>
-      <c r="AT19" s="27"/>
+      <c r="AT19" s="25"/>
       <c r="AU19" s="27"/>
       <c r="AV19" s="27"/>
-      <c r="AW19" s="28"/>
-      <c r="AX19" s="30"/>
+      <c r="AW19" s="27"/>
+      <c r="AX19" s="28"/>
       <c r="AY19" s="30"/>
       <c r="AZ19" s="30"/>
-      <c r="BA19" s="31"/>
-      <c r="BB19" s="33"/>
+      <c r="BA19" s="30"/>
+      <c r="BB19" s="31"/>
       <c r="BC19" s="33"/>
       <c r="BD19" s="33"/>
-      <c r="BE19" s="34"/>
-      <c r="BF19" s="7"/>
+      <c r="BE19" s="33"/>
+      <c r="BF19" s="34"/>
       <c r="BG19" s="7"/>
       <c r="BH19" s="7"/>
-      <c r="BI19" s="8"/>
-      <c r="BJ19" s="24"/>
+      <c r="BI19" s="7"/>
+      <c r="BJ19" s="8"/>
       <c r="BK19" s="24"/>
       <c r="BL19" s="24"/>
       <c r="BM19" s="24"/>
-      <c r="BN19" s="25"/>
-      <c r="BO19" s="36"/>
+      <c r="BN19" s="24"/>
+      <c r="BO19" s="25"/>
       <c r="BP19" s="36"/>
       <c r="BQ19" s="36"/>
-      <c r="BR19" s="37"/>
-    </row>
-    <row r="20" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BR19" s="36"/>
+      <c r="BS19" s="37"/>
+    </row>
+    <row r="20" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4278,33 +4315,34 @@
       <c r="AQ20" s="25"/>
       <c r="AR20" s="24"/>
       <c r="AS20" s="25"/>
-      <c r="AT20" s="27"/>
-      <c r="AU20" s="28"/>
-      <c r="AV20" s="27"/>
-      <c r="AW20" s="28"/>
-      <c r="AX20" s="30"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="30"/>
-      <c r="BA20" s="31"/>
-      <c r="BB20" s="33"/>
-      <c r="BC20" s="34"/>
-      <c r="BD20" s="33"/>
-      <c r="BE20" s="34"/>
-      <c r="BF20" s="7"/>
-      <c r="BG20" s="8"/>
-      <c r="BH20" s="7"/>
-      <c r="BI20" s="8"/>
-      <c r="BJ20" s="24"/>
-      <c r="BK20" s="25"/>
+      <c r="AT20" s="25"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="28"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="28"/>
+      <c r="AY20" s="30"/>
+      <c r="AZ20" s="31"/>
+      <c r="BA20" s="30"/>
+      <c r="BB20" s="31"/>
+      <c r="BC20" s="33"/>
+      <c r="BD20" s="34"/>
+      <c r="BE20" s="33"/>
+      <c r="BF20" s="34"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="8"/>
+      <c r="BI20" s="7"/>
+      <c r="BJ20" s="8"/>
+      <c r="BK20" s="24"/>
       <c r="BL20" s="25"/>
-      <c r="BM20" s="24"/>
-      <c r="BN20" s="25"/>
-      <c r="BO20" s="36"/>
-      <c r="BP20" s="37"/>
-      <c r="BQ20" s="36"/>
-      <c r="BR20" s="37"/>
-    </row>
-    <row r="21" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BM20" s="25"/>
+      <c r="BN20" s="24"/>
+      <c r="BO20" s="25"/>
+      <c r="BP20" s="36"/>
+      <c r="BQ20" s="37"/>
+      <c r="BR20" s="36"/>
+      <c r="BS20" s="37"/>
+    </row>
+    <row r="21" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>32</v>
       </c>
@@ -4465,96 +4503,97 @@
         <f>SUM(AS2:AS20)</f>
         <v>3258200</v>
       </c>
-      <c r="AT21" s="29" t="s">
+      <c r="AT21" s="25"/>
+      <c r="AU21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AU21" s="28">
-        <f>SUM(AU2:AU18)</f>
+      <c r="AV21" s="28">
+        <f>SUM(AV2:AV18)</f>
         <v>2720000</v>
       </c>
-      <c r="AV21" s="29" t="s">
+      <c r="AW21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AW21" s="28">
-        <f>SUM(AW2:AW20)</f>
+      <c r="AX21" s="28">
+        <f>SUM(AX2:AX20)</f>
         <v>2186900</v>
       </c>
-      <c r="AX21" s="32" t="s">
+      <c r="AY21" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AY21" s="31">
-        <f>SUM(AY2:AY18)</f>
+      <c r="AZ21" s="31">
+        <f>SUM(AZ2:AZ18)</f>
         <v>2720000</v>
       </c>
-      <c r="AZ21" s="32" t="s">
+      <c r="BA21" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="BA21" s="31">
-        <f>SUM(BA2:BA20)</f>
+      <c r="BB21" s="31">
+        <f>SUM(BB2:BB20)</f>
         <v>4333800</v>
       </c>
-      <c r="BB21" s="35" t="s">
+      <c r="BC21" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="BC21" s="34">
-        <f>SUM(BC2:BC18)</f>
+      <c r="BD21" s="34">
+        <f>SUM(BD2:BD18)</f>
         <v>2720000</v>
       </c>
-      <c r="BD21" s="35" t="s">
+      <c r="BE21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="BE21" s="34">
-        <f>SUM(BE2:BE20)</f>
+      <c r="BF21" s="34">
+        <f>SUM(BF2:BF20)</f>
         <v>4060400</v>
       </c>
-      <c r="BF21" s="9" t="s">
+      <c r="BG21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="BG21" s="8">
-        <f>SUM(BG2:BG18)</f>
+      <c r="BH21" s="8">
+        <f>SUM(BH2:BH18)</f>
         <v>2560000</v>
       </c>
-      <c r="BH21" s="9" t="s">
+      <c r="BI21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="BI21" s="8">
-        <f>SUM(BI2:BI20)</f>
+      <c r="BJ21" s="8">
+        <f>SUM(BJ2:BJ20)</f>
         <v>2448900</v>
       </c>
-      <c r="BJ21" s="26" t="s">
+      <c r="BK21" s="26" t="s">
         <v>32</v>
-      </c>
-      <c r="BK21" s="25">
-        <f>SUM(BK2:BK18)</f>
-        <v>2720000</v>
       </c>
       <c r="BL21" s="25">
         <f>SUM(BL2:BL18)</f>
+        <v>2720000</v>
+      </c>
+      <c r="BM21" s="25">
+        <f>SUM(BM2:BM18)</f>
         <v>1600000</v>
       </c>
-      <c r="BM21" s="26" t="s">
+      <c r="BN21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="BN21" s="25">
-        <f>SUM(BN2:BN20)</f>
+      <c r="BO21" s="25">
+        <f>SUM(BO2:BO20)</f>
         <v>5308200</v>
       </c>
-      <c r="BO21" s="38" t="s">
+      <c r="BP21" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="BP21" s="37">
-        <f>SUM(BP2:BP18)</f>
+      <c r="BQ21" s="37">
+        <f>SUM(BQ2:BQ18)</f>
         <v>2720000</v>
       </c>
-      <c r="BQ21" s="38" t="s">
+      <c r="BR21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="BR21" s="37">
-        <f>SUM(BR2:BR20)</f>
+      <c r="BS21" s="37">
+        <f>SUM(BS2:BS20)</f>
         <v>3153100</v>
       </c>
     </row>
-    <row r="22" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -4600,33 +4639,34 @@
       <c r="AQ22" s="25"/>
       <c r="AR22" s="24"/>
       <c r="AS22" s="25"/>
-      <c r="AT22" s="27"/>
-      <c r="AU22" s="28"/>
-      <c r="AV22" s="27"/>
-      <c r="AW22" s="28"/>
-      <c r="AX22" s="30"/>
-      <c r="AY22" s="31"/>
-      <c r="AZ22" s="30"/>
-      <c r="BA22" s="31"/>
-      <c r="BB22" s="33"/>
-      <c r="BC22" s="34"/>
-      <c r="BD22" s="33"/>
-      <c r="BE22" s="34"/>
-      <c r="BF22" s="7"/>
-      <c r="BG22" s="8"/>
-      <c r="BH22" s="7"/>
-      <c r="BI22" s="8"/>
-      <c r="BJ22" s="24"/>
-      <c r="BK22" s="25"/>
+      <c r="AT22" s="25"/>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="27"/>
+      <c r="AX22" s="28"/>
+      <c r="AY22" s="30"/>
+      <c r="AZ22" s="31"/>
+      <c r="BA22" s="30"/>
+      <c r="BB22" s="31"/>
+      <c r="BC22" s="33"/>
+      <c r="BD22" s="34"/>
+      <c r="BE22" s="33"/>
+      <c r="BF22" s="34"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="8"/>
+      <c r="BI22" s="7"/>
+      <c r="BJ22" s="8"/>
+      <c r="BK22" s="24"/>
       <c r="BL22" s="25"/>
-      <c r="BM22" s="24"/>
-      <c r="BN22" s="25"/>
-      <c r="BO22" s="36"/>
-      <c r="BP22" s="37"/>
-      <c r="BQ22" s="36"/>
-      <c r="BR22" s="37"/>
-    </row>
-    <row r="23" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BM22" s="25"/>
+      <c r="BN22" s="24"/>
+      <c r="BO22" s="25"/>
+      <c r="BP22" s="36"/>
+      <c r="BQ22" s="37"/>
+      <c r="BR22" s="36"/>
+      <c r="BS22" s="37"/>
+    </row>
+    <row r="23" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>34</v>
       </c>
@@ -4722,63 +4762,64 @@
       </c>
       <c r="AR23" s="26"/>
       <c r="AS23" s="25"/>
-      <c r="AT23" s="29" t="s">
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AU23" s="28">
-        <f>(AU21-AW21)</f>
+      <c r="AV23" s="28">
+        <f>(AV21-AX21)</f>
         <v>533100</v>
       </c>
-      <c r="AV23" s="29"/>
-      <c r="AW23" s="28"/>
-      <c r="AX23" s="32" t="s">
+      <c r="AW23" s="29"/>
+      <c r="AX23" s="28"/>
+      <c r="AY23" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AY23" s="31">
-        <f>(AY21-BA21)</f>
+      <c r="AZ23" s="31">
+        <f>(AZ21-BB21)</f>
         <v>-1613800</v>
       </c>
-      <c r="AZ23" s="32"/>
-      <c r="BA23" s="31"/>
-      <c r="BB23" s="35" t="s">
+      <c r="BA23" s="32"/>
+      <c r="BB23" s="31"/>
+      <c r="BC23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="BC23" s="34">
-        <f>(BC21-BE21)</f>
+      <c r="BD23" s="34">
+        <f>(BD21-BF21)</f>
         <v>-1340400</v>
       </c>
-      <c r="BD23" s="35"/>
-      <c r="BE23" s="34"/>
-      <c r="BF23" s="9" t="s">
+      <c r="BE23" s="35"/>
+      <c r="BF23" s="34"/>
+      <c r="BG23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="BG23" s="8">
-        <f>(BG21-BI21)</f>
+      <c r="BH23" s="8">
+        <f>(BH21-BJ21)</f>
         <v>111100</v>
       </c>
-      <c r="BH23" s="9"/>
-      <c r="BI23" s="8"/>
-      <c r="BJ23" s="26" t="s">
+      <c r="BI23" s="9"/>
+      <c r="BJ23" s="8"/>
+      <c r="BK23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="BK23" s="25">
-        <f>(BK21+BL21-BN21)</f>
+      <c r="BL23" s="25">
+        <f>(BL21+BM21-BO21)</f>
         <v>-988200</v>
       </c>
-      <c r="BL23" s="25"/>
-      <c r="BM23" s="26"/>
-      <c r="BN23" s="25"/>
-      <c r="BO23" s="38" t="s">
+      <c r="BM23" s="25"/>
+      <c r="BN23" s="26"/>
+      <c r="BO23" s="25"/>
+      <c r="BP23" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="BP23" s="37">
-        <f>(BP21-BR21)</f>
+      <c r="BQ23" s="37">
+        <f>(BQ21-BS21)</f>
         <v>-433100</v>
       </c>
-      <c r="BQ23" s="38"/>
-      <c r="BR23" s="37"/>
-    </row>
-    <row r="24" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="BR23" s="38"/>
+      <c r="BS23" s="37"/>
+    </row>
+    <row r="24" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -4798,7 +4839,7 @@
       <c r="AE24" s="21"/>
       <c r="AF24" s="21"/>
     </row>
-    <row r="25" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="AC25" s="21"/>
@@ -4806,7 +4847,7 @@
       <c r="AE25" s="21"/>
       <c r="AF25" s="21"/>
     </row>
-    <row r="26" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="S26" s="5"/>
@@ -4815,7 +4856,7 @@
       <c r="AE26" s="21"/>
       <c r="AF26" s="21"/>
     </row>
-    <row r="27" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="P27" s="21"/>
@@ -4827,12 +4868,12 @@
       <c r="AE27" s="21"/>
       <c r="AF27" s="21"/>
     </row>
-    <row r="28" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="5">
-        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AU23+AY23+BC23+BG23+BK23+BP23+B53+F53+J53+N53+R53+V53+Z53+AD53+AH53</f>
+        <f>975000+B23+G23+K23+O23+T23+Y23+AD23+AH23+AL23+AQ23+AV23+AZ23+BD23+BH23+BL23+BQ23+B53+F53+J53+N53+R53+V53+Z53+AD53+AH53</f>
         <v>1196100</v>
       </c>
       <c r="C28" s="5"/>
@@ -4841,7 +4882,7 @@
       <c r="AE28" s="21"/>
       <c r="AF28" s="21"/>
     </row>
-    <row r="29" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="E29" s="5"/>
@@ -4850,86 +4891,93 @@
       <c r="AE29" s="21"/>
       <c r="AF29" s="21"/>
     </row>
-    <row r="30" spans="1:70" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
-    <row r="31" spans="1:70" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="52" t="s">
+    <row r="31" spans="1:71" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="62" t="s">
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="58" t="s">
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="54" t="s">
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="60" t="s">
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="56" t="s">
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="64" t="s">
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="54" t="s">
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="55"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="55"/>
-      <c r="AG31" s="48" t="s">
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="58" t="s">
+      <c r="AH31" s="68"/>
+      <c r="AI31" s="68"/>
+      <c r="AJ31" s="68"/>
+      <c r="AK31" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="AL31" s="59"/>
-      <c r="AM31" s="59"/>
-      <c r="AN31" s="59"/>
-      <c r="AO31" s="62" t="s">
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="64"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="AP31" s="63"/>
-      <c r="AQ31" s="63"/>
-      <c r="AR31" s="63"/>
-    </row>
-    <row r="32" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="54"/>
+      <c r="AR31" s="54"/>
+      <c r="AS31" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="64"/>
+      <c r="AV31" s="64"/>
+      <c r="AW31" s="64"/>
+    </row>
+    <row r="32" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>4</v>
       </c>
@@ -5036,16 +5084,29 @@
         <v>6</v>
       </c>
       <c r="AN32" s="43"/>
-      <c r="AO32" s="39" t="s">
+      <c r="AO32" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AP32" s="45"/>
-      <c r="AQ32" s="39" t="s">
+      <c r="AP32" s="46"/>
+      <c r="AQ32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AR32" s="46"/>
-    </row>
-    <row r="33" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AR32" s="47"/>
+      <c r="AS32" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT32" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU32" s="42"/>
+      <c r="AV32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW32" s="43">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>7</v>
       </c>
@@ -5166,20 +5227,35 @@
       <c r="AN33" s="43">
         <v>2000000</v>
       </c>
-      <c r="AO33" s="39" t="s">
+      <c r="AO33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AP33" s="45">
-        <v>160000</v>
-      </c>
-      <c r="AQ33" s="39" t="s">
+      <c r="AP33" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AR33" s="46">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AR33" s="47">
+        <v>2000000</v>
+      </c>
+      <c r="AS33" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT33" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU33" s="42">
+        <v>100000</v>
+      </c>
+      <c r="AV33" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW33" s="43">
+        <v>4260000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>10</v>
       </c>
@@ -5290,18 +5366,33 @@
       <c r="AN34" s="43">
         <v>88300</v>
       </c>
-      <c r="AO34" s="39" t="s">
+      <c r="AO34" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AP34" s="45">
-        <v>160000</v>
-      </c>
-      <c r="AQ34" s="39" t="s">
+      <c r="AP34" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ34" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AR34" s="46"/>
-    </row>
-    <row r="35" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AR34" s="47"/>
+      <c r="AS34" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT34" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU34" s="71">
+        <v>260000</v>
+      </c>
+      <c r="AV34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW34" s="43">
+        <v>124700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>12</v>
       </c>
@@ -5412,18 +5503,35 @@
         <v>8</v>
       </c>
       <c r="AN35" s="43"/>
-      <c r="AO35" s="39" t="s">
+      <c r="AO35" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AP35" s="45">
-        <v>160000</v>
-      </c>
-      <c r="AQ35" s="39" t="s">
+      <c r="AP35" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AR35" s="46"/>
-    </row>
-    <row r="36" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AR35" s="47">
+        <v>372300</v>
+      </c>
+      <c r="AS35" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT35" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU35" s="42">
+        <v>100000</v>
+      </c>
+      <c r="AV35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW35" s="43">
+        <v>492000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>14</v>
       </c>
@@ -5540,20 +5648,35 @@
         <v>5</v>
       </c>
       <c r="AN36" s="43"/>
-      <c r="AO36" s="39" t="s">
+      <c r="AO36" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AP36" s="45">
-        <v>160000</v>
-      </c>
-      <c r="AQ36" s="39" t="s">
+      <c r="AP36" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ36" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AR36" s="46">
+      <c r="AR36" s="47">
         <v>468300</v>
       </c>
-    </row>
-    <row r="37" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AS36" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT36" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU36" s="42">
+        <v>100000</v>
+      </c>
+      <c r="AV36" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW36" s="43">
+        <v>504700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>15</v>
       </c>
@@ -5674,18 +5797,31 @@
       <c r="AN37" s="43">
         <v>449000</v>
       </c>
-      <c r="AO37" s="39" t="s">
+      <c r="AO37" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AP37" s="45">
-        <v>160000</v>
-      </c>
-      <c r="AQ37" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR37" s="46"/>
-    </row>
-    <row r="38" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP37" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR37" s="47">
+        <v>190000</v>
+      </c>
+      <c r="AS37" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT37" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU37" s="42">
+        <v>100000</v>
+      </c>
+      <c r="AV37" s="30"/>
+      <c r="AW37" s="43"/>
+    </row>
+    <row r="38" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>18</v>
       </c>
@@ -5782,18 +5918,31 @@
       <c r="AN38" s="43">
         <v>150000</v>
       </c>
-      <c r="AO38" s="39" t="s">
+      <c r="AO38" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AP38" s="45">
-        <v>160000</v>
-      </c>
-      <c r="AQ38" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR38" s="46"/>
-    </row>
-    <row r="39" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP38" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ38" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR38" s="47">
+        <v>35000</v>
+      </c>
+      <c r="AS38" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT38" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU38" s="42">
+        <v>100000</v>
+      </c>
+      <c r="AV38" s="30"/>
+      <c r="AW38" s="43"/>
+    </row>
+    <row r="39" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>21</v>
       </c>
@@ -5886,16 +6035,27 @@
       <c r="AN39" s="43">
         <v>32000</v>
       </c>
-      <c r="AO39" s="39" t="s">
+      <c r="AO39" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AP39" s="45"/>
-      <c r="AQ39" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR39" s="46"/>
-    </row>
-    <row r="40" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP39" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ39" s="24"/>
+      <c r="AR39" s="47"/>
+      <c r="AS39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT39" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU39" s="42">
+        <v>100000</v>
+      </c>
+      <c r="AV39" s="30"/>
+      <c r="AW39" s="43"/>
+    </row>
+    <row r="40" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>23</v>
       </c>
@@ -5980,16 +6140,27 @@
       </c>
       <c r="AM40" s="30"/>
       <c r="AN40" s="43"/>
-      <c r="AO40" s="39" t="s">
+      <c r="AO40" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AP40" s="45">
-        <v>160000</v>
-      </c>
-      <c r="AQ40" s="39"/>
-      <c r="AR40" s="46"/>
-    </row>
-    <row r="41" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP40" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ40" s="24"/>
+      <c r="AR40" s="47"/>
+      <c r="AS40" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT40" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU40" s="42">
+        <v>100000</v>
+      </c>
+      <c r="AV40" s="30"/>
+      <c r="AW40" s="43"/>
+    </row>
+    <row r="41" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>24</v>
       </c>
@@ -6070,16 +6241,27 @@
       </c>
       <c r="AM41" s="30"/>
       <c r="AN41" s="43"/>
-      <c r="AO41" s="39" t="s">
+      <c r="AO41" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AP41" s="45">
-        <v>160000</v>
-      </c>
-      <c r="AQ41" s="39"/>
-      <c r="AR41" s="46"/>
-    </row>
-    <row r="42" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP41" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ41" s="24"/>
+      <c r="AR41" s="47"/>
+      <c r="AS41" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT41" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU41" s="42">
+        <v>100000</v>
+      </c>
+      <c r="AV41" s="30"/>
+      <c r="AW41" s="43"/>
+    </row>
+    <row r="42" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>25</v>
       </c>
@@ -6160,14 +6342,27 @@
       </c>
       <c r="AM42" s="30"/>
       <c r="AN42" s="43"/>
-      <c r="AO42" s="39" t="s">
+      <c r="AO42" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AP42" s="45"/>
-      <c r="AQ42" s="39"/>
-      <c r="AR42" s="46"/>
-    </row>
-    <row r="43" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP42" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ42" s="24"/>
+      <c r="AR42" s="47"/>
+      <c r="AS42" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT42" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU42" s="42">
+        <v>100000</v>
+      </c>
+      <c r="AV42" s="30"/>
+      <c r="AW42" s="43"/>
+    </row>
+    <row r="43" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>26</v>
       </c>
@@ -6248,14 +6443,27 @@
       </c>
       <c r="AM43" s="30"/>
       <c r="AN43" s="43"/>
-      <c r="AO43" s="39" t="s">
+      <c r="AO43" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AP43" s="45"/>
-      <c r="AQ43" s="39"/>
-      <c r="AR43" s="46"/>
-    </row>
-    <row r="44" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP43" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ43" s="24"/>
+      <c r="AR43" s="47"/>
+      <c r="AS43" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT43" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU43" s="42">
+        <v>100000</v>
+      </c>
+      <c r="AV43" s="30"/>
+      <c r="AW43" s="43"/>
+    </row>
+    <row r="44" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>27</v>
       </c>
@@ -6336,16 +6544,27 @@
       </c>
       <c r="AM44" s="30"/>
       <c r="AN44" s="43"/>
-      <c r="AO44" s="39" t="s">
+      <c r="AO44" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AP44" s="45">
-        <v>160000</v>
-      </c>
-      <c r="AQ44" s="39"/>
-      <c r="AR44" s="46"/>
-    </row>
-    <row r="45" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP44" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ44" s="24"/>
+      <c r="AR44" s="47"/>
+      <c r="AS44" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT44" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU44" s="71">
+        <v>500000</v>
+      </c>
+      <c r="AV44" s="30"/>
+      <c r="AW44" s="43"/>
+    </row>
+    <row r="45" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>28</v>
       </c>
@@ -6426,16 +6645,27 @@
       </c>
       <c r="AM45" s="30"/>
       <c r="AN45" s="43"/>
-      <c r="AO45" s="39" t="s">
+      <c r="AO45" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AP45" s="45">
-        <v>160000</v>
-      </c>
-      <c r="AQ45" s="39"/>
-      <c r="AR45" s="46"/>
-    </row>
-    <row r="46" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP45" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ45" s="24"/>
+      <c r="AR45" s="47"/>
+      <c r="AS45" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT45" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU45" s="42">
+        <v>100000</v>
+      </c>
+      <c r="AV45" s="30"/>
+      <c r="AW45" s="43"/>
+    </row>
+    <row r="46" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>29</v>
       </c>
@@ -6516,16 +6746,27 @@
       </c>
       <c r="AM46" s="30"/>
       <c r="AN46" s="43"/>
-      <c r="AO46" s="39" t="s">
+      <c r="AO46" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AP46" s="45">
-        <v>160000</v>
-      </c>
-      <c r="AQ46" s="39"/>
-      <c r="AR46" s="46"/>
-    </row>
-    <row r="47" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP46" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ46" s="24"/>
+      <c r="AR46" s="47"/>
+      <c r="AS46" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT46" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU46" s="42">
+        <v>100000</v>
+      </c>
+      <c r="AV46" s="30"/>
+      <c r="AW46" s="43"/>
+    </row>
+    <row r="47" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>30</v>
       </c>
@@ -6606,16 +6847,27 @@
       </c>
       <c r="AM47" s="30"/>
       <c r="AN47" s="43"/>
-      <c r="AO47" s="39" t="s">
+      <c r="AO47" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AP47" s="45">
-        <v>160000</v>
-      </c>
-      <c r="AQ47" s="39"/>
-      <c r="AR47" s="46"/>
-    </row>
-    <row r="48" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP47" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ47" s="24"/>
+      <c r="AR47" s="47"/>
+      <c r="AS47" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT47" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU47" s="42">
+        <v>100000</v>
+      </c>
+      <c r="AV47" s="30"/>
+      <c r="AW47" s="43"/>
+    </row>
+    <row r="48" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>31</v>
       </c>
@@ -6696,14 +6948,27 @@
       </c>
       <c r="AM48" s="30"/>
       <c r="AN48" s="43"/>
-      <c r="AO48" s="39" t="s">
+      <c r="AO48" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AP48" s="45"/>
-      <c r="AQ48" s="39"/>
-      <c r="AR48" s="46"/>
-    </row>
-    <row r="49" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP48" s="46">
+        <v>160000</v>
+      </c>
+      <c r="AQ48" s="24"/>
+      <c r="AR48" s="47"/>
+      <c r="AS48" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT48" s="42">
+        <v>160000</v>
+      </c>
+      <c r="AU48" s="42">
+        <v>100000</v>
+      </c>
+      <c r="AV48" s="30"/>
+      <c r="AW48" s="43"/>
+    </row>
+    <row r="49" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -6744,12 +7009,23 @@
       <c r="AL49" s="44"/>
       <c r="AM49" s="30"/>
       <c r="AN49" s="43"/>
-      <c r="AO49" s="39"/>
-      <c r="AP49" s="47"/>
-      <c r="AQ49" s="39"/>
-      <c r="AR49" s="46"/>
-    </row>
-    <row r="50" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO49" s="24"/>
+      <c r="AP49" s="48"/>
+      <c r="AQ49" s="24"/>
+      <c r="AR49" s="47"/>
+      <c r="AS49" s="30"/>
+      <c r="AT49" s="31">
+        <f>SUM(AT32:AT48)</f>
+        <v>2720000</v>
+      </c>
+      <c r="AU49" s="42">
+        <f>SUM(AU32:AU48)</f>
+        <v>2160000</v>
+      </c>
+      <c r="AV49" s="30"/>
+      <c r="AW49" s="43"/>
+    </row>
+    <row r="50" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="25"/>
       <c r="C50" s="24"/>
@@ -6790,12 +7066,17 @@
       <c r="AL50" s="31"/>
       <c r="AM50" s="30"/>
       <c r="AN50" s="43"/>
-      <c r="AO50" s="39"/>
-      <c r="AP50" s="40"/>
-      <c r="AQ50" s="39"/>
-      <c r="AR50" s="46"/>
-    </row>
-    <row r="51" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO50" s="24"/>
+      <c r="AP50" s="25"/>
+      <c r="AQ50" s="24"/>
+      <c r="AR50" s="47"/>
+      <c r="AS50" s="30"/>
+      <c r="AT50" s="30"/>
+      <c r="AU50" s="31"/>
+      <c r="AV50" s="30"/>
+      <c r="AW50" s="43"/>
+    </row>
+    <row r="51" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>32</v>
       </c>
@@ -6936,22 +7217,37 @@
         <f>SUM(AN32:AN50)</f>
         <v>2719300</v>
       </c>
-      <c r="AO51" s="41" t="s">
+      <c r="AO51" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AP51" s="40">
+      <c r="AP51" s="25">
         <f>SUM(AP32:AP48)</f>
-        <v>1920000</v>
-      </c>
-      <c r="AQ51" s="41" t="s">
+        <v>2560000</v>
+      </c>
+      <c r="AQ51" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AR51" s="46">
+      <c r="AR51" s="47">
         <f>SUM(AR32:AR50)</f>
-        <v>968300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3065600</v>
+      </c>
+      <c r="AS51" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT51" s="32"/>
+      <c r="AU51" s="31">
+        <f>SUM(AT32:AT48)</f>
+        <v>2720000</v>
+      </c>
+      <c r="AV51" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW51" s="43">
+        <f>SUM(AW32:AW50)</f>
+        <v>5771400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="25"/>
       <c r="C52" s="24"/>
@@ -6992,12 +7288,17 @@
       <c r="AL52" s="31"/>
       <c r="AM52" s="30"/>
       <c r="AN52" s="43"/>
-      <c r="AO52" s="39"/>
-      <c r="AP52" s="40"/>
-      <c r="AQ52" s="39"/>
-      <c r="AR52" s="46"/>
-    </row>
-    <row r="53" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO52" s="24"/>
+      <c r="AP52" s="25"/>
+      <c r="AQ52" s="24"/>
+      <c r="AR52" s="47"/>
+      <c r="AS52" s="30"/>
+      <c r="AT52" s="30"/>
+      <c r="AU52" s="31"/>
+      <c r="AV52" s="30"/>
+      <c r="AW52" s="43"/>
+    </row>
+    <row r="53" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>34</v>
       </c>
@@ -7088,77 +7389,87 @@
       </c>
       <c r="AM53" s="32"/>
       <c r="AN53" s="43"/>
-      <c r="AO53" s="41" t="s">
+      <c r="AO53" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AP53" s="40">
+      <c r="AP53" s="25">
         <f>(AP51-AR51)</f>
-        <v>951700</v>
-      </c>
-      <c r="AQ53" s="41"/>
-      <c r="AR53" s="46"/>
-    </row>
-    <row r="54" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-505600</v>
+      </c>
+      <c r="AQ53" s="26"/>
+      <c r="AR53" s="47"/>
+      <c r="AS53" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT53" s="32"/>
+      <c r="AU53" s="31">
+        <f>(AU51-AW51)</f>
+        <v>-3051400</v>
+      </c>
+      <c r="AV53" s="32"/>
+      <c r="AW53" s="43"/>
+    </row>
+    <row r="54" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC54" s="21"/>
       <c r="AD54" s="21"/>
       <c r="AE54" s="21"/>
       <c r="AF54" s="21"/>
     </row>
-    <row r="55" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC55" s="21"/>
       <c r="AD55" s="21"/>
       <c r="AE55" s="21"/>
       <c r="AF55" s="21"/>
     </row>
-    <row r="56" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC56" s="21"/>
       <c r="AD56" s="21"/>
       <c r="AE56" s="21"/>
       <c r="AF56" s="21"/>
     </row>
-    <row r="57" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC57" s="21"/>
       <c r="AD57" s="21"/>
       <c r="AE57" s="21"/>
       <c r="AF57" s="21"/>
     </row>
-    <row r="58" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC58" s="21"/>
       <c r="AD58" s="21"/>
       <c r="AE58" s="21"/>
       <c r="AF58" s="21"/>
     </row>
-    <row r="59" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC59" s="21"/>
       <c r="AD59" s="21"/>
       <c r="AE59" s="21"/>
       <c r="AF59" s="21"/>
     </row>
-    <row r="60" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC60" s="21"/>
       <c r="AD60" s="21"/>
       <c r="AE60" s="21"/>
       <c r="AF60" s="21"/>
     </row>
-    <row r="61" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC61" s="21"/>
       <c r="AD61" s="21"/>
       <c r="AE61" s="21"/>
       <c r="AF61" s="21"/>
     </row>
-    <row r="62" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC62" s="21"/>
       <c r="AD62" s="21"/>
       <c r="AE62" s="21"/>
       <c r="AF62" s="21"/>
     </row>
-    <row r="63" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC63" s="21"/>
       <c r="AD63" s="21"/>
       <c r="AE63" s="21"/>
       <c r="AF63" s="21"/>
     </row>
-    <row r="64" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AC64" s="21"/>
       <c r="AD64" s="21"/>
       <c r="AE64" s="21"/>
@@ -10417,7 +10728,20 @@
       <c r="AF606" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="BP1:BS1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AO31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -10434,18 +10758,6 @@
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BF1:BI1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AK31:AN31"/>
-    <mergeCell ref="AO31:AR31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BD9269-7AC2-4C15-BC3D-63C739ECA3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEFDB5A-3ECE-440F-A151-1F069210155C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="125">
   <si>
     <t>آذر</t>
   </si>
@@ -409,9 +409,6 @@
   </si>
   <si>
     <t>اسفند 00</t>
-  </si>
-  <si>
-    <t>حقوق سرایدار + عیدی</t>
   </si>
 </sst>
 </file>
@@ -545,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -609,6 +606,27 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,10 +639,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,32 +671,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AM25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW36" sqref="AW36"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AL25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR33" sqref="AR33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1005,8 @@
     <col min="45" max="45" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="10.140625" customWidth="1"/>
     <col min="47" max="47" width="12.7109375" customWidth="1"/>
-    <col min="48" max="49" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.42578125" customWidth="1"/>
     <col min="50" max="50" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1027,109 +1031,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="55" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="59" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="51" t="s">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="49" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="55" t="s">
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="59" t="s">
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="51" t="s">
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="49" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="53" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
       <c r="AT1" s="45"/>
-      <c r="AU1" s="65" t="s">
+      <c r="AU1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="63" t="s">
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="67" t="s">
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="68"/>
-      <c r="BG1" s="49" t="s">
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="50"/>
-      <c r="BI1" s="50"/>
-      <c r="BJ1" s="50"/>
-      <c r="BK1" s="53" t="s">
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57"/>
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="54"/>
-      <c r="BM1" s="54"/>
-      <c r="BN1" s="54"/>
-      <c r="BO1" s="54"/>
-      <c r="BP1" s="69" t="s">
+      <c r="BL1" s="55"/>
+      <c r="BM1" s="55"/>
+      <c r="BN1" s="55"/>
+      <c r="BO1" s="55"/>
+      <c r="BP1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="BQ1" s="70"/>
-      <c r="BR1" s="70"/>
-      <c r="BS1" s="70"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
     </row>
     <row r="2" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4893,89 +4897,89 @@
     </row>
     <row r="30" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:71" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="61" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="63" t="s">
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="49" t="s">
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="65" t="s">
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="51" t="s">
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="55" t="s">
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="49" t="s">
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="50"/>
-      <c r="AE31" s="50"/>
-      <c r="AF31" s="50"/>
-      <c r="AG31" s="67" t="s">
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="AH31" s="68"/>
-      <c r="AI31" s="68"/>
-      <c r="AJ31" s="68"/>
-      <c r="AK31" s="63" t="s">
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="AL31" s="64"/>
-      <c r="AM31" s="64"/>
-      <c r="AN31" s="64"/>
-      <c r="AO31" s="53" t="s">
+      <c r="AL31" s="61"/>
+      <c r="AM31" s="61"/>
+      <c r="AN31" s="61"/>
+      <c r="AO31" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="54"/>
-      <c r="AR31" s="54"/>
-      <c r="AS31" s="63" t="s">
+      <c r="AP31" s="55"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="AT31" s="63"/>
-      <c r="AU31" s="64"/>
-      <c r="AV31" s="64"/>
-      <c r="AW31" s="64"/>
+      <c r="AT31" s="60"/>
+      <c r="AU31" s="61"/>
+      <c r="AV31" s="61"/>
+      <c r="AW31" s="61"/>
     </row>
     <row r="32" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -5249,10 +5253,10 @@
         <v>100000</v>
       </c>
       <c r="AV33" s="30" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="AW33" s="43">
-        <v>4260000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="34" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
@@ -5382,7 +5386,7 @@
       <c r="AT34" s="42">
         <v>160000</v>
       </c>
-      <c r="AU34" s="71">
+      <c r="AU34" s="49">
         <v>260000</v>
       </c>
       <c r="AV34" s="30" t="s">
@@ -5818,8 +5822,12 @@
       <c r="AU37" s="42">
         <v>100000</v>
       </c>
-      <c r="AV37" s="30"/>
-      <c r="AW37" s="43"/>
+      <c r="AV37" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW37" s="73">
+        <v>2160000</v>
+      </c>
     </row>
     <row r="38" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
@@ -6558,7 +6566,7 @@
       <c r="AT44" s="42">
         <v>160000</v>
       </c>
-      <c r="AU44" s="71">
+      <c r="AU44" s="49">
         <v>500000</v>
       </c>
       <c r="AV44" s="30"/>
@@ -7018,7 +7026,7 @@
         <f>SUM(AT32:AT48)</f>
         <v>2720000</v>
       </c>
-      <c r="AU49" s="42">
+      <c r="AU49" s="72">
         <f>SUM(AU32:AU48)</f>
         <v>2160000</v>
       </c>
@@ -7243,8 +7251,8 @@
         <v>33</v>
       </c>
       <c r="AW51" s="43">
-        <f>SUM(AW32:AW50)</f>
-        <v>5771400</v>
+        <f>SUM(AW32:AW50)-2160000</f>
+        <v>3511400</v>
       </c>
     </row>
     <row r="52" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
@@ -7404,7 +7412,7 @@
       <c r="AT53" s="32"/>
       <c r="AU53" s="31">
         <f>(AU51-AW51)</f>
-        <v>-3051400</v>
+        <v>-791400</v>
       </c>
       <c r="AV53" s="32"/>
       <c r="AW53" s="43"/>
@@ -10729,19 +10737,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="BP1:BS1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AK31:AN31"/>
-    <mergeCell ref="AO31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -10758,6 +10753,19 @@
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="BP1:BS1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AO31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEFDB5A-3ECE-440F-A151-1F069210155C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED336483-D5FF-4DA6-80B7-71CF6B4DDCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ساخنمان نسترن" sheetId="2" r:id="rId1"/>
+    <sheet name="1401" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="126">
   <si>
     <t>آذر</t>
   </si>
@@ -409,6 +410,9 @@
   </si>
   <si>
     <t>اسفند 00</t>
+  </si>
+  <si>
+    <t>فروردین 01</t>
   </si>
 </sst>
 </file>
@@ -609,23 +613,11 @@
     <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -639,16 +631,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,11 +657,29 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS606"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AL25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR33" sqref="AR33"/>
+    <sheetView rightToLeft="1" topLeftCell="AM25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO31" sqref="AO31:AR53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,109 +1035,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="64" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="68" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="58" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="56" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="64" t="s">
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="68" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="58" t="s">
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="56" t="s">
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="54" t="s">
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
       <c r="AT1" s="45"/>
-      <c r="AU1" s="62" t="s">
+      <c r="AU1" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="60" t="s">
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="50" t="s">
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="56" t="s">
+      <c r="BD1" s="71"/>
+      <c r="BE1" s="71"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="54" t="s">
+      <c r="BH1" s="53"/>
+      <c r="BI1" s="53"/>
+      <c r="BJ1" s="53"/>
+      <c r="BK1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="55"/>
-      <c r="BM1" s="55"/>
-      <c r="BN1" s="55"/>
-      <c r="BO1" s="55"/>
-      <c r="BP1" s="52" t="s">
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57"/>
+      <c r="BP1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="BQ1" s="53"/>
-      <c r="BR1" s="53"/>
-      <c r="BS1" s="53"/>
+      <c r="BQ1" s="73"/>
+      <c r="BR1" s="73"/>
+      <c r="BS1" s="73"/>
     </row>
     <row r="2" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4897,89 +4901,89 @@
     </row>
     <row r="30" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:71" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="70" t="s">
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="60" t="s">
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="56" t="s">
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="62" t="s">
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="58" t="s">
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="64" t="s">
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="56" t="s">
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="57"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="50" t="s">
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="AH31" s="51"/>
-      <c r="AI31" s="51"/>
-      <c r="AJ31" s="51"/>
-      <c r="AK31" s="60" t="s">
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="71"/>
+      <c r="AK31" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="AL31" s="61"/>
-      <c r="AM31" s="61"/>
-      <c r="AN31" s="61"/>
-      <c r="AO31" s="54" t="s">
+      <c r="AL31" s="67"/>
+      <c r="AM31" s="67"/>
+      <c r="AN31" s="67"/>
+      <c r="AO31" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="AP31" s="55"/>
-      <c r="AQ31" s="55"/>
-      <c r="AR31" s="55"/>
-      <c r="AS31" s="60" t="s">
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="AT31" s="60"/>
-      <c r="AU31" s="61"/>
-      <c r="AV31" s="61"/>
-      <c r="AW31" s="61"/>
+      <c r="AT31" s="66"/>
+      <c r="AU31" s="67"/>
+      <c r="AV31" s="67"/>
+      <c r="AW31" s="67"/>
     </row>
     <row r="32" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -5825,7 +5829,7 @@
       <c r="AV37" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="AW37" s="73">
+      <c r="AW37" s="51">
         <v>2160000</v>
       </c>
     </row>
@@ -7026,7 +7030,7 @@
         <f>SUM(AT32:AT48)</f>
         <v>2720000</v>
       </c>
-      <c r="AU49" s="72">
+      <c r="AU49" s="50">
         <f>SUM(AU32:AU48)</f>
         <v>2160000</v>
       </c>
@@ -10737,6 +10741,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="BP1:BS1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AO31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -10753,21 +10770,244 @@
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="BP1:BS1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AK31:AN31"/>
-    <mergeCell ref="AO31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A6FEBD-9C84-4F48-804F-29FA9AB12E44}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="46">
+        <v>220000</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="46">
+        <v>220000</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="47"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="47"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="47"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="47"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="47"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="46">
+        <v>220000</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="47"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="46">
+        <v>220000</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="46">
+        <v>220000</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="47"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="47"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="47"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="46">
+        <v>220000</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="47"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="47"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="47"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="47"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="47"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="25">
+        <f>SUM(B2:B18)</f>
+        <v>1320000</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="47">
+        <f>SUM(D2:D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="25">
+        <f>(B21-D21)</f>
+        <v>1320000</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED336483-D5FF-4DA6-80B7-71CF6B4DDCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6BB9E6-B2A7-41E7-8B58-09481BE868C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10781,7 +10781,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10822,7 +10822,9 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="47">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -10848,7 +10850,9 @@
       <c r="A6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="46">
+        <v>220000</v>
+      </c>
       <c r="C6" s="24" t="s">
         <v>5</v>
       </c>
@@ -10858,7 +10862,9 @@
       <c r="A7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="46">
+        <v>220000</v>
+      </c>
       <c r="C7" s="24"/>
       <c r="D7" s="47"/>
     </row>
@@ -10904,7 +10910,9 @@
       <c r="A12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="46">
+        <v>220000</v>
+      </c>
       <c r="C12" s="24"/>
       <c r="D12" s="47"/>
     </row>
@@ -10912,7 +10920,9 @@
       <c r="A13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="46">
+        <v>220000</v>
+      </c>
       <c r="C13" s="24"/>
       <c r="D13" s="47"/>
     </row>
@@ -10920,7 +10930,9 @@
       <c r="A14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="46">
+        <v>220000</v>
+      </c>
       <c r="C14" s="24"/>
       <c r="D14" s="47"/>
     </row>
@@ -10946,7 +10958,9 @@
       <c r="A17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="46">
+        <v>220000</v>
+      </c>
       <c r="C17" s="24"/>
       <c r="D17" s="47"/>
     </row>
@@ -10954,7 +10968,9 @@
       <c r="A18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="46">
+        <v>220000</v>
+      </c>
       <c r="C18" s="24"/>
       <c r="D18" s="47"/>
     </row>
@@ -10976,14 +10992,14 @@
       </c>
       <c r="B21" s="25">
         <f>SUM(B2:B18)</f>
-        <v>1320000</v>
+        <v>2860000</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="47">
         <f>SUM(D2:D20)</f>
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -10998,7 +11014,7 @@
       </c>
       <c r="B23" s="25">
         <f>(B21-D21)</f>
-        <v>1320000</v>
+        <v>1860000</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="47"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6BB9E6-B2A7-41E7-8B58-09481BE868C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADEF091-1E17-40FD-93CB-8E5125D277DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="127">
   <si>
     <t>آذر</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>فروردین 01</t>
+  </si>
+  <si>
+    <t>2 عدد لامپ سقفی پارکینگ</t>
   </si>
 </sst>
 </file>
@@ -10781,14 +10784,14 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10823,14 +10826,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="47">
-        <v>1000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="46">
+        <v>220000</v>
+      </c>
       <c r="C4" s="24" t="s">
         <v>17</v>
       </c>
@@ -10840,7 +10845,9 @@
       <c r="A5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="46">
+        <v>220000</v>
+      </c>
       <c r="C5" s="24" t="s">
         <v>8</v>
       </c>
@@ -10865,8 +10872,12 @@
       <c r="B7" s="46">
         <v>220000</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="47">
+        <v>218980</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
@@ -10882,7 +10893,9 @@
       <c r="A9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="46">
+        <v>220000</v>
+      </c>
       <c r="C9" s="24"/>
       <c r="D9" s="47"/>
     </row>
@@ -10950,7 +10963,9 @@
       <c r="A16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="46">
+        <v>220000</v>
+      </c>
       <c r="C16" s="24"/>
       <c r="D16" s="47"/>
     </row>
@@ -10992,14 +11007,14 @@
       </c>
       <c r="B21" s="25">
         <f>SUM(B2:B18)</f>
-        <v>2860000</v>
+        <v>3740000</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="47">
         <f>SUM(D2:D20)</f>
-        <v>1000000</v>
+        <v>2718980</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -11014,7 +11029,7 @@
       </c>
       <c r="B23" s="25">
         <f>(B21-D21)</f>
-        <v>1860000</v>
+        <v>1021020</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="47"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451D46E7-58D9-458C-9A2E-18EA5544EB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88A24A2-0592-4AC3-A28B-325A5E939DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="132">
   <si>
     <t>آذر</t>
   </si>
@@ -419,6 +419,18 @@
   </si>
   <si>
     <t>اردیبهشت 01</t>
+  </si>
+  <si>
+    <t>خرداد 01</t>
+  </si>
+  <si>
+    <t>خرید ملات آماده</t>
+  </si>
+  <si>
+    <t>خرید لامپ، شلنگ ، سرشلنگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خرید بست شلنگ </t>
   </si>
 </sst>
 </file>
@@ -457,7 +469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +536,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -552,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -623,6 +647,37 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -635,10 +690,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,28 +722,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1039,109 +1082,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="56" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="60" t="s">
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="52" t="s">
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="56" t="s">
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="60" t="s">
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="52" t="s">
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="50" t="s">
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="54" t="s">
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
       <c r="AT1" s="43"/>
-      <c r="AU1" s="66" t="s">
+      <c r="AU1" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="64" t="s">
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="68" t="s">
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="BD1" s="69"/>
-      <c r="BE1" s="69"/>
-      <c r="BF1" s="69"/>
-      <c r="BG1" s="50" t="s">
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="54" t="s">
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="64"/>
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="55"/>
-      <c r="BM1" s="55"/>
-      <c r="BN1" s="55"/>
-      <c r="BO1" s="55"/>
-      <c r="BP1" s="70" t="s">
+      <c r="BL1" s="62"/>
+      <c r="BM1" s="62"/>
+      <c r="BN1" s="62"/>
+      <c r="BO1" s="62"/>
+      <c r="BP1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="BQ1" s="71"/>
-      <c r="BR1" s="71"/>
-      <c r="BS1" s="71"/>
+      <c r="BQ1" s="60"/>
+      <c r="BR1" s="60"/>
+      <c r="BS1" s="60"/>
     </row>
     <row r="2" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4878,85 +4921,85 @@
     </row>
     <row r="30" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
     </row>
     <row r="31" spans="1:71" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="62" t="s">
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64" t="s">
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="50" t="s">
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="66" t="s">
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="52" t="s">
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="56" t="s">
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="57"/>
-      <c r="AC31" s="50" t="s">
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="72"/>
+      <c r="AC31" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="51"/>
-      <c r="AF31" s="51"/>
-      <c r="AG31" s="68" t="s">
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="69"/>
-      <c r="AK31" s="64" t="s">
+      <c r="AH31" s="58"/>
+      <c r="AI31" s="58"/>
+      <c r="AJ31" s="58"/>
+      <c r="AK31" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="AL31" s="65"/>
-      <c r="AM31" s="65"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="54" t="s">
+      <c r="AL31" s="68"/>
+      <c r="AM31" s="68"/>
+      <c r="AN31" s="68"/>
+      <c r="AO31" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="AP31" s="55"/>
-      <c r="AQ31" s="55"/>
-      <c r="AR31" s="55"/>
-      <c r="AS31" s="64" t="s">
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="62"/>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="AT31" s="64"/>
-      <c r="AU31" s="65"/>
-      <c r="AV31" s="65"/>
-      <c r="AW31" s="65"/>
+      <c r="AT31" s="67"/>
+      <c r="AU31" s="68"/>
+      <c r="AV31" s="68"/>
+      <c r="AW31" s="68"/>
     </row>
     <row r="32" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -10714,19 +10757,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="BP1:BS1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AK31:AN31"/>
-    <mergeCell ref="AO31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -10743,6 +10773,19 @@
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="BP1:BS1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AO31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10751,10 +10794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A6FEBD-9C84-4F48-804F-29FA9AB12E44}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D23"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10765,25 +10808,35 @@
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
@@ -10797,13 +10850,23 @@
       <c r="E2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="40">
+        <v>220000</v>
+      </c>
       <c r="G2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="41"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="51"/>
+      <c r="K2" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="52"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
@@ -10819,15 +10882,27 @@
       <c r="E3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="40">
+        <v>220000</v>
+      </c>
       <c r="G3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="41">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1500000</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="51"/>
+      <c r="K3" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="52">
+        <v>820000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
@@ -10841,13 +10916,25 @@
       <c r="E4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="40">
+        <v>220000</v>
+      </c>
       <c r="G4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="41"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="41">
+        <v>98400</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="51"/>
+      <c r="K4" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="52"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
@@ -10861,13 +10948,27 @@
       <c r="E5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="40">
+        <v>220000</v>
+      </c>
       <c r="G5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="41"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H5" s="41">
+        <v>339200</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="52"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
@@ -10881,13 +10982,25 @@
       <c r="E6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="40">
+        <v>220000</v>
+      </c>
       <c r="G6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="41"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H6" s="41">
+        <v>416200</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="51"/>
+      <c r="K6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="52"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
@@ -10906,10 +11019,20 @@
       <c r="F7" s="40">
         <v>220000</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="41"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="28">
+        <v>508440</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="52"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>18</v>
       </c>
@@ -10921,11 +11044,25 @@
       <c r="E8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="41"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F8" s="40">
+        <v>220000</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="28">
+        <v>105000</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="51">
+        <v>500000</v>
+      </c>
+      <c r="K8" s="50"/>
+      <c r="L8" s="52"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>21</v>
       </c>
@@ -10937,11 +11074,23 @@
       <c r="E9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="41"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F9" s="40">
+        <v>220000</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="28">
+        <v>188000</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="51"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="52"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
@@ -10953,11 +11102,23 @@
       <c r="E10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="41"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="40">
+        <v>220000</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="28">
+        <v>15000</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="51"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="52"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
@@ -10969,11 +11130,19 @@
       <c r="E11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="40">
+        <v>220000</v>
+      </c>
       <c r="G11" s="28"/>
-      <c r="H11" s="41"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H11" s="28"/>
+      <c r="I11" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="52"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
@@ -10985,11 +11154,19 @@
       <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="40"/>
+      <c r="F12" s="40">
+        <v>220000</v>
+      </c>
       <c r="G12" s="28"/>
       <c r="H12" s="41"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I12" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="51"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="52"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
@@ -11001,11 +11178,21 @@
       <c r="E13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="40"/>
+      <c r="F13" s="40">
+        <v>220000</v>
+      </c>
       <c r="G13" s="28"/>
       <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I13" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="51">
+        <v>500000</v>
+      </c>
+      <c r="K13" s="50"/>
+      <c r="L13" s="52"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
@@ -11017,11 +11204,19 @@
       <c r="E14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="40">
+        <v>220000</v>
+      </c>
       <c r="G14" s="28"/>
       <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I14" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="51"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="52"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
@@ -11038,8 +11233,14 @@
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I15" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="51"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="52"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
@@ -11051,11 +11252,19 @@
       <c r="E16" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="40"/>
+      <c r="F16" s="40">
+        <v>220000</v>
+      </c>
       <c r="G16" s="28"/>
       <c r="H16" s="41"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I16" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="51"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="52"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>30</v>
       </c>
@@ -11067,11 +11276,19 @@
       <c r="E17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="40"/>
+      <c r="F17" s="40">
+        <v>220000</v>
+      </c>
       <c r="G17" s="28"/>
       <c r="H17" s="41"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I17" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="51"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="52"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>31</v>
       </c>
@@ -11080,14 +11297,20 @@
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="45"/>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="56" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="28"/>
       <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I18" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="51"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="52"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="46"/>
       <c r="C19" s="22"/>
@@ -11096,8 +11319,12 @@
       <c r="F19" s="42"/>
       <c r="G19" s="28"/>
       <c r="H19" s="41"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I19" s="50"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="52"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="23"/>
       <c r="C20" s="22"/>
@@ -11106,8 +11333,12 @@
       <c r="F20" s="29"/>
       <c r="G20" s="28"/>
       <c r="H20" s="41"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I20" s="50"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="52"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>32</v>
       </c>
@@ -11127,17 +11358,31 @@
       </c>
       <c r="F21" s="29">
         <f>SUM(F2:F18)</f>
-        <v>440000</v>
+        <v>3520000</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="41">
         <f>SUM(H2:H20)</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3170240</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="54">
+        <f>SUM(J2:J18)</f>
+        <v>1220000</v>
+      </c>
+      <c r="K21" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="52">
+        <f>SUM(L2:L20)</f>
+        <v>820000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="22"/>
@@ -11146,8 +11391,12 @@
       <c r="F22" s="29"/>
       <c r="G22" s="28"/>
       <c r="H22" s="41"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I22" s="50"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="52"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>34</v>
       </c>
@@ -11161,15 +11410,30 @@
       </c>
       <c r="F23" s="29">
         <f>(F21-H21)</f>
-        <v>-560000</v>
+        <v>349760</v>
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="41"/>
+      <c r="I23" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="54">
+        <f>(J21-L21)</f>
+        <v>400000</v>
+      </c>
+      <c r="K23" s="55"/>
+      <c r="L23" s="52"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25321"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88A24A2-0592-4AC3-A28B-325A5E939DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E30C90A-DA1A-40BA-9FF1-25E0A3DAE392}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="135">
   <si>
     <t>آذر</t>
   </si>
@@ -431,6 +431,15 @@
   </si>
   <si>
     <t xml:space="preserve">خرید بست شلنگ </t>
+  </si>
+  <si>
+    <t>تعویض شیرهای آب زیرزمین و پشت بام</t>
+  </si>
+  <si>
+    <t>خرید گلدان برای کوچه</t>
+  </si>
+  <si>
+    <t>تیر 01</t>
   </si>
 </sst>
 </file>
@@ -469,7 +478,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,12 +551,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -576,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -659,7 +662,15 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1082,109 +1093,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="71" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="75" t="s">
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="65" t="s">
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="63" t="s">
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="71" t="s">
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="75" t="s">
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="65" t="s">
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="63" t="s">
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="61" t="s">
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
       <c r="AT1" s="43"/>
-      <c r="AU1" s="69" t="s">
+      <c r="AU1" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="67" t="s">
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="57" t="s">
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="63" t="s">
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="64"/>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="61" t="s">
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
+      <c r="BK1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="62"/>
-      <c r="BO1" s="62"/>
-      <c r="BP1" s="59" t="s">
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="BQ1" s="60"/>
-      <c r="BR1" s="60"/>
-      <c r="BS1" s="60"/>
+      <c r="BQ1" s="62"/>
+      <c r="BR1" s="62"/>
+      <c r="BS1" s="62"/>
     </row>
     <row r="2" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4921,85 +4932,85 @@
     </row>
     <row r="30" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
     </row>
     <row r="31" spans="1:71" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="77" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="67" t="s">
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="63" t="s">
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="69" t="s">
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="70"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="65" t="s">
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="71" t="s">
+      <c r="V31" s="68"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="68"/>
+      <c r="Y31" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="72"/>
-      <c r="AA31" s="72"/>
-      <c r="AB31" s="72"/>
-      <c r="AC31" s="63" t="s">
+      <c r="Z31" s="74"/>
+      <c r="AA31" s="74"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="64"/>
-      <c r="AE31" s="64"/>
-      <c r="AF31" s="64"/>
-      <c r="AG31" s="57" t="s">
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="AH31" s="58"/>
-      <c r="AI31" s="58"/>
-      <c r="AJ31" s="58"/>
-      <c r="AK31" s="67" t="s">
+      <c r="AH31" s="60"/>
+      <c r="AI31" s="60"/>
+      <c r="AJ31" s="60"/>
+      <c r="AK31" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="AL31" s="68"/>
-      <c r="AM31" s="68"/>
-      <c r="AN31" s="68"/>
-      <c r="AO31" s="61" t="s">
+      <c r="AL31" s="70"/>
+      <c r="AM31" s="70"/>
+      <c r="AN31" s="70"/>
+      <c r="AO31" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="AP31" s="62"/>
-      <c r="AQ31" s="62"/>
-      <c r="AR31" s="62"/>
-      <c r="AS31" s="67" t="s">
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="64"/>
+      <c r="AR31" s="64"/>
+      <c r="AS31" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="AT31" s="67"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="68"/>
+      <c r="AT31" s="69"/>
+      <c r="AU31" s="70"/>
+      <c r="AV31" s="70"/>
+      <c r="AW31" s="70"/>
     </row>
     <row r="32" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -10794,10 +10805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A6FEBD-9C84-4F48-804F-29FA9AB12E44}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10808,35 +10819,47 @@
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="67" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="79" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
@@ -10860,13 +10883,26 @@
       <c r="I2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="50" t="s">
+      <c r="J2" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K2" s="51">
+        <v>1500000</v>
+      </c>
+      <c r="L2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="52"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M2" s="52"/>
+      <c r="N2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="56"/>
+      <c r="P2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="57"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
@@ -10894,15 +10930,28 @@
       <c r="I3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="50" t="s">
+      <c r="J3" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K3" s="51">
+        <v>1500000</v>
+      </c>
+      <c r="L3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="52">
-        <v>820000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M3" s="52">
+        <v>1220000</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="57"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
@@ -10928,13 +10977,24 @@
       <c r="I4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="50" t="s">
+      <c r="J4" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K4" s="51"/>
+      <c r="L4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="52"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M4" s="52"/>
+      <c r="N4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="56"/>
+      <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="57"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
@@ -10963,12 +11023,21 @@
       <c r="J5" s="51">
         <v>220000</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="51"/>
+      <c r="L5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="52"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M5" s="52"/>
+      <c r="N5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="56"/>
+      <c r="P5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="57"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
@@ -10994,13 +11063,24 @@
       <c r="I6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="50" t="s">
+      <c r="J6" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K6" s="51"/>
+      <c r="L6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="52"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M6" s="52"/>
+      <c r="N6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="56"/>
+      <c r="P6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="57"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
@@ -11022,17 +11102,28 @@
       <c r="G7" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="41">
         <v>508440</v>
       </c>
       <c r="I7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="52"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J7" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K7" s="51">
+        <v>1500000</v>
+      </c>
+      <c r="L7" s="50"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="56"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="57"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>18</v>
       </c>
@@ -11050,19 +11141,28 @@
       <c r="G8" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="41">
         <v>105000</v>
       </c>
       <c r="I8" s="50" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="51">
-        <v>500000</v>
-      </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="52"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>220000</v>
+      </c>
+      <c r="K8" s="51"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="56">
+        <v>280000</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="57"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>21</v>
       </c>
@@ -11080,17 +11180,26 @@
       <c r="G9" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="41">
         <v>188000</v>
       </c>
       <c r="I9" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="52"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J9" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K9" s="51"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="56"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="57"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
@@ -11108,17 +11217,26 @@
       <c r="G10" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="41">
         <v>15000</v>
       </c>
       <c r="I10" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="52"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J10" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K10" s="51"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="56"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="57"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
@@ -11133,16 +11251,29 @@
       <c r="F11" s="40">
         <v>220000</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="41">
+        <v>365000</v>
+      </c>
       <c r="I11" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="52"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J11" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K11" s="51"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="56"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="57"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
@@ -11157,16 +11288,29 @@
       <c r="F12" s="40">
         <v>220000</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="41"/>
+      <c r="G12" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="41">
+        <v>999000</v>
+      </c>
       <c r="I12" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="52"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J12" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K12" s="51"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="56"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="57"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
@@ -11187,12 +11331,23 @@
         <v>26</v>
       </c>
       <c r="J13" s="51">
-        <v>500000</v>
-      </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="52"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>220000</v>
+      </c>
+      <c r="K13" s="51">
+        <v>1500000</v>
+      </c>
+      <c r="L13" s="50"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="56">
+        <v>280000</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="57"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
@@ -11212,11 +11367,22 @@
       <c r="I14" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="52"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J14" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K14" s="51">
+        <v>1500000</v>
+      </c>
+      <c r="L14" s="50"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="56"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="57"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
@@ -11236,11 +11402,22 @@
       <c r="I15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="52"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K15" s="51">
+        <v>1500000</v>
+      </c>
+      <c r="L15" s="50"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="56"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="57"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
@@ -11260,11 +11437,22 @@
       <c r="I16" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="52"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J16" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K16" s="51">
+        <v>1500000</v>
+      </c>
+      <c r="L16" s="50"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="56"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="57"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>30</v>
       </c>
@@ -11284,11 +11472,20 @@
       <c r="I17" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="52"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K17" s="51"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="56"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="57"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>31</v>
       </c>
@@ -11297,20 +11494,31 @@
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="45"/>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="40"/>
+      <c r="F18" s="40">
+        <v>220000</v>
+      </c>
       <c r="G18" s="28"/>
       <c r="H18" s="41"/>
       <c r="I18" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="52"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="51">
+        <v>220000</v>
+      </c>
+      <c r="K18" s="51"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="56"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="57"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="46"/>
       <c r="C19" s="22"/>
@@ -11321,10 +11529,15 @@
       <c r="H19" s="41"/>
       <c r="I19" s="50"/>
       <c r="J19" s="53"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="52"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K19" s="53"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="57"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="23"/>
       <c r="C20" s="22"/>
@@ -11335,10 +11548,15 @@
       <c r="H20" s="41"/>
       <c r="I20" s="50"/>
       <c r="J20" s="54"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="52"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K20" s="54"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="57"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>32</v>
       </c>
@@ -11358,31 +11576,46 @@
       </c>
       <c r="F21" s="29">
         <f>SUM(F2:F18)</f>
-        <v>3520000</v>
+        <v>3740000</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="41">
         <f>SUM(H2:H20)</f>
-        <v>3170240</v>
+        <v>4534240</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>32</v>
       </c>
       <c r="J21" s="54">
         <f>SUM(J2:J18)</f>
+        <v>3740000</v>
+      </c>
+      <c r="K21" s="54"/>
+      <c r="L21" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="52">
+        <f>SUM(M2:M20)</f>
         <v>1220000</v>
       </c>
-      <c r="K21" s="55" t="s">
+      <c r="N21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="8">
+        <f>SUM(O2:O18)</f>
+        <v>560000</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="52">
-        <f>SUM(L2:L20)</f>
-        <v>820000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q21" s="57">
+        <f>SUM(Q2:Q20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="22"/>
@@ -11393,10 +11626,15 @@
       <c r="H22" s="41"/>
       <c r="I22" s="50"/>
       <c r="J22" s="54"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="52"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K22" s="54"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="57"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>34</v>
       </c>
@@ -11410,7 +11648,7 @@
       </c>
       <c r="F23" s="29">
         <f>(F21-H21)</f>
-        <v>349760</v>
+        <v>-794240</v>
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="41"/>
@@ -11418,22 +11656,33 @@
         <v>34</v>
       </c>
       <c r="J23" s="54">
-        <f>(J21-L21)</f>
-        <v>400000</v>
-      </c>
-      <c r="K23" s="55"/>
-      <c r="L23" s="52"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <f>(J21-M21)</f>
+        <v>2520000</v>
+      </c>
+      <c r="K23" s="54"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="8">
+        <f>(O21-Q21)</f>
+        <v>560000</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="57"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E30C90A-DA1A-40BA-9FF1-25E0A3DAE392}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBEEF00-0BA7-4396-AF9C-3D91F1A7DB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="142">
   <si>
     <t>آذر</t>
   </si>
@@ -440,6 +440,27 @@
   </si>
   <si>
     <t>تیر 01</t>
+  </si>
+  <si>
+    <t>انشعاب داخلی فاضلاب</t>
+  </si>
+  <si>
+    <t>تعیمر پریزهای برق حیاط</t>
+  </si>
+  <si>
+    <t>بازسازی دیوارها و ستونهای پارکینگ</t>
+  </si>
+  <si>
+    <t>خرید برای ساختمان</t>
+  </si>
+  <si>
+    <t>تعمیر ایفون تصویری سرایداری</t>
+  </si>
+  <si>
+    <t>خرید اسپری سوسک کش برای سرایدار</t>
+  </si>
+  <si>
+    <t>تمدید بیمه نامه آسانسور</t>
   </si>
 </sst>
 </file>
@@ -671,24 +692,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,16 +704,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,6 +728,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1093,65 +1114,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="73" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="77" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="67" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="65" t="s">
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="73" t="s">
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="77" t="s">
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="67" t="s">
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="65" t="s">
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
       <c r="AP1" s="63" t="s">
         <v>74</v>
       </c>
@@ -1159,30 +1180,30 @@
       <c r="AR1" s="64"/>
       <c r="AS1" s="64"/>
       <c r="AT1" s="43"/>
-      <c r="AU1" s="71" t="s">
+      <c r="AU1" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
-      <c r="AX1" s="72"/>
-      <c r="AY1" s="69" t="s">
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="59" t="s">
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
-      <c r="BG1" s="65" t="s">
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="66"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="66"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
       <c r="BK1" s="63" t="s">
         <v>2</v>
       </c>
@@ -1190,12 +1211,12 @@
       <c r="BM1" s="64"/>
       <c r="BN1" s="64"/>
       <c r="BO1" s="64"/>
-      <c r="BP1" s="61" t="s">
+      <c r="BP1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="BQ1" s="62"/>
-      <c r="BR1" s="62"/>
-      <c r="BS1" s="62"/>
+      <c r="BQ1" s="80"/>
+      <c r="BR1" s="80"/>
+      <c r="BS1" s="80"/>
     </row>
     <row r="2" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4932,10 +4953,10 @@
     </row>
     <row r="30" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
     </row>
     <row r="31" spans="1:71" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="63" t="s">
@@ -4944,73 +4965,73 @@
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
-      <c r="E31" s="79" t="s">
+      <c r="E31" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="69" t="s">
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="65" t="s">
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="71" t="s">
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="67" t="s">
+      <c r="R31" s="76"/>
+      <c r="S31" s="76"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="73" t="s">
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="74"/>
-      <c r="AA31" s="74"/>
-      <c r="AB31" s="74"/>
-      <c r="AC31" s="65" t="s">
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="66"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="59" t="s">
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="60"/>
+      <c r="AG31" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="60"/>
-      <c r="AJ31" s="60"/>
-      <c r="AK31" s="69" t="s">
+      <c r="AH31" s="78"/>
+      <c r="AI31" s="78"/>
+      <c r="AJ31" s="78"/>
+      <c r="AK31" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="AL31" s="70"/>
-      <c r="AM31" s="70"/>
-      <c r="AN31" s="70"/>
+      <c r="AL31" s="74"/>
+      <c r="AM31" s="74"/>
+      <c r="AN31" s="74"/>
       <c r="AO31" s="63" t="s">
         <v>121</v>
       </c>
       <c r="AP31" s="64"/>
       <c r="AQ31" s="64"/>
       <c r="AR31" s="64"/>
-      <c r="AS31" s="69" t="s">
+      <c r="AS31" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="AT31" s="69"/>
-      <c r="AU31" s="70"/>
-      <c r="AV31" s="70"/>
-      <c r="AW31" s="70"/>
+      <c r="AT31" s="73"/>
+      <c r="AU31" s="74"/>
+      <c r="AV31" s="74"/>
+      <c r="AW31" s="74"/>
     </row>
     <row r="32" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -10768,6 +10789,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="BP1:BS1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AO31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -10784,19 +10818,6 @@
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="BP1:BS1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AK31:AN31"/>
-    <mergeCell ref="AO31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10808,7 +10829,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10822,10 +10843,10 @@
     <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -10839,12 +10860,12 @@
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
       <c r="D1" s="64"/>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
       <c r="I1" s="81" t="s">
         <v>128</v>
       </c>
@@ -10852,12 +10873,12 @@
       <c r="K1" s="82"/>
       <c r="L1" s="82"/>
       <c r="M1" s="82"/>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -10892,7 +10913,9 @@
       <c r="L2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="52"/>
+      <c r="M2" s="52">
+        <v>415000</v>
+      </c>
       <c r="N2" s="7" t="s">
         <v>4</v>
       </c>
@@ -10940,7 +10963,7 @@
         <v>11</v>
       </c>
       <c r="M3" s="52">
-        <v>1220000</v>
+        <v>1500000</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>7</v>
@@ -10980,11 +11003,15 @@
       <c r="J4" s="51">
         <v>220000</v>
       </c>
-      <c r="K4" s="51"/>
+      <c r="K4" s="51">
+        <v>1500000</v>
+      </c>
       <c r="L4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="52"/>
+      <c r="M4" s="52">
+        <v>60800</v>
+      </c>
       <c r="N4" s="7" t="s">
         <v>10</v>
       </c>
@@ -11023,7 +11050,9 @@
       <c r="J5" s="51">
         <v>220000</v>
       </c>
-      <c r="K5" s="51"/>
+      <c r="K5" s="51">
+        <v>1500000</v>
+      </c>
       <c r="L5" s="50" t="s">
         <v>8</v>
       </c>
@@ -11066,11 +11095,15 @@
       <c r="J6" s="51">
         <v>220000</v>
       </c>
-      <c r="K6" s="51"/>
+      <c r="K6" s="51">
+        <v>1500000</v>
+      </c>
       <c r="L6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="52"/>
+      <c r="M6" s="52">
+        <v>586200</v>
+      </c>
       <c r="N6" s="7" t="s">
         <v>14</v>
       </c>
@@ -11114,8 +11147,12 @@
       <c r="K7" s="51">
         <v>1500000</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="52"/>
+      <c r="L7" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" s="52">
+        <v>23400000</v>
+      </c>
       <c r="N7" s="7" t="s">
         <v>15</v>
       </c>
@@ -11150,15 +11187,19 @@
       <c r="J8" s="51">
         <v>220000</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="52"/>
+      <c r="K8" s="51">
+        <v>1500000</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="52">
+        <v>2000000</v>
+      </c>
       <c r="N8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="56">
-        <v>280000</v>
-      </c>
+      <c r="O8" s="56"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="57"/>
     </row>
@@ -11189,9 +11230,15 @@
       <c r="J9" s="51">
         <v>220000</v>
       </c>
-      <c r="K9" s="51"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="52"/>
+      <c r="K9" s="51">
+        <v>1500000</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="52">
+        <v>110000</v>
+      </c>
       <c r="N9" s="7" t="s">
         <v>21</v>
       </c>
@@ -11226,9 +11273,15 @@
       <c r="J10" s="51">
         <v>220000</v>
       </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="52"/>
+      <c r="K10" s="51">
+        <v>1500000</v>
+      </c>
+      <c r="L10" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="52">
+        <v>240000</v>
+      </c>
       <c r="N10" s="7" t="s">
         <v>23</v>
       </c>
@@ -11263,9 +11316,15 @@
       <c r="J11" s="51">
         <v>220000</v>
       </c>
-      <c r="K11" s="51"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="52"/>
+      <c r="K11" s="51">
+        <v>1500000</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" s="52">
+        <v>44000</v>
+      </c>
       <c r="N11" s="7" t="s">
         <v>24</v>
       </c>
@@ -11300,9 +11359,15 @@
       <c r="J12" s="51">
         <v>220000</v>
       </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="52"/>
+      <c r="K12" s="51">
+        <v>1500000</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="52">
+        <v>100000</v>
+      </c>
       <c r="N12" s="7" t="s">
         <v>25</v>
       </c>
@@ -11336,14 +11401,16 @@
       <c r="K13" s="51">
         <v>1500000</v>
       </c>
-      <c r="L13" s="50"/>
-      <c r="M13" s="52"/>
+      <c r="L13" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" s="52">
+        <v>550000</v>
+      </c>
       <c r="N13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="56">
-        <v>280000</v>
-      </c>
+      <c r="O13" s="56"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="57"/>
     </row>
@@ -11475,7 +11542,9 @@
       <c r="J17" s="51">
         <v>220000</v>
       </c>
-      <c r="K17" s="51"/>
+      <c r="K17" s="51">
+        <v>1500000</v>
+      </c>
       <c r="L17" s="50"/>
       <c r="M17" s="52"/>
       <c r="N17" s="7" t="s">
@@ -11508,7 +11577,9 @@
       <c r="J18" s="51">
         <v>220000</v>
       </c>
-      <c r="K18" s="51"/>
+      <c r="K18" s="51">
+        <v>1500000</v>
+      </c>
       <c r="L18" s="50"/>
       <c r="M18" s="52"/>
       <c r="N18" s="7" t="s">
@@ -11592,20 +11663,23 @@
         <f>SUM(J2:J18)</f>
         <v>3740000</v>
       </c>
-      <c r="K21" s="54"/>
+      <c r="K21" s="54">
+        <f>SUM(K2:K20)</f>
+        <v>25500000</v>
+      </c>
       <c r="L21" s="55" t="s">
         <v>33</v>
       </c>
       <c r="M21" s="52">
         <f>SUM(M2:M20)</f>
-        <v>1220000</v>
+        <v>29006000</v>
       </c>
       <c r="N21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="8">
         <f>SUM(O2:O18)</f>
-        <v>560000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>33</v>
@@ -11657,7 +11731,7 @@
       </c>
       <c r="J23" s="54">
         <f>(J21-M21)</f>
-        <v>2520000</v>
+        <v>-25266000</v>
       </c>
       <c r="K23" s="54"/>
       <c r="L23" s="55"/>
@@ -11667,7 +11741,7 @@
       </c>
       <c r="O23" s="8">
         <f>(O21-Q21)</f>
-        <v>560000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="57"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBEEF00-0BA7-4396-AF9C-3D91F1A7DB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE681D6B-EB90-4709-9757-96A4FC47A150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,12 +566,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -600,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -671,18 +665,6 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,6 +672,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,12 +743,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1114,109 +1099,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="65" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="69" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="61" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="59" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="65" t="s">
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="69" t="s">
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="61" t="s">
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="59" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="63" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
       <c r="AT1" s="43"/>
-      <c r="AU1" s="75" t="s">
+      <c r="AU1" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="73" t="s">
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="AZ1" s="74"/>
-      <c r="BA1" s="74"/>
-      <c r="BB1" s="74"/>
-      <c r="BC1" s="77" t="s">
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="71"/>
+      <c r="BB1" s="71"/>
+      <c r="BC1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-      <c r="BG1" s="59" t="s">
+      <c r="BD1" s="75"/>
+      <c r="BE1" s="75"/>
+      <c r="BF1" s="75"/>
+      <c r="BG1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
-      <c r="BK1" s="63" t="s">
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57"/>
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="79" t="s">
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="BQ1" s="80"/>
-      <c r="BR1" s="80"/>
-      <c r="BS1" s="80"/>
+      <c r="BQ1" s="77"/>
+      <c r="BR1" s="77"/>
+      <c r="BS1" s="77"/>
     </row>
     <row r="2" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4953,85 +4938,85 @@
     </row>
     <row r="30" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
     </row>
     <row r="31" spans="1:71" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="71" t="s">
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="73" t="s">
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="59" t="s">
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="75" t="s">
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="76"/>
-      <c r="S31" s="76"/>
-      <c r="T31" s="76"/>
-      <c r="U31" s="61" t="s">
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="65" t="s">
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="59" t="s">
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="60"/>
-      <c r="AE31" s="60"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="77" t="s">
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="AH31" s="78"/>
-      <c r="AI31" s="78"/>
-      <c r="AJ31" s="78"/>
-      <c r="AK31" s="73" t="s">
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="75"/>
+      <c r="AJ31" s="75"/>
+      <c r="AK31" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="AL31" s="74"/>
-      <c r="AM31" s="74"/>
-      <c r="AN31" s="74"/>
-      <c r="AO31" s="63" t="s">
+      <c r="AL31" s="71"/>
+      <c r="AM31" s="71"/>
+      <c r="AN31" s="71"/>
+      <c r="AO31" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="AP31" s="64"/>
-      <c r="AQ31" s="64"/>
-      <c r="AR31" s="64"/>
-      <c r="AS31" s="73" t="s">
+      <c r="AP31" s="61"/>
+      <c r="AQ31" s="61"/>
+      <c r="AR31" s="61"/>
+      <c r="AS31" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="AT31" s="73"/>
-      <c r="AU31" s="74"/>
-      <c r="AV31" s="74"/>
-      <c r="AW31" s="74"/>
+      <c r="AT31" s="70"/>
+      <c r="AU31" s="71"/>
+      <c r="AV31" s="71"/>
+      <c r="AW31" s="71"/>
     </row>
     <row r="32" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -10828,8 +10813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A6FEBD-9C84-4F48-804F-29FA9AB12E44}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10848,37 +10833,37 @@
     <col min="12" max="12" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="73" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="81" t="s">
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="59" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -10901,29 +10886,31 @@
         <v>6</v>
       </c>
       <c r="H2" s="41"/>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="51">
+      <c r="J2" s="53">
         <v>220000</v>
       </c>
-      <c r="K2" s="51">
+      <c r="K2" s="53">
         <v>1500000</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="52">
+      <c r="M2" s="54">
         <v>415000</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="56"/>
+      <c r="O2" s="50">
+        <v>220000</v>
+      </c>
       <c r="P2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="57"/>
+      <c r="Q2" s="51"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -10950,29 +10937,33 @@
       <c r="H3" s="41">
         <v>1500000</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="53">
         <v>220000</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="53">
         <v>1500000</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="52">
+      <c r="M3" s="54">
         <v>1500000</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="56"/>
+      <c r="O3" s="50">
+        <v>220000</v>
+      </c>
       <c r="P3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="57"/>
+      <c r="Q3" s="51">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
@@ -10997,29 +10988,31 @@
       <c r="H4" s="41">
         <v>98400</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="53">
         <v>220000</v>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="53">
         <v>1500000</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="52">
+      <c r="M4" s="54">
         <v>60800</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="56"/>
+      <c r="O4" s="50">
+        <v>220000</v>
+      </c>
       <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="57"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
@@ -11044,27 +11037,27 @@
       <c r="H5" s="41">
         <v>339200</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="53">
         <v>220000</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="53">
         <v>1500000</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="52"/>
+      <c r="M5" s="54"/>
       <c r="N5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="56"/>
+      <c r="O5" s="50"/>
       <c r="P5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="57"/>
+      <c r="Q5" s="51"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
@@ -11089,29 +11082,33 @@
       <c r="H6" s="41">
         <v>416200</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="53">
         <v>220000</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="53">
         <v>1500000</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="54">
         <v>586200</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="56"/>
+      <c r="O6" s="50">
+        <v>220000</v>
+      </c>
       <c r="P6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="57"/>
+      <c r="Q6" s="51">
+        <v>243000</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
@@ -11138,27 +11135,29 @@
       <c r="H7" s="41">
         <v>508440</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="53">
         <v>220000</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="53">
         <v>1500000</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="54">
         <v>23400000</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="56"/>
+      <c r="O7" s="50">
+        <v>220000</v>
+      </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="57"/>
+      <c r="Q7" s="51"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -11181,27 +11180,29 @@
       <c r="H8" s="41">
         <v>105000</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="53">
         <v>220000</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="53">
         <v>1500000</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="54">
         <v>2000000</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="56"/>
+      <c r="O8" s="50">
+        <v>220000</v>
+      </c>
       <c r="P8" s="7"/>
-      <c r="Q8" s="57"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -11224,27 +11225,29 @@
       <c r="H9" s="41">
         <v>188000</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="53">
         <v>220000</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="53">
         <v>1500000</v>
       </c>
-      <c r="L9" s="50" t="s">
+      <c r="L9" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="M9" s="52">
+      <c r="M9" s="54">
         <v>110000</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="56"/>
+      <c r="O9" s="50">
+        <v>220000</v>
+      </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="57"/>
+      <c r="Q9" s="51"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -11267,27 +11270,29 @@
       <c r="H10" s="41">
         <v>15000</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="53">
         <v>220000</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="53">
         <v>1500000</v>
       </c>
-      <c r="L10" s="50" t="s">
+      <c r="L10" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="54">
         <v>240000</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="56"/>
+      <c r="O10" s="50">
+        <v>220000</v>
+      </c>
       <c r="P10" s="7"/>
-      <c r="Q10" s="57"/>
+      <c r="Q10" s="51"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
@@ -11310,27 +11315,29 @@
       <c r="H11" s="41">
         <v>365000</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="53">
         <v>220000</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="53">
         <v>1500000</v>
       </c>
-      <c r="L11" s="50" t="s">
+      <c r="L11" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="M11" s="52">
+      <c r="M11" s="54">
         <v>44000</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="56"/>
+      <c r="O11" s="50">
+        <v>220000</v>
+      </c>
       <c r="P11" s="7"/>
-      <c r="Q11" s="57"/>
+      <c r="Q11" s="51"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
@@ -11353,27 +11360,29 @@
       <c r="H12" s="41">
         <v>999000</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="53">
         <v>220000</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="53">
         <v>1500000</v>
       </c>
-      <c r="L12" s="50" t="s">
+      <c r="L12" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="M12" s="52">
+      <c r="M12" s="54">
         <v>100000</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="56"/>
+      <c r="O12" s="50">
+        <v>220000</v>
+      </c>
       <c r="P12" s="7"/>
-      <c r="Q12" s="57"/>
+      <c r="Q12" s="51"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -11392,27 +11401,29 @@
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="41"/>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="53">
         <v>220000</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="53">
         <v>1500000</v>
       </c>
-      <c r="L13" s="50" t="s">
+      <c r="L13" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M13" s="54">
         <v>550000</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="56"/>
+      <c r="O13" s="50">
+        <v>220000</v>
+      </c>
       <c r="P13" s="7"/>
-      <c r="Q13" s="57"/>
+      <c r="Q13" s="51"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -11431,23 +11442,25 @@
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="41"/>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="53">
         <v>220000</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="53">
         <v>1500000</v>
       </c>
-      <c r="L14" s="50"/>
-      <c r="M14" s="52"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="54"/>
       <c r="N14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="56"/>
+      <c r="O14" s="50">
+        <v>220000</v>
+      </c>
       <c r="P14" s="7"/>
-      <c r="Q14" s="57"/>
+      <c r="Q14" s="51"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
@@ -11466,23 +11479,25 @@
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="41"/>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="53">
         <v>220000</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="53">
         <v>1500000</v>
       </c>
-      <c r="L15" s="50"/>
-      <c r="M15" s="52"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="54"/>
       <c r="N15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="56"/>
+      <c r="O15" s="50">
+        <v>220000</v>
+      </c>
       <c r="P15" s="7"/>
-      <c r="Q15" s="57"/>
+      <c r="Q15" s="51"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
@@ -11501,23 +11516,23 @@
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="53">
         <v>220000</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="53">
         <v>1500000</v>
       </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="52"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="54"/>
       <c r="N16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="56"/>
+      <c r="O16" s="50"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="57"/>
+      <c r="Q16" s="51"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
@@ -11536,23 +11551,25 @@
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="41"/>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="53">
         <v>220000</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="53">
         <v>1500000</v>
       </c>
-      <c r="L17" s="50"/>
-      <c r="M17" s="52"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="54"/>
       <c r="N17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="56"/>
+      <c r="O17" s="50">
+        <v>220000</v>
+      </c>
       <c r="P17" s="7"/>
-      <c r="Q17" s="57"/>
+      <c r="Q17" s="51"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
@@ -11571,23 +11588,25 @@
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="53">
         <v>220000</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="53">
         <v>1500000</v>
       </c>
-      <c r="L18" s="50"/>
-      <c r="M18" s="52"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="54"/>
       <c r="N18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="56"/>
+      <c r="O18" s="50">
+        <v>220000</v>
+      </c>
       <c r="P18" s="7"/>
-      <c r="Q18" s="57"/>
+      <c r="Q18" s="51"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
@@ -11598,15 +11617,15 @@
       <c r="F19" s="42"/>
       <c r="G19" s="28"/>
       <c r="H19" s="41"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="52"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="54"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="58"/>
+      <c r="O19" s="52"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="57"/>
+      <c r="Q19" s="51"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
@@ -11617,15 +11636,15 @@
       <c r="F20" s="29"/>
       <c r="G20" s="28"/>
       <c r="H20" s="41"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="52"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="54"/>
       <c r="N20" s="7"/>
       <c r="O20" s="8"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="57"/>
+      <c r="Q20" s="51"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -11656,21 +11675,21 @@
         <f>SUM(H2:H20)</f>
         <v>4534240</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="26">
         <f>SUM(J2:J18)</f>
         <v>3740000</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="26">
         <f>SUM(K2:K20)</f>
         <v>25500000</v>
       </c>
-      <c r="L21" s="55" t="s">
+      <c r="L21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="52">
+      <c r="M21" s="54">
         <f>SUM(M2:M20)</f>
         <v>29006000</v>
       </c>
@@ -11679,14 +11698,14 @@
       </c>
       <c r="O21" s="8">
         <f>SUM(O2:O18)</f>
-        <v>0</v>
+        <v>3300000</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="57">
+      <c r="Q21" s="51">
         <f>SUM(Q2:Q20)</f>
-        <v>0</v>
+        <v>1243000</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -11698,15 +11717,15 @@
       <c r="F22" s="29"/>
       <c r="G22" s="28"/>
       <c r="H22" s="41"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="52"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="54"/>
       <c r="N22" s="7"/>
       <c r="O22" s="8"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="57"/>
+      <c r="Q22" s="51"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
@@ -11726,25 +11745,25 @@
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="41"/>
-      <c r="I23" s="55" t="s">
+      <c r="I23" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="54">
-        <f>(J21-M21)</f>
-        <v>-25266000</v>
-      </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="52"/>
+      <c r="J23" s="26">
+        <f>(J2+K21-M21)</f>
+        <v>-3286000</v>
+      </c>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="54"/>
       <c r="N23" s="9" t="s">
         <v>34</v>
       </c>
       <c r="O23" s="8">
         <f>(O21-Q21)</f>
-        <v>0</v>
+        <v>2057000</v>
       </c>
       <c r="P23" s="9"/>
-      <c r="Q23" s="57"/>
+      <c r="Q23" s="51"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE681D6B-EB90-4709-9757-96A4FC47A150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFAA138-E86A-4D4E-90FD-17AA94190F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="142">
   <si>
     <t>آذر</t>
   </si>
@@ -499,7 +499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,6 +566,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -594,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -745,6 +751,24 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10811,10 +10835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A6FEBD-9C84-4F48-804F-29FA9AB12E44}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10836,9 +10860,11 @@
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>125</v>
       </c>
@@ -10864,8 +10890,14 @@
       <c r="O1" s="57"/>
       <c r="P1" s="57"/>
       <c r="Q1" s="57"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R1" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
@@ -10911,8 +10943,16 @@
         <v>6</v>
       </c>
       <c r="Q2" s="51"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R2" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="81"/>
+      <c r="T2" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="82"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
@@ -10962,10 +11002,20 @@
         <v>11</v>
       </c>
       <c r="Q3" s="51">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1500000</v>
+      </c>
+      <c r="R3" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="81"/>
+      <c r="T3" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="82">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
@@ -11013,8 +11063,16 @@
         <v>17</v>
       </c>
       <c r="Q4" s="51"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R4" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="81"/>
+      <c r="T4" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="82"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
@@ -11053,13 +11111,27 @@
       <c r="N5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="50"/>
+      <c r="O5" s="50">
+        <v>220000</v>
+      </c>
       <c r="P5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="51"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q5" s="51">
+        <v>243000</v>
+      </c>
+      <c r="R5" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="81">
+        <v>220000</v>
+      </c>
+      <c r="T5" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="82"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
@@ -11107,10 +11179,18 @@
         <v>5</v>
       </c>
       <c r="Q6" s="51">
-        <v>243000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>979600</v>
+      </c>
+      <c r="R6" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="81"/>
+      <c r="T6" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="82"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
@@ -11158,8 +11238,14 @@
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="51"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R7" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="81"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="82"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>18</v>
       </c>
@@ -11203,8 +11289,14 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="51"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R8" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="81"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="82"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>21</v>
       </c>
@@ -11248,8 +11340,14 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="51"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R9" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="81"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="82"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
@@ -11293,8 +11391,14 @@
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="51"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R10" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="81"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="82"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
@@ -11338,8 +11442,14 @@
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="51"/>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R11" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="81"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="82"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
@@ -11383,8 +11493,14 @@
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="51"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R12" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="81"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="82"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
@@ -11414,7 +11530,7 @@
         <v>138</v>
       </c>
       <c r="M13" s="54">
-        <v>550000</v>
+        <v>55000</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>26</v>
@@ -11424,8 +11540,14 @@
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="51"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R13" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="81"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="82"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
@@ -11461,8 +11583,14 @@
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="51"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R14" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="81"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="82"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
@@ -11498,8 +11626,14 @@
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="51"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R15" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15" s="81"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="82"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
@@ -11530,11 +11664,19 @@
       <c r="N16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="50"/>
+      <c r="O16" s="50">
+        <v>220000</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="51"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R16" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="81"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="82"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>30</v>
       </c>
@@ -11570,8 +11712,14 @@
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="51"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R17" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" s="81"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="82"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>31</v>
       </c>
@@ -11607,8 +11755,14 @@
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="51"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R18" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="81"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="82"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="46"/>
       <c r="C19" s="22"/>
@@ -11626,8 +11780,12 @@
       <c r="O19" s="52"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="51"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R19" s="80"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="82"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="23"/>
       <c r="C20" s="22"/>
@@ -11645,8 +11803,12 @@
       <c r="O20" s="8"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="51"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R20" s="80"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="82"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>32</v>
       </c>
@@ -11691,24 +11853,38 @@
       </c>
       <c r="M21" s="54">
         <f>SUM(M2:M20)</f>
-        <v>29006000</v>
+        <v>28511000</v>
       </c>
       <c r="N21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="8">
         <f>SUM(O2:O18)</f>
-        <v>3300000</v>
+        <v>3740000</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="Q21" s="51">
         <f>SUM(Q2:Q20)</f>
-        <v>1243000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2722600</v>
+      </c>
+      <c r="R21" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="84">
+        <f>SUM(S2:S18)</f>
+        <v>220000</v>
+      </c>
+      <c r="T21" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" s="82">
+        <f>SUM(U2:U20)</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="22"/>
@@ -11726,8 +11902,12 @@
       <c r="O22" s="8"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="51"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R22" s="80"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="82"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>34</v>
       </c>
@@ -11750,7 +11930,7 @@
       </c>
       <c r="J23" s="26">
         <f>(J2+K21-M21)</f>
-        <v>-3286000</v>
+        <v>-2791000</v>
       </c>
       <c r="K23" s="26"/>
       <c r="L23" s="27"/>
@@ -11760,22 +11940,32 @@
       </c>
       <c r="O23" s="8">
         <f>(O21-Q21)</f>
-        <v>2057000</v>
+        <v>1017400</v>
       </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="51"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="84">
+        <f>(S21-U21)</f>
+        <v>-20000</v>
+      </c>
+      <c r="T23" s="85"/>
+      <c r="U23" s="82"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Building-Management .xlsx
+++ b/Building-Management .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen\Documents\Building-Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFAA138-E86A-4D4E-90FD-17AA94190F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B520326D-A268-4783-AF66-D13B242AAACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="147">
   <si>
     <t>آذر</t>
   </si>
@@ -461,6 +461,21 @@
   </si>
   <si>
     <t>تمدید بیمه نامه آسانسور</t>
+  </si>
+  <si>
+    <t>سرویس کولر سرایدار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لامپ پاگرد طبقه </t>
+  </si>
+  <si>
+    <t>مرداد 01</t>
+  </si>
+  <si>
+    <t>شوینده برای ساختمان</t>
+  </si>
+  <si>
+    <t>شهریور 01</t>
   </si>
 </sst>
 </file>
@@ -600,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -689,6 +704,36 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,10 +746,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -727,48 +778,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,109 +1139,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="62" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="66" t="s">
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="58" t="s">
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="56" t="s">
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="62" t="s">
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="66" t="s">
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="58" t="s">
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="56" t="s">
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="60" t="s">
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
       <c r="AT1" s="43"/>
-      <c r="AU1" s="72" t="s">
+      <c r="AU1" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="70" t="s">
+      <c r="AV1" s="75"/>
+      <c r="AW1" s="75"/>
+      <c r="AX1" s="75"/>
+      <c r="AY1" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="71"/>
-      <c r="BB1" s="71"/>
-      <c r="BC1" s="74" t="s">
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
+      <c r="BC1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="BD1" s="75"/>
-      <c r="BE1" s="75"/>
-      <c r="BF1" s="75"/>
-      <c r="BG1" s="56" t="s">
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="60" t="s">
+      <c r="BH1" s="69"/>
+      <c r="BI1" s="69"/>
+      <c r="BJ1" s="69"/>
+      <c r="BK1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="BL1" s="61"/>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="61"/>
-      <c r="BO1" s="61"/>
-      <c r="BP1" s="76" t="s">
+      <c r="BL1" s="67"/>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="67"/>
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="BQ1" s="77"/>
-      <c r="BR1" s="77"/>
-      <c r="BS1" s="77"/>
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="65"/>
+      <c r="BS1" s="65"/>
     </row>
     <row r="2" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4962,85 +4978,85 @@
     </row>
     <row r="30" spans="1:71" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
     </row>
     <row r="31" spans="1:71" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="68" t="s">
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70" t="s">
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="56" t="s">
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="72" t="s">
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="58" t="s">
+      <c r="R31" s="75"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="75"/>
+      <c r="U31" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="62" t="s">
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="63"/>
-      <c r="AC31" s="56" t="s">
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="AD31" s="57"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="74" t="s">
+      <c r="AD31" s="69"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="69"/>
+      <c r="AG31" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="AH31" s="75"/>
-      <c r="AI31" s="75"/>
-      <c r="AJ31" s="75"/>
-      <c r="AK31" s="70" t="s">
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="AL31" s="71"/>
-      <c r="AM31" s="71"/>
-      <c r="AN31" s="71"/>
-      <c r="AO31" s="60" t="s">
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="AP31" s="61"/>
-      <c r="AQ31" s="61"/>
-      <c r="AR31" s="61"/>
-      <c r="AS31" s="70" t="s">
+      <c r="AP31" s="67"/>
+      <c r="AQ31" s="67"/>
+      <c r="AR31" s="67"/>
+      <c r="AS31" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="AT31" s="70"/>
-      <c r="AU31" s="71"/>
-      <c r="AV31" s="71"/>
-      <c r="AW31" s="71"/>
+      <c r="AT31" s="72"/>
+      <c r="AU31" s="73"/>
+      <c r="AV31" s="73"/>
+      <c r="AW31" s="73"/>
     </row>
     <row r="32" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -10798,19 +10814,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="BP1:BS1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AK31:AN31"/>
-    <mergeCell ref="AO31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
     <mergeCell ref="AC31:AF31"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="A31:D31"/>
@@ -10827,6 +10830,19 @@
     <mergeCell ref="U31:X31"/>
     <mergeCell ref="Y31:AB31"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG31:AJ31"/>
+    <mergeCell ref="BP1:BS1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AO31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10835,10 +10851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A6FEBD-9C84-4F48-804F-29FA9AB12E44}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10860,44 +10876,56 @@
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="86" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="86"/>
+    <col min="24" max="24" width="20.42578125" style="86" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" style="86" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="70" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72" t="s">
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="56" t="s">
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
@@ -10943,16 +10971,26 @@
         <v>6</v>
       </c>
       <c r="Q2" s="51"/>
-      <c r="R2" s="80" t="s">
+      <c r="R2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="81"/>
-      <c r="T2" s="80" t="s">
+      <c r="S2" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="82"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U2" s="58"/>
+      <c r="V2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="40"/>
+      <c r="X2" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="41"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
@@ -11004,18 +11042,30 @@
       <c r="Q3" s="51">
         <v>1500000</v>
       </c>
-      <c r="R3" s="80" t="s">
+      <c r="R3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="81"/>
-      <c r="T3" s="80" t="s">
+      <c r="S3" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="82">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U3" s="58">
+        <v>1500000</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="40"/>
+      <c r="X3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="41">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
@@ -11063,16 +11113,28 @@
         <v>17</v>
       </c>
       <c r="Q4" s="51"/>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="81"/>
-      <c r="T4" s="80" t="s">
+      <c r="S4" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="82"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U4" s="58">
+        <v>149600</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="40"/>
+      <c r="X4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="41"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
@@ -11120,18 +11182,28 @@
       <c r="Q5" s="51">
         <v>243000</v>
       </c>
-      <c r="R5" s="80" t="s">
+      <c r="R5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="81">
+      <c r="S5" s="57">
         <v>220000</v>
       </c>
-      <c r="T5" s="80" t="s">
+      <c r="T5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="82"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U5" s="58">
+        <v>179300</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="40"/>
+      <c r="X5" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="41"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
@@ -11181,16 +11253,28 @@
       <c r="Q6" s="51">
         <v>979600</v>
       </c>
-      <c r="R6" s="80" t="s">
+      <c r="R6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="81"/>
-      <c r="T6" s="80" t="s">
+      <c r="S6" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="82"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U6" s="58">
+        <v>842500</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="40"/>
+      <c r="X6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="41"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
@@ -11238,14 +11322,28 @@
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="51"/>
-      <c r="R7" s="80" t="s">
+      <c r="R7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="81"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="82"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S7" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T7" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="U7" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="W7" s="40"/>
+      <c r="X7" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y7" s="41"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>18</v>
       </c>
@@ -11289,14 +11387,28 @@
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="51"/>
-      <c r="R8" s="80" t="s">
+      <c r="R8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="81"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="82"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S8" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T8" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="U8" s="58">
+        <v>38000</v>
+      </c>
+      <c r="V8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="40"/>
+      <c r="X8" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y8" s="41"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>21</v>
       </c>
@@ -11340,14 +11452,28 @@
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="51"/>
-      <c r="R9" s="80" t="s">
+      <c r="R9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="81"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="82"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S9" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T9" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="U9" s="58">
+        <v>76400</v>
+      </c>
+      <c r="V9" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="40"/>
+      <c r="X9" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y9" s="41"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
@@ -11391,14 +11517,22 @@
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="51"/>
-      <c r="R10" s="80" t="s">
+      <c r="R10" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="81"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="82"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S10" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T10" s="56"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" s="40"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="41"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
@@ -11442,14 +11576,22 @@
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="51"/>
-      <c r="R11" s="80" t="s">
+      <c r="R11" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="81"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="82"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S11" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T11" s="56"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11" s="40"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="41"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
@@ -11493,14 +11635,22 @@
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="51"/>
-      <c r="R12" s="80" t="s">
+      <c r="R12" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="81"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="82"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S12" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T12" s="56"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="W12" s="40"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="41"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
@@ -11540,14 +11690,22 @@
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="51"/>
-      <c r="R13" s="80" t="s">
+      <c r="R13" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="81"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="82"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S13" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T13" s="56"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W13" s="40"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="41"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
@@ -11583,14 +11741,22 @@
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="51"/>
-      <c r="R14" s="80" t="s">
+      <c r="R14" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="81"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="82"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S14" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T14" s="56"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="40"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="41"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
@@ -11626,14 +11792,22 @@
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="51"/>
-      <c r="R15" s="80" t="s">
+      <c r="R15" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="S15" s="81"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="82"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S15" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T15" s="56"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="W15" s="40"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="41"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
@@ -11669,14 +11843,22 @@
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="51"/>
-      <c r="R16" s="80" t="s">
+      <c r="R16" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="81"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="82"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S16" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T16" s="56"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" s="40"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="41"/>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>30</v>
       </c>
@@ -11712,14 +11894,22 @@
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="51"/>
-      <c r="R17" s="80" t="s">
+      <c r="R17" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="S17" s="81"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="82"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S17" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T17" s="56"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" s="40"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="41"/>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>31</v>
       </c>
@@ -11755,14 +11945,22 @@
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="51"/>
-      <c r="R18" s="80" t="s">
+      <c r="R18" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="81"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="82"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S18" s="57">
+        <v>220000</v>
+      </c>
+      <c r="T18" s="56"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="40"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="41"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="46"/>
       <c r="C19" s="22"/>
@@ -11780,12 +11978,16 @@
       <c r="O19" s="52"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="51"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="82"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R19" s="56"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="41"/>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="23"/>
       <c r="C20" s="22"/>
@@ -11803,12 +12005,16 @@
       <c r="O20" s="8"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="51"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="82"/>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R20" s="56"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="41"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>32</v>
       </c>
@@ -11869,22 +12075,36 @@
         <f>SUM(Q2:Q20)</f>
         <v>2722600</v>
       </c>
-      <c r="R21" s="85" t="s">
+      <c r="R21" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="S21" s="84">
+      <c r="S21" s="60">
         <f>SUM(S2:S18)</f>
-        <v>220000</v>
-      </c>
-      <c r="T21" s="85" t="s">
+        <v>3740000</v>
+      </c>
+      <c r="T21" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="82">
+      <c r="U21" s="58">
         <f>SUM(U2:U20)</f>
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3785800</v>
+      </c>
+      <c r="V21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="W21" s="29">
+        <f>SUM(W2:W18)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y21" s="41">
+        <f>SUM(Y2:Y20)</f>
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="22"/>
@@ -11902,12 +12122,16 @@
       <c r="O22" s="8"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="51"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="82"/>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R22" s="56"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="41"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>34</v>
       </c>
@@ -11944,23 +12168,33 @@
       </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="51"/>
-      <c r="R23" s="85" t="s">
+      <c r="R23" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="S23" s="84">
+      <c r="S23" s="60">
         <f>(S21-U21)</f>
-        <v>-20000</v>
-      </c>
-      <c r="T23" s="85"/>
-      <c r="U23" s="82"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>-45800</v>
+      </c>
+      <c r="T23" s="61"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" s="29">
+        <f>(W21-Y21)</f>
+        <v>-270000</v>
+      </c>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="41"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="V1:Y1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:M1"/>
